--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Eliot_3.0/20.15.04/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Eliot_3.0/20.15.04/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DOCUMENTI\CDA_FSE2.0\AccreditamentoFSE20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DOCUMENTI\CDA_FSE2.0\AccreditamentoFSE20\pubblicati\Eliot_3.0\20.15.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589C77EB-7C76-4EC4-9A96-EDE02AA49C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DCE82-875B-44F1-B8B8-BE92B94C6B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -782,12 +782,60 @@
   <si>
     <t>L'errore comporta la non validabilità del referto. Il personale tecnico, dovrà corregere le configurazioni errate e successivamente potrà essere rigenerato il CDA per la successiva validazione. L'errore tecnico semantico completo che evidenzia la causa :"Errore semantico.","detail":"[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Applicativo Trasfusionale, il test OK è il 191.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +936,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1139,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1212,8 +1265,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1256,6 +1307,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,68 +1639,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="130.28515625" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="29"/>
+    <col min="1" max="1" width="130.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="29"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2701,13 +2781,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T818"/>
+  <dimension ref="A1:T823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,12 +2799,13 @@
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="51.5703125" customWidth="1"/>
+    <col min="12" max="15" width="36.42578125" customWidth="1"/>
     <col min="16" max="16" width="27.140625" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="31.85546875" customWidth="1"/>
-    <col min="20" max="20" width="31.85546875" style="35" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="33" customWidth="1"/>
     <col min="21" max="30" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2744,17 +2825,17 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="9"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="34"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2769,17 +2850,17 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="34"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="38"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2794,15 +2875,15 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="34"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2818,15 +2899,15 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="34"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="38"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2841,11 +2922,11 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="34"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2861,7 +2942,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -2881,7 +2962,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="34"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="7"/>
@@ -2898,7 +2979,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="34"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -2934,16 +3015,16 @@
       <c r="K9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="30" t="s">
         <v>100</v>
       </c>
       <c r="P9" s="12" t="s">
@@ -2962,251 +3043,189 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>1</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>2</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="19"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
+        <v>3</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
+        <v>4</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
+        <v>5</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="19"/>
+    </row>
+    <row r="15" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>28</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="17">
-        <v>44998</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>36</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="17">
-        <v>44998</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>44</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="17">
-        <v>44998</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>52</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="17">
-        <v>44998</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>53</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>54</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>25</v>
@@ -3215,22 +3234,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="F15" s="17">
         <v>44998</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>33</v>
@@ -3243,24 +3262,24 @@
         <v>33</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>25</v>
@@ -3269,22 +3288,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="17">
         <v>44998</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>33</v>
@@ -3297,24 +3316,24 @@
         <v>33</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>25</v>
@@ -3323,52 +3342,40 @@
         <v>26</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F17" s="17">
         <v>44998</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>25</v>
@@ -3377,22 +3384,22 @@
         <v>26</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F18" s="17">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>33</v>
@@ -3405,24 +3412,24 @@
         <v>33</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>25</v>
@@ -3431,52 +3438,36 @@
         <v>26</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="17">
-        <v>44999</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>150</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>151</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>25</v>
@@ -3485,22 +3476,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F20" s="17">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>33</v>
@@ -3513,24 +3504,24 @@
         <v>33</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="33" t="s">
+      <c r="T20" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>25</v>
@@ -3539,22 +3530,22 @@
         <v>26</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F21" s="17">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>33</v>
@@ -3567,24 +3558,24 @@
         <v>33</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>25</v>
@@ -3593,22 +3584,22 @@
         <v>26</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F22" s="17">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>33</v>
@@ -3621,24 +3612,24 @@
         <v>33</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>25</v>
@@ -3647,22 +3638,22 @@
         <v>26</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F23" s="17">
         <v>44999</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>33</v>
@@ -3675,24 +3666,24 @@
         <v>33</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="33" t="s">
+      <c r="T23" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>25</v>
@@ -3701,123 +3692,308 @@
         <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F24" s="17">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="L24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="33" t="s">
+      <c r="T24" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>59</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="17">
+        <v>44999</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>60</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="17">
+        <v>44999</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>61</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="17">
+        <v>44999</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>62</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="17">
+        <v>44999</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>191</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="17">
+        <v>44998</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="34"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="34"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="34"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="34"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="34"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="7"/>
@@ -3834,7 +4010,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="9"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="34"/>
+      <c r="T30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="7"/>
@@ -3851,7 +4027,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="34"/>
+      <c r="T31" s="32"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
@@ -3868,7 +4044,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="9"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="34"/>
+      <c r="T32" s="32"/>
     </row>
     <row r="33" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F33" s="7"/>
@@ -3885,7 +4061,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="34"/>
+      <c r="T33" s="32"/>
     </row>
     <row r="34" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F34" s="7"/>
@@ -3902,7 +4078,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="9"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="34"/>
+      <c r="T34" s="32"/>
     </row>
     <row r="35" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F35" s="7"/>
@@ -3919,7 +4095,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="9"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="34"/>
+      <c r="T35" s="32"/>
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F36" s="7"/>
@@ -3936,7 +4112,7 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="34"/>
+      <c r="T36" s="32"/>
     </row>
     <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F37" s="7"/>
@@ -3953,7 +4129,7 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="9"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="34"/>
+      <c r="T37" s="32"/>
     </row>
     <row r="38" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F38" s="7"/>
@@ -3970,7 +4146,7 @@
       <c r="Q38" s="8"/>
       <c r="R38" s="9"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="34"/>
+      <c r="T38" s="32"/>
     </row>
     <row r="39" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F39" s="7"/>
@@ -3987,7 +4163,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="9"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="34"/>
+      <c r="T39" s="32"/>
     </row>
     <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F40" s="7"/>
@@ -4004,7 +4180,7 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="9"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="34"/>
+      <c r="T40" s="32"/>
     </row>
     <row r="41" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F41" s="7"/>
@@ -4021,7 +4197,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="9"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="34"/>
+      <c r="T41" s="32"/>
     </row>
     <row r="42" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F42" s="7"/>
@@ -4038,7 +4214,7 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="9"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="34"/>
+      <c r="T42" s="32"/>
     </row>
     <row r="43" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F43" s="7"/>
@@ -4055,7 +4231,7 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="9"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="34"/>
+      <c r="T43" s="32"/>
     </row>
     <row r="44" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F44" s="7"/>
@@ -4072,7 +4248,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="9"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="34"/>
+      <c r="T44" s="32"/>
     </row>
     <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F45" s="7"/>
@@ -4089,7 +4265,7 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="9"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="34"/>
+      <c r="T45" s="32"/>
     </row>
     <row r="46" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F46" s="7"/>
@@ -4106,7 +4282,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="9"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="34"/>
+      <c r="T46" s="32"/>
     </row>
     <row r="47" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -4123,7 +4299,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="9"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="34"/>
+      <c r="T47" s="32"/>
     </row>
     <row r="48" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F48" s="7"/>
@@ -4140,7 +4316,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="9"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="34"/>
+      <c r="T48" s="32"/>
     </row>
     <row r="49" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F49" s="7"/>
@@ -4157,7 +4333,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="9"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="34"/>
+      <c r="T49" s="32"/>
     </row>
     <row r="50" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F50" s="7"/>
@@ -4174,7 +4350,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="9"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="34"/>
+      <c r="T50" s="32"/>
     </row>
     <row r="51" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F51" s="7"/>
@@ -4191,7 +4367,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="9"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="34"/>
+      <c r="T51" s="32"/>
     </row>
     <row r="52" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F52" s="7"/>
@@ -4208,7 +4384,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="9"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="34"/>
+      <c r="T52" s="32"/>
     </row>
     <row r="53" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F53" s="7"/>
@@ -4225,7 +4401,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="9"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="34"/>
+      <c r="T53" s="32"/>
     </row>
     <row r="54" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F54" s="7"/>
@@ -4242,7 +4418,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="9"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="34"/>
+      <c r="T54" s="32"/>
     </row>
     <row r="55" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F55" s="7"/>
@@ -4259,7 +4435,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="9"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="34"/>
+      <c r="T55" s="32"/>
     </row>
     <row r="56" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F56" s="7"/>
@@ -4276,7 +4452,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="9"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="34"/>
+      <c r="T56" s="32"/>
     </row>
     <row r="57" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F57" s="7"/>
@@ -4293,7 +4469,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="9"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="34"/>
+      <c r="T57" s="32"/>
     </row>
     <row r="58" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F58" s="7"/>
@@ -4310,7 +4486,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="9"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="34"/>
+      <c r="T58" s="32"/>
     </row>
     <row r="59" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F59" s="7"/>
@@ -4327,7 +4503,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="9"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="34"/>
+      <c r="T59" s="32"/>
     </row>
     <row r="60" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F60" s="7"/>
@@ -4344,7 +4520,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="9"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="34"/>
+      <c r="T60" s="32"/>
     </row>
     <row r="61" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F61" s="7"/>
@@ -4361,7 +4537,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="9"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="34"/>
+      <c r="T61" s="32"/>
     </row>
     <row r="62" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F62" s="7"/>
@@ -4378,7 +4554,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="9"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="34"/>
+      <c r="T62" s="32"/>
     </row>
     <row r="63" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F63" s="7"/>
@@ -4395,7 +4571,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="9"/>
       <c r="S63" s="6"/>
-      <c r="T63" s="34"/>
+      <c r="T63" s="32"/>
     </row>
     <row r="64" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F64" s="7"/>
@@ -4412,7 +4588,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="9"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="34"/>
+      <c r="T64" s="32"/>
     </row>
     <row r="65" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F65" s="7"/>
@@ -4429,7 +4605,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="34"/>
+      <c r="T65" s="32"/>
     </row>
     <row r="66" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F66" s="7"/>
@@ -4446,7 +4622,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="9"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="34"/>
+      <c r="T66" s="32"/>
     </row>
     <row r="67" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F67" s="7"/>
@@ -4463,7 +4639,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="9"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="34"/>
+      <c r="T67" s="32"/>
     </row>
     <row r="68" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F68" s="7"/>
@@ -4480,7 +4656,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="9"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="34"/>
+      <c r="T68" s="32"/>
     </row>
     <row r="69" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F69" s="7"/>
@@ -4497,7 +4673,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="9"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="34"/>
+      <c r="T69" s="32"/>
     </row>
     <row r="70" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F70" s="7"/>
@@ -4514,7 +4690,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="9"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="34"/>
+      <c r="T70" s="32"/>
     </row>
     <row r="71" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F71" s="7"/>
@@ -4531,7 +4707,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="9"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="34"/>
+      <c r="T71" s="32"/>
     </row>
     <row r="72" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F72" s="7"/>
@@ -4548,7 +4724,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="9"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="34"/>
+      <c r="T72" s="32"/>
     </row>
     <row r="73" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F73" s="7"/>
@@ -4565,7 +4741,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="9"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="34"/>
+      <c r="T73" s="32"/>
     </row>
     <row r="74" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F74" s="7"/>
@@ -4582,7 +4758,7 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="9"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="34"/>
+      <c r="T74" s="32"/>
     </row>
     <row r="75" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F75" s="7"/>
@@ -4599,7 +4775,7 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="9"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="34"/>
+      <c r="T75" s="32"/>
     </row>
     <row r="76" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F76" s="7"/>
@@ -4616,7 +4792,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="9"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="34"/>
+      <c r="T76" s="32"/>
     </row>
     <row r="77" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F77" s="7"/>
@@ -4633,7 +4809,7 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="9"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="34"/>
+      <c r="T77" s="32"/>
     </row>
     <row r="78" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F78" s="7"/>
@@ -4650,7 +4826,7 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="9"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="34"/>
+      <c r="T78" s="32"/>
     </row>
     <row r="79" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F79" s="7"/>
@@ -4667,7 +4843,7 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="9"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="34"/>
+      <c r="T79" s="32"/>
     </row>
     <row r="80" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F80" s="7"/>
@@ -4684,7 +4860,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="34"/>
+      <c r="T80" s="32"/>
     </row>
     <row r="81" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F81" s="7"/>
@@ -4701,7 +4877,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="9"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="34"/>
+      <c r="T81" s="32"/>
     </row>
     <row r="82" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F82" s="7"/>
@@ -4718,7 +4894,7 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="9"/>
       <c r="S82" s="6"/>
-      <c r="T82" s="34"/>
+      <c r="T82" s="32"/>
     </row>
     <row r="83" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F83" s="7"/>
@@ -4735,7 +4911,7 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="9"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="34"/>
+      <c r="T83" s="32"/>
     </row>
     <row r="84" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F84" s="7"/>
@@ -4752,7 +4928,7 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="9"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="34"/>
+      <c r="T84" s="32"/>
     </row>
     <row r="85" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F85" s="7"/>
@@ -4769,7 +4945,7 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="9"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="34"/>
+      <c r="T85" s="32"/>
     </row>
     <row r="86" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F86" s="7"/>
@@ -4786,7 +4962,7 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="9"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="34"/>
+      <c r="T86" s="32"/>
     </row>
     <row r="87" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F87" s="7"/>
@@ -4803,7 +4979,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="9"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="34"/>
+      <c r="T87" s="32"/>
     </row>
     <row r="88" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F88" s="7"/>
@@ -4820,7 +4996,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="9"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="34"/>
+      <c r="T88" s="32"/>
     </row>
     <row r="89" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F89" s="7"/>
@@ -4837,7 +5013,7 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="9"/>
       <c r="S89" s="6"/>
-      <c r="T89" s="34"/>
+      <c r="T89" s="32"/>
     </row>
     <row r="90" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F90" s="7"/>
@@ -4854,7 +5030,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="9"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="34"/>
+      <c r="T90" s="32"/>
     </row>
     <row r="91" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F91" s="7"/>
@@ -4871,7 +5047,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="9"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="34"/>
+      <c r="T91" s="32"/>
     </row>
     <row r="92" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F92" s="7"/>
@@ -4888,7 +5064,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="9"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="34"/>
+      <c r="T92" s="32"/>
     </row>
     <row r="93" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F93" s="7"/>
@@ -4905,7 +5081,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="9"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="34"/>
+      <c r="T93" s="32"/>
     </row>
     <row r="94" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F94" s="7"/>
@@ -4922,7 +5098,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="9"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="34"/>
+      <c r="T94" s="32"/>
     </row>
     <row r="95" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F95" s="7"/>
@@ -4939,7 +5115,7 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="9"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="34"/>
+      <c r="T95" s="32"/>
     </row>
     <row r="96" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F96" s="7"/>
@@ -4956,7 +5132,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="9"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="34"/>
+      <c r="T96" s="32"/>
     </row>
     <row r="97" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F97" s="7"/>
@@ -4973,7 +5149,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="9"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="34"/>
+      <c r="T97" s="32"/>
     </row>
     <row r="98" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F98" s="7"/>
@@ -4990,7 +5166,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="9"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="34"/>
+      <c r="T98" s="32"/>
     </row>
     <row r="99" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F99" s="7"/>
@@ -5007,7 +5183,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="9"/>
       <c r="S99" s="6"/>
-      <c r="T99" s="34"/>
+      <c r="T99" s="32"/>
     </row>
     <row r="100" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F100" s="7"/>
@@ -5024,7 +5200,7 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="9"/>
       <c r="S100" s="6"/>
-      <c r="T100" s="34"/>
+      <c r="T100" s="32"/>
     </row>
     <row r="101" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F101" s="7"/>
@@ -5041,7 +5217,7 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="9"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="34"/>
+      <c r="T101" s="32"/>
     </row>
     <row r="102" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F102" s="7"/>
@@ -5058,7 +5234,7 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="9"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="34"/>
+      <c r="T102" s="32"/>
     </row>
     <row r="103" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F103" s="7"/>
@@ -5075,7 +5251,7 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="9"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="34"/>
+      <c r="T103" s="32"/>
     </row>
     <row r="104" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F104" s="7"/>
@@ -5092,7 +5268,7 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="9"/>
       <c r="S104" s="6"/>
-      <c r="T104" s="34"/>
+      <c r="T104" s="32"/>
     </row>
     <row r="105" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F105" s="7"/>
@@ -5109,7 +5285,7 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="9"/>
       <c r="S105" s="6"/>
-      <c r="T105" s="34"/>
+      <c r="T105" s="32"/>
     </row>
     <row r="106" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F106" s="7"/>
@@ -5126,7 +5302,7 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="9"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="34"/>
+      <c r="T106" s="32"/>
     </row>
     <row r="107" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F107" s="7"/>
@@ -5143,7 +5319,7 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="9"/>
       <c r="S107" s="6"/>
-      <c r="T107" s="34"/>
+      <c r="T107" s="32"/>
     </row>
     <row r="108" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F108" s="7"/>
@@ -5160,7 +5336,7 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="9"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="34"/>
+      <c r="T108" s="32"/>
     </row>
     <row r="109" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F109" s="7"/>
@@ -5177,7 +5353,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="9"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="34"/>
+      <c r="T109" s="32"/>
     </row>
     <row r="110" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F110" s="7"/>
@@ -5194,7 +5370,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="9"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="34"/>
+      <c r="T110" s="32"/>
     </row>
     <row r="111" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F111" s="7"/>
@@ -5211,7 +5387,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="9"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="34"/>
+      <c r="T111" s="32"/>
     </row>
     <row r="112" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F112" s="7"/>
@@ -5228,7 +5404,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="9"/>
       <c r="S112" s="6"/>
-      <c r="T112" s="34"/>
+      <c r="T112" s="32"/>
     </row>
     <row r="113" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F113" s="7"/>
@@ -5245,7 +5421,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="9"/>
       <c r="S113" s="6"/>
-      <c r="T113" s="34"/>
+      <c r="T113" s="32"/>
     </row>
     <row r="114" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F114" s="7"/>
@@ -5262,7 +5438,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="9"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="34"/>
+      <c r="T114" s="32"/>
     </row>
     <row r="115" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F115" s="7"/>
@@ -5279,7 +5455,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="9"/>
       <c r="S115" s="6"/>
-      <c r="T115" s="34"/>
+      <c r="T115" s="32"/>
     </row>
     <row r="116" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F116" s="7"/>
@@ -5296,7 +5472,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="9"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="34"/>
+      <c r="T116" s="32"/>
     </row>
     <row r="117" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F117" s="7"/>
@@ -5313,7 +5489,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="9"/>
       <c r="S117" s="6"/>
-      <c r="T117" s="34"/>
+      <c r="T117" s="32"/>
     </row>
     <row r="118" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F118" s="7"/>
@@ -5330,7 +5506,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="9"/>
       <c r="S118" s="6"/>
-      <c r="T118" s="34"/>
+      <c r="T118" s="32"/>
     </row>
     <row r="119" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F119" s="7"/>
@@ -5347,7 +5523,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="9"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="34"/>
+      <c r="T119" s="32"/>
     </row>
     <row r="120" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F120" s="7"/>
@@ -5364,7 +5540,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="9"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="34"/>
+      <c r="T120" s="32"/>
     </row>
     <row r="121" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F121" s="7"/>
@@ -5381,7 +5557,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="9"/>
       <c r="S121" s="6"/>
-      <c r="T121" s="34"/>
+      <c r="T121" s="32"/>
     </row>
     <row r="122" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F122" s="7"/>
@@ -5398,7 +5574,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="9"/>
       <c r="S122" s="6"/>
-      <c r="T122" s="34"/>
+      <c r="T122" s="32"/>
     </row>
     <row r="123" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F123" s="7"/>
@@ -5415,7 +5591,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="9"/>
       <c r="S123" s="6"/>
-      <c r="T123" s="34"/>
+      <c r="T123" s="32"/>
     </row>
     <row r="124" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F124" s="7"/>
@@ -5432,7 +5608,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="9"/>
       <c r="S124" s="6"/>
-      <c r="T124" s="34"/>
+      <c r="T124" s="32"/>
     </row>
     <row r="125" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F125" s="7"/>
@@ -5449,7 +5625,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="9"/>
       <c r="S125" s="6"/>
-      <c r="T125" s="34"/>
+      <c r="T125" s="32"/>
     </row>
     <row r="126" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F126" s="7"/>
@@ -5466,7 +5642,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="9"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="34"/>
+      <c r="T126" s="32"/>
     </row>
     <row r="127" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F127" s="7"/>
@@ -5483,7 +5659,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="9"/>
       <c r="S127" s="6"/>
-      <c r="T127" s="34"/>
+      <c r="T127" s="32"/>
     </row>
     <row r="128" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F128" s="7"/>
@@ -5500,7 +5676,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="9"/>
       <c r="S128" s="6"/>
-      <c r="T128" s="34"/>
+      <c r="T128" s="32"/>
     </row>
     <row r="129" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F129" s="7"/>
@@ -5517,7 +5693,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="9"/>
       <c r="S129" s="6"/>
-      <c r="T129" s="34"/>
+      <c r="T129" s="32"/>
     </row>
     <row r="130" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F130" s="7"/>
@@ -5534,7 +5710,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="9"/>
       <c r="S130" s="6"/>
-      <c r="T130" s="34"/>
+      <c r="T130" s="32"/>
     </row>
     <row r="131" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F131" s="7"/>
@@ -5551,7 +5727,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="9"/>
       <c r="S131" s="6"/>
-      <c r="T131" s="34"/>
+      <c r="T131" s="32"/>
     </row>
     <row r="132" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F132" s="7"/>
@@ -5568,7 +5744,7 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="9"/>
       <c r="S132" s="6"/>
-      <c r="T132" s="34"/>
+      <c r="T132" s="32"/>
     </row>
     <row r="133" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F133" s="7"/>
@@ -5585,7 +5761,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="9"/>
       <c r="S133" s="6"/>
-      <c r="T133" s="34"/>
+      <c r="T133" s="32"/>
     </row>
     <row r="134" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F134" s="7"/>
@@ -5602,7 +5778,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="9"/>
       <c r="S134" s="6"/>
-      <c r="T134" s="34"/>
+      <c r="T134" s="32"/>
     </row>
     <row r="135" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F135" s="7"/>
@@ -5619,7 +5795,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="9"/>
       <c r="S135" s="6"/>
-      <c r="T135" s="34"/>
+      <c r="T135" s="32"/>
     </row>
     <row r="136" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F136" s="7"/>
@@ -5636,7 +5812,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="9"/>
       <c r="S136" s="6"/>
-      <c r="T136" s="34"/>
+      <c r="T136" s="32"/>
     </row>
     <row r="137" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F137" s="7"/>
@@ -5653,7 +5829,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="9"/>
       <c r="S137" s="6"/>
-      <c r="T137" s="34"/>
+      <c r="T137" s="32"/>
     </row>
     <row r="138" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F138" s="7"/>
@@ -5670,7 +5846,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="9"/>
       <c r="S138" s="6"/>
-      <c r="T138" s="34"/>
+      <c r="T138" s="32"/>
     </row>
     <row r="139" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F139" s="7"/>
@@ -5687,7 +5863,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="9"/>
       <c r="S139" s="6"/>
-      <c r="T139" s="34"/>
+      <c r="T139" s="32"/>
     </row>
     <row r="140" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F140" s="7"/>
@@ -5704,7 +5880,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="9"/>
       <c r="S140" s="6"/>
-      <c r="T140" s="34"/>
+      <c r="T140" s="32"/>
     </row>
     <row r="141" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F141" s="7"/>
@@ -5721,7 +5897,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="9"/>
       <c r="S141" s="6"/>
-      <c r="T141" s="34"/>
+      <c r="T141" s="32"/>
     </row>
     <row r="142" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F142" s="7"/>
@@ -5738,7 +5914,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="9"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="34"/>
+      <c r="T142" s="32"/>
     </row>
     <row r="143" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F143" s="7"/>
@@ -5755,7 +5931,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="9"/>
       <c r="S143" s="6"/>
-      <c r="T143" s="34"/>
+      <c r="T143" s="32"/>
     </row>
     <row r="144" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F144" s="7"/>
@@ -5772,7 +5948,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="9"/>
       <c r="S144" s="6"/>
-      <c r="T144" s="34"/>
+      <c r="T144" s="32"/>
     </row>
     <row r="145" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F145" s="7"/>
@@ -5789,7 +5965,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="9"/>
       <c r="S145" s="6"/>
-      <c r="T145" s="34"/>
+      <c r="T145" s="32"/>
     </row>
     <row r="146" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F146" s="7"/>
@@ -5806,7 +5982,7 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="9"/>
       <c r="S146" s="6"/>
-      <c r="T146" s="34"/>
+      <c r="T146" s="32"/>
     </row>
     <row r="147" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F147" s="7"/>
@@ -5823,7 +5999,7 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="9"/>
       <c r="S147" s="6"/>
-      <c r="T147" s="34"/>
+      <c r="T147" s="32"/>
     </row>
     <row r="148" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F148" s="7"/>
@@ -5840,7 +6016,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="9"/>
       <c r="S148" s="6"/>
-      <c r="T148" s="34"/>
+      <c r="T148" s="32"/>
     </row>
     <row r="149" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F149" s="7"/>
@@ -5857,7 +6033,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="9"/>
       <c r="S149" s="6"/>
-      <c r="T149" s="34"/>
+      <c r="T149" s="32"/>
     </row>
     <row r="150" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F150" s="7"/>
@@ -5874,7 +6050,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="9"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="34"/>
+      <c r="T150" s="32"/>
     </row>
     <row r="151" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F151" s="7"/>
@@ -5891,7 +6067,7 @@
       <c r="Q151" s="8"/>
       <c r="R151" s="9"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="34"/>
+      <c r="T151" s="32"/>
     </row>
     <row r="152" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F152" s="7"/>
@@ -5908,7 +6084,7 @@
       <c r="Q152" s="8"/>
       <c r="R152" s="9"/>
       <c r="S152" s="6"/>
-      <c r="T152" s="34"/>
+      <c r="T152" s="32"/>
     </row>
     <row r="153" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F153" s="7"/>
@@ -5925,7 +6101,7 @@
       <c r="Q153" s="8"/>
       <c r="R153" s="9"/>
       <c r="S153" s="6"/>
-      <c r="T153" s="34"/>
+      <c r="T153" s="32"/>
     </row>
     <row r="154" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F154" s="7"/>
@@ -5942,7 +6118,7 @@
       <c r="Q154" s="8"/>
       <c r="R154" s="9"/>
       <c r="S154" s="6"/>
-      <c r="T154" s="34"/>
+      <c r="T154" s="32"/>
     </row>
     <row r="155" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F155" s="7"/>
@@ -5959,7 +6135,7 @@
       <c r="Q155" s="8"/>
       <c r="R155" s="9"/>
       <c r="S155" s="6"/>
-      <c r="T155" s="34"/>
+      <c r="T155" s="32"/>
     </row>
     <row r="156" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F156" s="7"/>
@@ -5976,7 +6152,7 @@
       <c r="Q156" s="8"/>
       <c r="R156" s="9"/>
       <c r="S156" s="6"/>
-      <c r="T156" s="34"/>
+      <c r="T156" s="32"/>
     </row>
     <row r="157" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F157" s="7"/>
@@ -5993,7 +6169,7 @@
       <c r="Q157" s="8"/>
       <c r="R157" s="9"/>
       <c r="S157" s="6"/>
-      <c r="T157" s="34"/>
+      <c r="T157" s="32"/>
     </row>
     <row r="158" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F158" s="7"/>
@@ -6010,7 +6186,7 @@
       <c r="Q158" s="8"/>
       <c r="R158" s="9"/>
       <c r="S158" s="6"/>
-      <c r="T158" s="34"/>
+      <c r="T158" s="32"/>
     </row>
     <row r="159" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F159" s="7"/>
@@ -6027,7 +6203,7 @@
       <c r="Q159" s="8"/>
       <c r="R159" s="9"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="34"/>
+      <c r="T159" s="32"/>
     </row>
     <row r="160" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F160" s="7"/>
@@ -6044,7 +6220,7 @@
       <c r="Q160" s="8"/>
       <c r="R160" s="9"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="34"/>
+      <c r="T160" s="32"/>
     </row>
     <row r="161" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F161" s="7"/>
@@ -6061,7 +6237,7 @@
       <c r="Q161" s="8"/>
       <c r="R161" s="9"/>
       <c r="S161" s="6"/>
-      <c r="T161" s="34"/>
+      <c r="T161" s="32"/>
     </row>
     <row r="162" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F162" s="7"/>
@@ -6078,7 +6254,7 @@
       <c r="Q162" s="8"/>
       <c r="R162" s="9"/>
       <c r="S162" s="6"/>
-      <c r="T162" s="34"/>
+      <c r="T162" s="32"/>
     </row>
     <row r="163" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F163" s="7"/>
@@ -6095,7 +6271,7 @@
       <c r="Q163" s="8"/>
       <c r="R163" s="9"/>
       <c r="S163" s="6"/>
-      <c r="T163" s="34"/>
+      <c r="T163" s="32"/>
     </row>
     <row r="164" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F164" s="7"/>
@@ -6112,7 +6288,7 @@
       <c r="Q164" s="8"/>
       <c r="R164" s="9"/>
       <c r="S164" s="6"/>
-      <c r="T164" s="34"/>
+      <c r="T164" s="32"/>
     </row>
     <row r="165" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F165" s="7"/>
@@ -6129,7 +6305,7 @@
       <c r="Q165" s="8"/>
       <c r="R165" s="9"/>
       <c r="S165" s="6"/>
-      <c r="T165" s="34"/>
+      <c r="T165" s="32"/>
     </row>
     <row r="166" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F166" s="7"/>
@@ -6146,7 +6322,7 @@
       <c r="Q166" s="8"/>
       <c r="R166" s="9"/>
       <c r="S166" s="6"/>
-      <c r="T166" s="34"/>
+      <c r="T166" s="32"/>
     </row>
     <row r="167" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F167" s="7"/>
@@ -6163,7 +6339,7 @@
       <c r="Q167" s="8"/>
       <c r="R167" s="9"/>
       <c r="S167" s="6"/>
-      <c r="T167" s="34"/>
+      <c r="T167" s="32"/>
     </row>
     <row r="168" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F168" s="7"/>
@@ -6180,7 +6356,7 @@
       <c r="Q168" s="8"/>
       <c r="R168" s="9"/>
       <c r="S168" s="6"/>
-      <c r="T168" s="34"/>
+      <c r="T168" s="32"/>
     </row>
     <row r="169" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F169" s="7"/>
@@ -6197,7 +6373,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="9"/>
       <c r="S169" s="6"/>
-      <c r="T169" s="34"/>
+      <c r="T169" s="32"/>
     </row>
     <row r="170" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F170" s="7"/>
@@ -6214,7 +6390,7 @@
       <c r="Q170" s="8"/>
       <c r="R170" s="9"/>
       <c r="S170" s="6"/>
-      <c r="T170" s="34"/>
+      <c r="T170" s="32"/>
     </row>
     <row r="171" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F171" s="7"/>
@@ -6231,7 +6407,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="9"/>
       <c r="S171" s="6"/>
-      <c r="T171" s="34"/>
+      <c r="T171" s="32"/>
     </row>
     <row r="172" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F172" s="7"/>
@@ -6248,7 +6424,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="9"/>
       <c r="S172" s="6"/>
-      <c r="T172" s="34"/>
+      <c r="T172" s="32"/>
     </row>
     <row r="173" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F173" s="7"/>
@@ -6265,7 +6441,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="9"/>
       <c r="S173" s="6"/>
-      <c r="T173" s="34"/>
+      <c r="T173" s="32"/>
     </row>
     <row r="174" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F174" s="7"/>
@@ -6282,7 +6458,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="9"/>
       <c r="S174" s="6"/>
-      <c r="T174" s="34"/>
+      <c r="T174" s="32"/>
     </row>
     <row r="175" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F175" s="7"/>
@@ -6299,7 +6475,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="9"/>
       <c r="S175" s="6"/>
-      <c r="T175" s="34"/>
+      <c r="T175" s="32"/>
     </row>
     <row r="176" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F176" s="7"/>
@@ -6316,7 +6492,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="9"/>
       <c r="S176" s="6"/>
-      <c r="T176" s="34"/>
+      <c r="T176" s="32"/>
     </row>
     <row r="177" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F177" s="7"/>
@@ -6333,7 +6509,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="9"/>
       <c r="S177" s="6"/>
-      <c r="T177" s="34"/>
+      <c r="T177" s="32"/>
     </row>
     <row r="178" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F178" s="7"/>
@@ -6350,7 +6526,7 @@
       <c r="Q178" s="8"/>
       <c r="R178" s="9"/>
       <c r="S178" s="6"/>
-      <c r="T178" s="34"/>
+      <c r="T178" s="32"/>
     </row>
     <row r="179" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F179" s="7"/>
@@ -6367,7 +6543,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="9"/>
       <c r="S179" s="6"/>
-      <c r="T179" s="34"/>
+      <c r="T179" s="32"/>
     </row>
     <row r="180" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F180" s="7"/>
@@ -6384,7 +6560,7 @@
       <c r="Q180" s="8"/>
       <c r="R180" s="9"/>
       <c r="S180" s="6"/>
-      <c r="T180" s="34"/>
+      <c r="T180" s="32"/>
     </row>
     <row r="181" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F181" s="7"/>
@@ -6401,7 +6577,7 @@
       <c r="Q181" s="8"/>
       <c r="R181" s="9"/>
       <c r="S181" s="6"/>
-      <c r="T181" s="34"/>
+      <c r="T181" s="32"/>
     </row>
     <row r="182" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F182" s="7"/>
@@ -6418,7 +6594,7 @@
       <c r="Q182" s="8"/>
       <c r="R182" s="9"/>
       <c r="S182" s="6"/>
-      <c r="T182" s="34"/>
+      <c r="T182" s="32"/>
     </row>
     <row r="183" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F183" s="7"/>
@@ -6435,7 +6611,7 @@
       <c r="Q183" s="8"/>
       <c r="R183" s="9"/>
       <c r="S183" s="6"/>
-      <c r="T183" s="34"/>
+      <c r="T183" s="32"/>
     </row>
     <row r="184" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F184" s="7"/>
@@ -6452,7 +6628,7 @@
       <c r="Q184" s="8"/>
       <c r="R184" s="9"/>
       <c r="S184" s="6"/>
-      <c r="T184" s="34"/>
+      <c r="T184" s="32"/>
     </row>
     <row r="185" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F185" s="7"/>
@@ -6469,7 +6645,7 @@
       <c r="Q185" s="8"/>
       <c r="R185" s="9"/>
       <c r="S185" s="6"/>
-      <c r="T185" s="34"/>
+      <c r="T185" s="32"/>
     </row>
     <row r="186" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F186" s="7"/>
@@ -6486,7 +6662,7 @@
       <c r="Q186" s="8"/>
       <c r="R186" s="9"/>
       <c r="S186" s="6"/>
-      <c r="T186" s="34"/>
+      <c r="T186" s="32"/>
     </row>
     <row r="187" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F187" s="7"/>
@@ -6503,7 +6679,7 @@
       <c r="Q187" s="8"/>
       <c r="R187" s="9"/>
       <c r="S187" s="6"/>
-      <c r="T187" s="34"/>
+      <c r="T187" s="32"/>
     </row>
     <row r="188" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F188" s="7"/>
@@ -6520,7 +6696,7 @@
       <c r="Q188" s="8"/>
       <c r="R188" s="9"/>
       <c r="S188" s="6"/>
-      <c r="T188" s="34"/>
+      <c r="T188" s="32"/>
     </row>
     <row r="189" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F189" s="7"/>
@@ -6537,7 +6713,7 @@
       <c r="Q189" s="8"/>
       <c r="R189" s="9"/>
       <c r="S189" s="6"/>
-      <c r="T189" s="34"/>
+      <c r="T189" s="32"/>
     </row>
     <row r="190" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F190" s="7"/>
@@ -6554,7 +6730,7 @@
       <c r="Q190" s="8"/>
       <c r="R190" s="9"/>
       <c r="S190" s="6"/>
-      <c r="T190" s="34"/>
+      <c r="T190" s="32"/>
     </row>
     <row r="191" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F191" s="7"/>
@@ -6571,7 +6747,7 @@
       <c r="Q191" s="8"/>
       <c r="R191" s="9"/>
       <c r="S191" s="6"/>
-      <c r="T191" s="34"/>
+      <c r="T191" s="32"/>
     </row>
     <row r="192" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F192" s="7"/>
@@ -6588,7 +6764,7 @@
       <c r="Q192" s="8"/>
       <c r="R192" s="9"/>
       <c r="S192" s="6"/>
-      <c r="T192" s="34"/>
+      <c r="T192" s="32"/>
     </row>
     <row r="193" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F193" s="7"/>
@@ -6605,7 +6781,7 @@
       <c r="Q193" s="8"/>
       <c r="R193" s="9"/>
       <c r="S193" s="6"/>
-      <c r="T193" s="34"/>
+      <c r="T193" s="32"/>
     </row>
     <row r="194" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F194" s="7"/>
@@ -6622,7 +6798,7 @@
       <c r="Q194" s="8"/>
       <c r="R194" s="9"/>
       <c r="S194" s="6"/>
-      <c r="T194" s="34"/>
+      <c r="T194" s="32"/>
     </row>
     <row r="195" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F195" s="7"/>
@@ -6639,7 +6815,7 @@
       <c r="Q195" s="8"/>
       <c r="R195" s="9"/>
       <c r="S195" s="6"/>
-      <c r="T195" s="34"/>
+      <c r="T195" s="32"/>
     </row>
     <row r="196" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F196" s="7"/>
@@ -6656,7 +6832,7 @@
       <c r="Q196" s="8"/>
       <c r="R196" s="9"/>
       <c r="S196" s="6"/>
-      <c r="T196" s="34"/>
+      <c r="T196" s="32"/>
     </row>
     <row r="197" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F197" s="7"/>
@@ -6673,7 +6849,7 @@
       <c r="Q197" s="8"/>
       <c r="R197" s="9"/>
       <c r="S197" s="6"/>
-      <c r="T197" s="34"/>
+      <c r="T197" s="32"/>
     </row>
     <row r="198" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F198" s="7"/>
@@ -6690,7 +6866,7 @@
       <c r="Q198" s="8"/>
       <c r="R198" s="9"/>
       <c r="S198" s="6"/>
-      <c r="T198" s="34"/>
+      <c r="T198" s="32"/>
     </row>
     <row r="199" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F199" s="7"/>
@@ -6707,7 +6883,7 @@
       <c r="Q199" s="8"/>
       <c r="R199" s="9"/>
       <c r="S199" s="6"/>
-      <c r="T199" s="34"/>
+      <c r="T199" s="32"/>
     </row>
     <row r="200" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F200" s="7"/>
@@ -6724,7 +6900,7 @@
       <c r="Q200" s="8"/>
       <c r="R200" s="9"/>
       <c r="S200" s="6"/>
-      <c r="T200" s="34"/>
+      <c r="T200" s="32"/>
     </row>
     <row r="201" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F201" s="7"/>
@@ -6741,7 +6917,7 @@
       <c r="Q201" s="8"/>
       <c r="R201" s="9"/>
       <c r="S201" s="6"/>
-      <c r="T201" s="34"/>
+      <c r="T201" s="32"/>
     </row>
     <row r="202" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F202" s="7"/>
@@ -6758,7 +6934,7 @@
       <c r="Q202" s="8"/>
       <c r="R202" s="9"/>
       <c r="S202" s="6"/>
-      <c r="T202" s="34"/>
+      <c r="T202" s="32"/>
     </row>
     <row r="203" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F203" s="7"/>
@@ -6775,7 +6951,7 @@
       <c r="Q203" s="8"/>
       <c r="R203" s="9"/>
       <c r="S203" s="6"/>
-      <c r="T203" s="34"/>
+      <c r="T203" s="32"/>
     </row>
     <row r="204" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F204" s="7"/>
@@ -6792,7 +6968,7 @@
       <c r="Q204" s="8"/>
       <c r="R204" s="9"/>
       <c r="S204" s="6"/>
-      <c r="T204" s="34"/>
+      <c r="T204" s="32"/>
     </row>
     <row r="205" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F205" s="7"/>
@@ -6809,7 +6985,7 @@
       <c r="Q205" s="8"/>
       <c r="R205" s="9"/>
       <c r="S205" s="6"/>
-      <c r="T205" s="34"/>
+      <c r="T205" s="32"/>
     </row>
     <row r="206" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F206" s="7"/>
@@ -6826,7 +7002,7 @@
       <c r="Q206" s="8"/>
       <c r="R206" s="9"/>
       <c r="S206" s="6"/>
-      <c r="T206" s="34"/>
+      <c r="T206" s="32"/>
     </row>
     <row r="207" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F207" s="7"/>
@@ -6843,7 +7019,7 @@
       <c r="Q207" s="8"/>
       <c r="R207" s="9"/>
       <c r="S207" s="6"/>
-      <c r="T207" s="34"/>
+      <c r="T207" s="32"/>
     </row>
     <row r="208" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F208" s="7"/>
@@ -6860,7 +7036,7 @@
       <c r="Q208" s="8"/>
       <c r="R208" s="9"/>
       <c r="S208" s="6"/>
-      <c r="T208" s="34"/>
+      <c r="T208" s="32"/>
     </row>
     <row r="209" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F209" s="7"/>
@@ -6877,7 +7053,7 @@
       <c r="Q209" s="8"/>
       <c r="R209" s="9"/>
       <c r="S209" s="6"/>
-      <c r="T209" s="34"/>
+      <c r="T209" s="32"/>
     </row>
     <row r="210" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F210" s="7"/>
@@ -6894,7 +7070,7 @@
       <c r="Q210" s="8"/>
       <c r="R210" s="9"/>
       <c r="S210" s="6"/>
-      <c r="T210" s="34"/>
+      <c r="T210" s="32"/>
     </row>
     <row r="211" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F211" s="7"/>
@@ -6911,7 +7087,7 @@
       <c r="Q211" s="8"/>
       <c r="R211" s="9"/>
       <c r="S211" s="6"/>
-      <c r="T211" s="34"/>
+      <c r="T211" s="32"/>
     </row>
     <row r="212" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F212" s="7"/>
@@ -6928,7 +7104,7 @@
       <c r="Q212" s="8"/>
       <c r="R212" s="9"/>
       <c r="S212" s="6"/>
-      <c r="T212" s="34"/>
+      <c r="T212" s="32"/>
     </row>
     <row r="213" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F213" s="7"/>
@@ -6945,7 +7121,7 @@
       <c r="Q213" s="8"/>
       <c r="R213" s="9"/>
       <c r="S213" s="6"/>
-      <c r="T213" s="34"/>
+      <c r="T213" s="32"/>
     </row>
     <row r="214" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F214" s="7"/>
@@ -6962,7 +7138,7 @@
       <c r="Q214" s="8"/>
       <c r="R214" s="9"/>
       <c r="S214" s="6"/>
-      <c r="T214" s="34"/>
+      <c r="T214" s="32"/>
     </row>
     <row r="215" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F215" s="7"/>
@@ -6979,7 +7155,7 @@
       <c r="Q215" s="8"/>
       <c r="R215" s="9"/>
       <c r="S215" s="6"/>
-      <c r="T215" s="34"/>
+      <c r="T215" s="32"/>
     </row>
     <row r="216" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F216" s="7"/>
@@ -6996,7 +7172,7 @@
       <c r="Q216" s="8"/>
       <c r="R216" s="9"/>
       <c r="S216" s="6"/>
-      <c r="T216" s="34"/>
+      <c r="T216" s="32"/>
     </row>
     <row r="217" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F217" s="7"/>
@@ -7013,7 +7189,7 @@
       <c r="Q217" s="8"/>
       <c r="R217" s="9"/>
       <c r="S217" s="6"/>
-      <c r="T217" s="34"/>
+      <c r="T217" s="32"/>
     </row>
     <row r="218" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F218" s="7"/>
@@ -7030,7 +7206,7 @@
       <c r="Q218" s="8"/>
       <c r="R218" s="9"/>
       <c r="S218" s="6"/>
-      <c r="T218" s="34"/>
+      <c r="T218" s="32"/>
     </row>
     <row r="219" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F219" s="7"/>
@@ -7047,7 +7223,7 @@
       <c r="Q219" s="8"/>
       <c r="R219" s="9"/>
       <c r="S219" s="6"/>
-      <c r="T219" s="34"/>
+      <c r="T219" s="32"/>
     </row>
     <row r="220" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F220" s="7"/>
@@ -7064,7 +7240,7 @@
       <c r="Q220" s="8"/>
       <c r="R220" s="9"/>
       <c r="S220" s="6"/>
-      <c r="T220" s="34"/>
+      <c r="T220" s="32"/>
     </row>
     <row r="221" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F221" s="7"/>
@@ -7081,7 +7257,7 @@
       <c r="Q221" s="8"/>
       <c r="R221" s="9"/>
       <c r="S221" s="6"/>
-      <c r="T221" s="34"/>
+      <c r="T221" s="32"/>
     </row>
     <row r="222" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F222" s="7"/>
@@ -7098,7 +7274,7 @@
       <c r="Q222" s="8"/>
       <c r="R222" s="9"/>
       <c r="S222" s="6"/>
-      <c r="T222" s="34"/>
+      <c r="T222" s="32"/>
     </row>
     <row r="223" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F223" s="7"/>
@@ -7115,7 +7291,7 @@
       <c r="Q223" s="8"/>
       <c r="R223" s="9"/>
       <c r="S223" s="6"/>
-      <c r="T223" s="34"/>
+      <c r="T223" s="32"/>
     </row>
     <row r="224" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F224" s="7"/>
@@ -7132,7 +7308,7 @@
       <c r="Q224" s="8"/>
       <c r="R224" s="9"/>
       <c r="S224" s="6"/>
-      <c r="T224" s="34"/>
+      <c r="T224" s="32"/>
     </row>
     <row r="225" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F225" s="7"/>
@@ -7149,7 +7325,7 @@
       <c r="Q225" s="8"/>
       <c r="R225" s="9"/>
       <c r="S225" s="6"/>
-      <c r="T225" s="34"/>
+      <c r="T225" s="32"/>
     </row>
     <row r="226" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F226" s="7"/>
@@ -7166,7 +7342,7 @@
       <c r="Q226" s="8"/>
       <c r="R226" s="9"/>
       <c r="S226" s="6"/>
-      <c r="T226" s="34"/>
+      <c r="T226" s="32"/>
     </row>
     <row r="227" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F227" s="7"/>
@@ -7183,7 +7359,7 @@
       <c r="Q227" s="8"/>
       <c r="R227" s="9"/>
       <c r="S227" s="6"/>
-      <c r="T227" s="34"/>
+      <c r="T227" s="32"/>
     </row>
     <row r="228" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F228" s="7"/>
@@ -7200,7 +7376,7 @@
       <c r="Q228" s="8"/>
       <c r="R228" s="9"/>
       <c r="S228" s="6"/>
-      <c r="T228" s="34"/>
+      <c r="T228" s="32"/>
     </row>
     <row r="229" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F229" s="7"/>
@@ -7217,7 +7393,7 @@
       <c r="Q229" s="8"/>
       <c r="R229" s="9"/>
       <c r="S229" s="6"/>
-      <c r="T229" s="34"/>
+      <c r="T229" s="32"/>
     </row>
     <row r="230" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F230" s="7"/>
@@ -7234,7 +7410,7 @@
       <c r="Q230" s="8"/>
       <c r="R230" s="9"/>
       <c r="S230" s="6"/>
-      <c r="T230" s="34"/>
+      <c r="T230" s="32"/>
     </row>
     <row r="231" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F231" s="7"/>
@@ -7251,7 +7427,7 @@
       <c r="Q231" s="8"/>
       <c r="R231" s="9"/>
       <c r="S231" s="6"/>
-      <c r="T231" s="34"/>
+      <c r="T231" s="32"/>
     </row>
     <row r="232" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F232" s="7"/>
@@ -7268,7 +7444,7 @@
       <c r="Q232" s="8"/>
       <c r="R232" s="9"/>
       <c r="S232" s="6"/>
-      <c r="T232" s="34"/>
+      <c r="T232" s="32"/>
     </row>
     <row r="233" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F233" s="7"/>
@@ -7285,7 +7461,7 @@
       <c r="Q233" s="8"/>
       <c r="R233" s="9"/>
       <c r="S233" s="6"/>
-      <c r="T233" s="34"/>
+      <c r="T233" s="32"/>
     </row>
     <row r="234" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F234" s="7"/>
@@ -7302,7 +7478,7 @@
       <c r="Q234" s="8"/>
       <c r="R234" s="9"/>
       <c r="S234" s="6"/>
-      <c r="T234" s="34"/>
+      <c r="T234" s="32"/>
     </row>
     <row r="235" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F235" s="7"/>
@@ -7319,7 +7495,7 @@
       <c r="Q235" s="8"/>
       <c r="R235" s="9"/>
       <c r="S235" s="6"/>
-      <c r="T235" s="34"/>
+      <c r="T235" s="32"/>
     </row>
     <row r="236" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F236" s="7"/>
@@ -7336,7 +7512,7 @@
       <c r="Q236" s="8"/>
       <c r="R236" s="9"/>
       <c r="S236" s="6"/>
-      <c r="T236" s="34"/>
+      <c r="T236" s="32"/>
     </row>
     <row r="237" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F237" s="7"/>
@@ -7353,7 +7529,7 @@
       <c r="Q237" s="8"/>
       <c r="R237" s="9"/>
       <c r="S237" s="6"/>
-      <c r="T237" s="34"/>
+      <c r="T237" s="32"/>
     </row>
     <row r="238" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F238" s="7"/>
@@ -7370,7 +7546,7 @@
       <c r="Q238" s="8"/>
       <c r="R238" s="9"/>
       <c r="S238" s="6"/>
-      <c r="T238" s="34"/>
+      <c r="T238" s="32"/>
     </row>
     <row r="239" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F239" s="7"/>
@@ -7387,7 +7563,7 @@
       <c r="Q239" s="8"/>
       <c r="R239" s="9"/>
       <c r="S239" s="6"/>
-      <c r="T239" s="34"/>
+      <c r="T239" s="32"/>
     </row>
     <row r="240" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F240" s="7"/>
@@ -7404,7 +7580,7 @@
       <c r="Q240" s="8"/>
       <c r="R240" s="9"/>
       <c r="S240" s="6"/>
-      <c r="T240" s="34"/>
+      <c r="T240" s="32"/>
     </row>
     <row r="241" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F241" s="7"/>
@@ -7421,7 +7597,7 @@
       <c r="Q241" s="8"/>
       <c r="R241" s="9"/>
       <c r="S241" s="6"/>
-      <c r="T241" s="34"/>
+      <c r="T241" s="32"/>
     </row>
     <row r="242" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F242" s="7"/>
@@ -7438,7 +7614,7 @@
       <c r="Q242" s="8"/>
       <c r="R242" s="9"/>
       <c r="S242" s="6"/>
-      <c r="T242" s="34"/>
+      <c r="T242" s="32"/>
     </row>
     <row r="243" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F243" s="7"/>
@@ -7455,7 +7631,7 @@
       <c r="Q243" s="8"/>
       <c r="R243" s="9"/>
       <c r="S243" s="6"/>
-      <c r="T243" s="34"/>
+      <c r="T243" s="32"/>
     </row>
     <row r="244" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F244" s="7"/>
@@ -7472,7 +7648,7 @@
       <c r="Q244" s="8"/>
       <c r="R244" s="9"/>
       <c r="S244" s="6"/>
-      <c r="T244" s="34"/>
+      <c r="T244" s="32"/>
     </row>
     <row r="245" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F245" s="7"/>
@@ -7489,7 +7665,7 @@
       <c r="Q245" s="8"/>
       <c r="R245" s="9"/>
       <c r="S245" s="6"/>
-      <c r="T245" s="34"/>
+      <c r="T245" s="32"/>
     </row>
     <row r="246" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F246" s="7"/>
@@ -7506,7 +7682,7 @@
       <c r="Q246" s="8"/>
       <c r="R246" s="9"/>
       <c r="S246" s="6"/>
-      <c r="T246" s="34"/>
+      <c r="T246" s="32"/>
     </row>
     <row r="247" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F247" s="7"/>
@@ -7523,7 +7699,7 @@
       <c r="Q247" s="8"/>
       <c r="R247" s="9"/>
       <c r="S247" s="6"/>
-      <c r="T247" s="34"/>
+      <c r="T247" s="32"/>
     </row>
     <row r="248" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F248" s="7"/>
@@ -7540,7 +7716,7 @@
       <c r="Q248" s="8"/>
       <c r="R248" s="9"/>
       <c r="S248" s="6"/>
-      <c r="T248" s="34"/>
+      <c r="T248" s="32"/>
     </row>
     <row r="249" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F249" s="7"/>
@@ -7557,7 +7733,7 @@
       <c r="Q249" s="8"/>
       <c r="R249" s="9"/>
       <c r="S249" s="6"/>
-      <c r="T249" s="34"/>
+      <c r="T249" s="32"/>
     </row>
     <row r="250" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F250" s="7"/>
@@ -7574,7 +7750,7 @@
       <c r="Q250" s="8"/>
       <c r="R250" s="9"/>
       <c r="S250" s="6"/>
-      <c r="T250" s="34"/>
+      <c r="T250" s="32"/>
     </row>
     <row r="251" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F251" s="7"/>
@@ -7591,7 +7767,7 @@
       <c r="Q251" s="8"/>
       <c r="R251" s="9"/>
       <c r="S251" s="6"/>
-      <c r="T251" s="34"/>
+      <c r="T251" s="32"/>
     </row>
     <row r="252" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F252" s="7"/>
@@ -7608,7 +7784,7 @@
       <c r="Q252" s="8"/>
       <c r="R252" s="9"/>
       <c r="S252" s="6"/>
-      <c r="T252" s="34"/>
+      <c r="T252" s="32"/>
     </row>
     <row r="253" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F253" s="7"/>
@@ -7625,7 +7801,7 @@
       <c r="Q253" s="8"/>
       <c r="R253" s="9"/>
       <c r="S253" s="6"/>
-      <c r="T253" s="34"/>
+      <c r="T253" s="32"/>
     </row>
     <row r="254" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F254" s="7"/>
@@ -7642,7 +7818,7 @@
       <c r="Q254" s="8"/>
       <c r="R254" s="9"/>
       <c r="S254" s="6"/>
-      <c r="T254" s="34"/>
+      <c r="T254" s="32"/>
     </row>
     <row r="255" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F255" s="7"/>
@@ -7659,7 +7835,7 @@
       <c r="Q255" s="8"/>
       <c r="R255" s="9"/>
       <c r="S255" s="6"/>
-      <c r="T255" s="34"/>
+      <c r="T255" s="32"/>
     </row>
     <row r="256" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F256" s="7"/>
@@ -7676,7 +7852,7 @@
       <c r="Q256" s="8"/>
       <c r="R256" s="9"/>
       <c r="S256" s="6"/>
-      <c r="T256" s="34"/>
+      <c r="T256" s="32"/>
     </row>
     <row r="257" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F257" s="7"/>
@@ -7693,7 +7869,7 @@
       <c r="Q257" s="8"/>
       <c r="R257" s="9"/>
       <c r="S257" s="6"/>
-      <c r="T257" s="34"/>
+      <c r="T257" s="32"/>
     </row>
     <row r="258" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F258" s="7"/>
@@ -7710,7 +7886,7 @@
       <c r="Q258" s="8"/>
       <c r="R258" s="9"/>
       <c r="S258" s="6"/>
-      <c r="T258" s="34"/>
+      <c r="T258" s="32"/>
     </row>
     <row r="259" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F259" s="7"/>
@@ -7727,7 +7903,7 @@
       <c r="Q259" s="8"/>
       <c r="R259" s="9"/>
       <c r="S259" s="6"/>
-      <c r="T259" s="34"/>
+      <c r="T259" s="32"/>
     </row>
     <row r="260" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F260" s="7"/>
@@ -7744,7 +7920,7 @@
       <c r="Q260" s="8"/>
       <c r="R260" s="9"/>
       <c r="S260" s="6"/>
-      <c r="T260" s="34"/>
+      <c r="T260" s="32"/>
     </row>
     <row r="261" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F261" s="7"/>
@@ -7761,7 +7937,7 @@
       <c r="Q261" s="8"/>
       <c r="R261" s="9"/>
       <c r="S261" s="6"/>
-      <c r="T261" s="34"/>
+      <c r="T261" s="32"/>
     </row>
     <row r="262" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F262" s="7"/>
@@ -7778,7 +7954,7 @@
       <c r="Q262" s="8"/>
       <c r="R262" s="9"/>
       <c r="S262" s="6"/>
-      <c r="T262" s="34"/>
+      <c r="T262" s="32"/>
     </row>
     <row r="263" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F263" s="7"/>
@@ -7795,7 +7971,7 @@
       <c r="Q263" s="8"/>
       <c r="R263" s="9"/>
       <c r="S263" s="6"/>
-      <c r="T263" s="34"/>
+      <c r="T263" s="32"/>
     </row>
     <row r="264" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F264" s="7"/>
@@ -7812,7 +7988,7 @@
       <c r="Q264" s="8"/>
       <c r="R264" s="9"/>
       <c r="S264" s="6"/>
-      <c r="T264" s="34"/>
+      <c r="T264" s="32"/>
     </row>
     <row r="265" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F265" s="7"/>
@@ -7829,7 +8005,7 @@
       <c r="Q265" s="8"/>
       <c r="R265" s="9"/>
       <c r="S265" s="6"/>
-      <c r="T265" s="34"/>
+      <c r="T265" s="32"/>
     </row>
     <row r="266" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F266" s="7"/>
@@ -7846,7 +8022,7 @@
       <c r="Q266" s="8"/>
       <c r="R266" s="9"/>
       <c r="S266" s="6"/>
-      <c r="T266" s="34"/>
+      <c r="T266" s="32"/>
     </row>
     <row r="267" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F267" s="7"/>
@@ -7863,7 +8039,7 @@
       <c r="Q267" s="8"/>
       <c r="R267" s="9"/>
       <c r="S267" s="6"/>
-      <c r="T267" s="34"/>
+      <c r="T267" s="32"/>
     </row>
     <row r="268" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F268" s="7"/>
@@ -7880,7 +8056,7 @@
       <c r="Q268" s="8"/>
       <c r="R268" s="9"/>
       <c r="S268" s="6"/>
-      <c r="T268" s="34"/>
+      <c r="T268" s="32"/>
     </row>
     <row r="269" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F269" s="7"/>
@@ -7897,7 +8073,7 @@
       <c r="Q269" s="8"/>
       <c r="R269" s="9"/>
       <c r="S269" s="6"/>
-      <c r="T269" s="34"/>
+      <c r="T269" s="32"/>
     </row>
     <row r="270" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F270" s="7"/>
@@ -7914,7 +8090,7 @@
       <c r="Q270" s="8"/>
       <c r="R270" s="9"/>
       <c r="S270" s="6"/>
-      <c r="T270" s="34"/>
+      <c r="T270" s="32"/>
     </row>
     <row r="271" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F271" s="7"/>
@@ -7931,7 +8107,7 @@
       <c r="Q271" s="8"/>
       <c r="R271" s="9"/>
       <c r="S271" s="6"/>
-      <c r="T271" s="34"/>
+      <c r="T271" s="32"/>
     </row>
     <row r="272" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F272" s="7"/>
@@ -7948,7 +8124,7 @@
       <c r="Q272" s="8"/>
       <c r="R272" s="9"/>
       <c r="S272" s="6"/>
-      <c r="T272" s="34"/>
+      <c r="T272" s="32"/>
     </row>
     <row r="273" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F273" s="7"/>
@@ -7965,7 +8141,7 @@
       <c r="Q273" s="8"/>
       <c r="R273" s="9"/>
       <c r="S273" s="6"/>
-      <c r="T273" s="34"/>
+      <c r="T273" s="32"/>
     </row>
     <row r="274" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F274" s="7"/>
@@ -7982,7 +8158,7 @@
       <c r="Q274" s="8"/>
       <c r="R274" s="9"/>
       <c r="S274" s="6"/>
-      <c r="T274" s="34"/>
+      <c r="T274" s="32"/>
     </row>
     <row r="275" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F275" s="7"/>
@@ -7999,7 +8175,7 @@
       <c r="Q275" s="8"/>
       <c r="R275" s="9"/>
       <c r="S275" s="6"/>
-      <c r="T275" s="34"/>
+      <c r="T275" s="32"/>
     </row>
     <row r="276" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F276" s="7"/>
@@ -8016,7 +8192,7 @@
       <c r="Q276" s="8"/>
       <c r="R276" s="9"/>
       <c r="S276" s="6"/>
-      <c r="T276" s="34"/>
+      <c r="T276" s="32"/>
     </row>
     <row r="277" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F277" s="7"/>
@@ -8033,7 +8209,7 @@
       <c r="Q277" s="8"/>
       <c r="R277" s="9"/>
       <c r="S277" s="6"/>
-      <c r="T277" s="34"/>
+      <c r="T277" s="32"/>
     </row>
     <row r="278" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F278" s="7"/>
@@ -8050,7 +8226,7 @@
       <c r="Q278" s="8"/>
       <c r="R278" s="9"/>
       <c r="S278" s="6"/>
-      <c r="T278" s="34"/>
+      <c r="T278" s="32"/>
     </row>
     <row r="279" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F279" s="7"/>
@@ -8067,7 +8243,7 @@
       <c r="Q279" s="8"/>
       <c r="R279" s="9"/>
       <c r="S279" s="6"/>
-      <c r="T279" s="34"/>
+      <c r="T279" s="32"/>
     </row>
     <row r="280" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F280" s="7"/>
@@ -8084,7 +8260,7 @@
       <c r="Q280" s="8"/>
       <c r="R280" s="9"/>
       <c r="S280" s="6"/>
-      <c r="T280" s="34"/>
+      <c r="T280" s="32"/>
     </row>
     <row r="281" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F281" s="7"/>
@@ -8101,7 +8277,7 @@
       <c r="Q281" s="8"/>
       <c r="R281" s="9"/>
       <c r="S281" s="6"/>
-      <c r="T281" s="34"/>
+      <c r="T281" s="32"/>
     </row>
     <row r="282" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F282" s="7"/>
@@ -8118,7 +8294,7 @@
       <c r="Q282" s="8"/>
       <c r="R282" s="9"/>
       <c r="S282" s="6"/>
-      <c r="T282" s="34"/>
+      <c r="T282" s="32"/>
     </row>
     <row r="283" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F283" s="7"/>
@@ -8135,7 +8311,7 @@
       <c r="Q283" s="8"/>
       <c r="R283" s="9"/>
       <c r="S283" s="6"/>
-      <c r="T283" s="34"/>
+      <c r="T283" s="32"/>
     </row>
     <row r="284" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F284" s="7"/>
@@ -8152,7 +8328,7 @@
       <c r="Q284" s="8"/>
       <c r="R284" s="9"/>
       <c r="S284" s="6"/>
-      <c r="T284" s="34"/>
+      <c r="T284" s="32"/>
     </row>
     <row r="285" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F285" s="7"/>
@@ -8169,7 +8345,7 @@
       <c r="Q285" s="8"/>
       <c r="R285" s="9"/>
       <c r="S285" s="6"/>
-      <c r="T285" s="34"/>
+      <c r="T285" s="32"/>
     </row>
     <row r="286" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F286" s="7"/>
@@ -8186,7 +8362,7 @@
       <c r="Q286" s="8"/>
       <c r="R286" s="9"/>
       <c r="S286" s="6"/>
-      <c r="T286" s="34"/>
+      <c r="T286" s="32"/>
     </row>
     <row r="287" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F287" s="7"/>
@@ -8203,7 +8379,7 @@
       <c r="Q287" s="8"/>
       <c r="R287" s="9"/>
       <c r="S287" s="6"/>
-      <c r="T287" s="34"/>
+      <c r="T287" s="32"/>
     </row>
     <row r="288" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F288" s="7"/>
@@ -8220,7 +8396,7 @@
       <c r="Q288" s="8"/>
       <c r="R288" s="9"/>
       <c r="S288" s="6"/>
-      <c r="T288" s="34"/>
+      <c r="T288" s="32"/>
     </row>
     <row r="289" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F289" s="7"/>
@@ -8237,7 +8413,7 @@
       <c r="Q289" s="8"/>
       <c r="R289" s="9"/>
       <c r="S289" s="6"/>
-      <c r="T289" s="34"/>
+      <c r="T289" s="32"/>
     </row>
     <row r="290" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F290" s="7"/>
@@ -8254,7 +8430,7 @@
       <c r="Q290" s="8"/>
       <c r="R290" s="9"/>
       <c r="S290" s="6"/>
-      <c r="T290" s="34"/>
+      <c r="T290" s="32"/>
     </row>
     <row r="291" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F291" s="7"/>
@@ -8271,7 +8447,7 @@
       <c r="Q291" s="8"/>
       <c r="R291" s="9"/>
       <c r="S291" s="6"/>
-      <c r="T291" s="34"/>
+      <c r="T291" s="32"/>
     </row>
     <row r="292" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F292" s="7"/>
@@ -8288,7 +8464,7 @@
       <c r="Q292" s="8"/>
       <c r="R292" s="9"/>
       <c r="S292" s="6"/>
-      <c r="T292" s="34"/>
+      <c r="T292" s="32"/>
     </row>
     <row r="293" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F293" s="7"/>
@@ -8305,7 +8481,7 @@
       <c r="Q293" s="8"/>
       <c r="R293" s="9"/>
       <c r="S293" s="6"/>
-      <c r="T293" s="34"/>
+      <c r="T293" s="32"/>
     </row>
     <row r="294" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F294" s="7"/>
@@ -8322,7 +8498,7 @@
       <c r="Q294" s="8"/>
       <c r="R294" s="9"/>
       <c r="S294" s="6"/>
-      <c r="T294" s="34"/>
+      <c r="T294" s="32"/>
     </row>
     <row r="295" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F295" s="7"/>
@@ -8339,7 +8515,7 @@
       <c r="Q295" s="8"/>
       <c r="R295" s="9"/>
       <c r="S295" s="6"/>
-      <c r="T295" s="34"/>
+      <c r="T295" s="32"/>
     </row>
     <row r="296" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F296" s="7"/>
@@ -8356,7 +8532,7 @@
       <c r="Q296" s="8"/>
       <c r="R296" s="9"/>
       <c r="S296" s="6"/>
-      <c r="T296" s="34"/>
+      <c r="T296" s="32"/>
     </row>
     <row r="297" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F297" s="7"/>
@@ -8373,7 +8549,7 @@
       <c r="Q297" s="8"/>
       <c r="R297" s="9"/>
       <c r="S297" s="6"/>
-      <c r="T297" s="34"/>
+      <c r="T297" s="32"/>
     </row>
     <row r="298" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F298" s="7"/>
@@ -8390,7 +8566,7 @@
       <c r="Q298" s="8"/>
       <c r="R298" s="9"/>
       <c r="S298" s="6"/>
-      <c r="T298" s="34"/>
+      <c r="T298" s="32"/>
     </row>
     <row r="299" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F299" s="7"/>
@@ -8407,7 +8583,7 @@
       <c r="Q299" s="8"/>
       <c r="R299" s="9"/>
       <c r="S299" s="6"/>
-      <c r="T299" s="34"/>
+      <c r="T299" s="32"/>
     </row>
     <row r="300" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F300" s="7"/>
@@ -8424,7 +8600,7 @@
       <c r="Q300" s="8"/>
       <c r="R300" s="9"/>
       <c r="S300" s="6"/>
-      <c r="T300" s="34"/>
+      <c r="T300" s="32"/>
     </row>
     <row r="301" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F301" s="7"/>
@@ -8441,7 +8617,7 @@
       <c r="Q301" s="8"/>
       <c r="R301" s="9"/>
       <c r="S301" s="6"/>
-      <c r="T301" s="34"/>
+      <c r="T301" s="32"/>
     </row>
     <row r="302" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F302" s="7"/>
@@ -8458,7 +8634,7 @@
       <c r="Q302" s="8"/>
       <c r="R302" s="9"/>
       <c r="S302" s="6"/>
-      <c r="T302" s="34"/>
+      <c r="T302" s="32"/>
     </row>
     <row r="303" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F303" s="7"/>
@@ -8475,7 +8651,7 @@
       <c r="Q303" s="8"/>
       <c r="R303" s="9"/>
       <c r="S303" s="6"/>
-      <c r="T303" s="34"/>
+      <c r="T303" s="32"/>
     </row>
     <row r="304" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F304" s="7"/>
@@ -8492,7 +8668,7 @@
       <c r="Q304" s="8"/>
       <c r="R304" s="9"/>
       <c r="S304" s="6"/>
-      <c r="T304" s="34"/>
+      <c r="T304" s="32"/>
     </row>
     <row r="305" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F305" s="7"/>
@@ -8509,7 +8685,7 @@
       <c r="Q305" s="8"/>
       <c r="R305" s="9"/>
       <c r="S305" s="6"/>
-      <c r="T305" s="34"/>
+      <c r="T305" s="32"/>
     </row>
     <row r="306" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F306" s="7"/>
@@ -8526,7 +8702,7 @@
       <c r="Q306" s="8"/>
       <c r="R306" s="9"/>
       <c r="S306" s="6"/>
-      <c r="T306" s="34"/>
+      <c r="T306" s="32"/>
     </row>
     <row r="307" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F307" s="7"/>
@@ -8543,7 +8719,7 @@
       <c r="Q307" s="8"/>
       <c r="R307" s="9"/>
       <c r="S307" s="6"/>
-      <c r="T307" s="34"/>
+      <c r="T307" s="32"/>
     </row>
     <row r="308" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F308" s="7"/>
@@ -8560,7 +8736,7 @@
       <c r="Q308" s="8"/>
       <c r="R308" s="9"/>
       <c r="S308" s="6"/>
-      <c r="T308" s="34"/>
+      <c r="T308" s="32"/>
     </row>
     <row r="309" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F309" s="7"/>
@@ -8577,7 +8753,7 @@
       <c r="Q309" s="8"/>
       <c r="R309" s="9"/>
       <c r="S309" s="6"/>
-      <c r="T309" s="34"/>
+      <c r="T309" s="32"/>
     </row>
     <row r="310" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F310" s="7"/>
@@ -8594,7 +8770,7 @@
       <c r="Q310" s="8"/>
       <c r="R310" s="9"/>
       <c r="S310" s="6"/>
-      <c r="T310" s="34"/>
+      <c r="T310" s="32"/>
     </row>
     <row r="311" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F311" s="7"/>
@@ -8611,7 +8787,7 @@
       <c r="Q311" s="8"/>
       <c r="R311" s="9"/>
       <c r="S311" s="6"/>
-      <c r="T311" s="34"/>
+      <c r="T311" s="32"/>
     </row>
     <row r="312" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F312" s="7"/>
@@ -8628,7 +8804,7 @@
       <c r="Q312" s="8"/>
       <c r="R312" s="9"/>
       <c r="S312" s="6"/>
-      <c r="T312" s="34"/>
+      <c r="T312" s="32"/>
     </row>
     <row r="313" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F313" s="7"/>
@@ -8645,7 +8821,7 @@
       <c r="Q313" s="8"/>
       <c r="R313" s="9"/>
       <c r="S313" s="6"/>
-      <c r="T313" s="34"/>
+      <c r="T313" s="32"/>
     </row>
     <row r="314" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F314" s="7"/>
@@ -8662,7 +8838,7 @@
       <c r="Q314" s="8"/>
       <c r="R314" s="9"/>
       <c r="S314" s="6"/>
-      <c r="T314" s="34"/>
+      <c r="T314" s="32"/>
     </row>
     <row r="315" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F315" s="7"/>
@@ -8679,7 +8855,7 @@
       <c r="Q315" s="8"/>
       <c r="R315" s="9"/>
       <c r="S315" s="6"/>
-      <c r="T315" s="34"/>
+      <c r="T315" s="32"/>
     </row>
     <row r="316" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F316" s="7"/>
@@ -8696,7 +8872,7 @@
       <c r="Q316" s="8"/>
       <c r="R316" s="9"/>
       <c r="S316" s="6"/>
-      <c r="T316" s="34"/>
+      <c r="T316" s="32"/>
     </row>
     <row r="317" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F317" s="7"/>
@@ -8713,7 +8889,7 @@
       <c r="Q317" s="8"/>
       <c r="R317" s="9"/>
       <c r="S317" s="6"/>
-      <c r="T317" s="34"/>
+      <c r="T317" s="32"/>
     </row>
     <row r="318" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F318" s="7"/>
@@ -8730,7 +8906,7 @@
       <c r="Q318" s="8"/>
       <c r="R318" s="9"/>
       <c r="S318" s="6"/>
-      <c r="T318" s="34"/>
+      <c r="T318" s="32"/>
     </row>
     <row r="319" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F319" s="7"/>
@@ -8747,7 +8923,7 @@
       <c r="Q319" s="8"/>
       <c r="R319" s="9"/>
       <c r="S319" s="6"/>
-      <c r="T319" s="34"/>
+      <c r="T319" s="32"/>
     </row>
     <row r="320" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F320" s="7"/>
@@ -8764,7 +8940,7 @@
       <c r="Q320" s="8"/>
       <c r="R320" s="9"/>
       <c r="S320" s="6"/>
-      <c r="T320" s="34"/>
+      <c r="T320" s="32"/>
     </row>
     <row r="321" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F321" s="7"/>
@@ -8781,7 +8957,7 @@
       <c r="Q321" s="8"/>
       <c r="R321" s="9"/>
       <c r="S321" s="6"/>
-      <c r="T321" s="34"/>
+      <c r="T321" s="32"/>
     </row>
     <row r="322" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F322" s="7"/>
@@ -8798,7 +8974,7 @@
       <c r="Q322" s="8"/>
       <c r="R322" s="9"/>
       <c r="S322" s="6"/>
-      <c r="T322" s="34"/>
+      <c r="T322" s="32"/>
     </row>
     <row r="323" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F323" s="7"/>
@@ -8815,7 +8991,7 @@
       <c r="Q323" s="8"/>
       <c r="R323" s="9"/>
       <c r="S323" s="6"/>
-      <c r="T323" s="34"/>
+      <c r="T323" s="32"/>
     </row>
     <row r="324" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F324" s="7"/>
@@ -8832,7 +9008,7 @@
       <c r="Q324" s="8"/>
       <c r="R324" s="9"/>
       <c r="S324" s="6"/>
-      <c r="T324" s="34"/>
+      <c r="T324" s="32"/>
     </row>
     <row r="325" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F325" s="7"/>
@@ -8849,7 +9025,7 @@
       <c r="Q325" s="8"/>
       <c r="R325" s="9"/>
       <c r="S325" s="6"/>
-      <c r="T325" s="34"/>
+      <c r="T325" s="32"/>
     </row>
     <row r="326" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F326" s="7"/>
@@ -8866,7 +9042,7 @@
       <c r="Q326" s="8"/>
       <c r="R326" s="9"/>
       <c r="S326" s="6"/>
-      <c r="T326" s="34"/>
+      <c r="T326" s="32"/>
     </row>
     <row r="327" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F327" s="7"/>
@@ -8883,7 +9059,7 @@
       <c r="Q327" s="8"/>
       <c r="R327" s="9"/>
       <c r="S327" s="6"/>
-      <c r="T327" s="34"/>
+      <c r="T327" s="32"/>
     </row>
     <row r="328" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F328" s="7"/>
@@ -8900,7 +9076,7 @@
       <c r="Q328" s="8"/>
       <c r="R328" s="9"/>
       <c r="S328" s="6"/>
-      <c r="T328" s="34"/>
+      <c r="T328" s="32"/>
     </row>
     <row r="329" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F329" s="7"/>
@@ -8917,7 +9093,7 @@
       <c r="Q329" s="8"/>
       <c r="R329" s="9"/>
       <c r="S329" s="6"/>
-      <c r="T329" s="34"/>
+      <c r="T329" s="32"/>
     </row>
     <row r="330" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F330" s="7"/>
@@ -8934,7 +9110,7 @@
       <c r="Q330" s="8"/>
       <c r="R330" s="9"/>
       <c r="S330" s="6"/>
-      <c r="T330" s="34"/>
+      <c r="T330" s="32"/>
     </row>
     <row r="331" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F331" s="7"/>
@@ -8951,7 +9127,7 @@
       <c r="Q331" s="8"/>
       <c r="R331" s="9"/>
       <c r="S331" s="6"/>
-      <c r="T331" s="34"/>
+      <c r="T331" s="32"/>
     </row>
     <row r="332" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F332" s="7"/>
@@ -8968,7 +9144,7 @@
       <c r="Q332" s="8"/>
       <c r="R332" s="9"/>
       <c r="S332" s="6"/>
-      <c r="T332" s="34"/>
+      <c r="T332" s="32"/>
     </row>
     <row r="333" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F333" s="7"/>
@@ -8985,7 +9161,7 @@
       <c r="Q333" s="8"/>
       <c r="R333" s="9"/>
       <c r="S333" s="6"/>
-      <c r="T333" s="34"/>
+      <c r="T333" s="32"/>
     </row>
     <row r="334" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F334" s="7"/>
@@ -9002,7 +9178,7 @@
       <c r="Q334" s="8"/>
       <c r="R334" s="9"/>
       <c r="S334" s="6"/>
-      <c r="T334" s="34"/>
+      <c r="T334" s="32"/>
     </row>
     <row r="335" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F335" s="7"/>
@@ -9019,7 +9195,7 @@
       <c r="Q335" s="8"/>
       <c r="R335" s="9"/>
       <c r="S335" s="6"/>
-      <c r="T335" s="34"/>
+      <c r="T335" s="32"/>
     </row>
     <row r="336" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F336" s="7"/>
@@ -9036,7 +9212,7 @@
       <c r="Q336" s="8"/>
       <c r="R336" s="9"/>
       <c r="S336" s="6"/>
-      <c r="T336" s="34"/>
+      <c r="T336" s="32"/>
     </row>
     <row r="337" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F337" s="7"/>
@@ -9053,7 +9229,7 @@
       <c r="Q337" s="8"/>
       <c r="R337" s="9"/>
       <c r="S337" s="6"/>
-      <c r="T337" s="34"/>
+      <c r="T337" s="32"/>
     </row>
     <row r="338" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F338" s="7"/>
@@ -9070,7 +9246,7 @@
       <c r="Q338" s="8"/>
       <c r="R338" s="9"/>
       <c r="S338" s="6"/>
-      <c r="T338" s="34"/>
+      <c r="T338" s="32"/>
     </row>
     <row r="339" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F339" s="7"/>
@@ -9087,7 +9263,7 @@
       <c r="Q339" s="8"/>
       <c r="R339" s="9"/>
       <c r="S339" s="6"/>
-      <c r="T339" s="34"/>
+      <c r="T339" s="32"/>
     </row>
     <row r="340" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F340" s="7"/>
@@ -9104,7 +9280,7 @@
       <c r="Q340" s="8"/>
       <c r="R340" s="9"/>
       <c r="S340" s="6"/>
-      <c r="T340" s="34"/>
+      <c r="T340" s="32"/>
     </row>
     <row r="341" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F341" s="7"/>
@@ -9121,7 +9297,7 @@
       <c r="Q341" s="8"/>
       <c r="R341" s="9"/>
       <c r="S341" s="6"/>
-      <c r="T341" s="34"/>
+      <c r="T341" s="32"/>
     </row>
     <row r="342" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F342" s="7"/>
@@ -9138,7 +9314,7 @@
       <c r="Q342" s="8"/>
       <c r="R342" s="9"/>
       <c r="S342" s="6"/>
-      <c r="T342" s="34"/>
+      <c r="T342" s="32"/>
     </row>
     <row r="343" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F343" s="7"/>
@@ -9155,7 +9331,7 @@
       <c r="Q343" s="8"/>
       <c r="R343" s="9"/>
       <c r="S343" s="6"/>
-      <c r="T343" s="34"/>
+      <c r="T343" s="32"/>
     </row>
     <row r="344" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F344" s="7"/>
@@ -9172,7 +9348,7 @@
       <c r="Q344" s="8"/>
       <c r="R344" s="9"/>
       <c r="S344" s="6"/>
-      <c r="T344" s="34"/>
+      <c r="T344" s="32"/>
     </row>
     <row r="345" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F345" s="7"/>
@@ -9189,7 +9365,7 @@
       <c r="Q345" s="8"/>
       <c r="R345" s="9"/>
       <c r="S345" s="6"/>
-      <c r="T345" s="34"/>
+      <c r="T345" s="32"/>
     </row>
     <row r="346" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F346" s="7"/>
@@ -9206,7 +9382,7 @@
       <c r="Q346" s="8"/>
       <c r="R346" s="9"/>
       <c r="S346" s="6"/>
-      <c r="T346" s="34"/>
+      <c r="T346" s="32"/>
     </row>
     <row r="347" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F347" s="7"/>
@@ -9223,7 +9399,7 @@
       <c r="Q347" s="8"/>
       <c r="R347" s="9"/>
       <c r="S347" s="6"/>
-      <c r="T347" s="34"/>
+      <c r="T347" s="32"/>
     </row>
     <row r="348" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F348" s="7"/>
@@ -9240,7 +9416,7 @@
       <c r="Q348" s="8"/>
       <c r="R348" s="9"/>
       <c r="S348" s="6"/>
-      <c r="T348" s="34"/>
+      <c r="T348" s="32"/>
     </row>
     <row r="349" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F349" s="7"/>
@@ -9257,7 +9433,7 @@
       <c r="Q349" s="8"/>
       <c r="R349" s="9"/>
       <c r="S349" s="6"/>
-      <c r="T349" s="34"/>
+      <c r="T349" s="32"/>
     </row>
     <row r="350" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F350" s="7"/>
@@ -9274,7 +9450,7 @@
       <c r="Q350" s="8"/>
       <c r="R350" s="9"/>
       <c r="S350" s="6"/>
-      <c r="T350" s="34"/>
+      <c r="T350" s="32"/>
     </row>
     <row r="351" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F351" s="7"/>
@@ -9291,7 +9467,7 @@
       <c r="Q351" s="8"/>
       <c r="R351" s="9"/>
       <c r="S351" s="6"/>
-      <c r="T351" s="34"/>
+      <c r="T351" s="32"/>
     </row>
     <row r="352" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F352" s="7"/>
@@ -9308,7 +9484,7 @@
       <c r="Q352" s="8"/>
       <c r="R352" s="9"/>
       <c r="S352" s="6"/>
-      <c r="T352" s="34"/>
+      <c r="T352" s="32"/>
     </row>
     <row r="353" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F353" s="7"/>
@@ -9325,7 +9501,7 @@
       <c r="Q353" s="8"/>
       <c r="R353" s="9"/>
       <c r="S353" s="6"/>
-      <c r="T353" s="34"/>
+      <c r="T353" s="32"/>
     </row>
     <row r="354" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F354" s="7"/>
@@ -9342,7 +9518,7 @@
       <c r="Q354" s="8"/>
       <c r="R354" s="9"/>
       <c r="S354" s="6"/>
-      <c r="T354" s="34"/>
+      <c r="T354" s="32"/>
     </row>
     <row r="355" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F355" s="7"/>
@@ -9359,7 +9535,7 @@
       <c r="Q355" s="8"/>
       <c r="R355" s="9"/>
       <c r="S355" s="6"/>
-      <c r="T355" s="34"/>
+      <c r="T355" s="32"/>
     </row>
     <row r="356" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F356" s="7"/>
@@ -9376,7 +9552,7 @@
       <c r="Q356" s="8"/>
       <c r="R356" s="9"/>
       <c r="S356" s="6"/>
-      <c r="T356" s="34"/>
+      <c r="T356" s="32"/>
     </row>
     <row r="357" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F357" s="7"/>
@@ -9393,7 +9569,7 @@
       <c r="Q357" s="8"/>
       <c r="R357" s="9"/>
       <c r="S357" s="6"/>
-      <c r="T357" s="34"/>
+      <c r="T357" s="32"/>
     </row>
     <row r="358" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F358" s="7"/>
@@ -9410,7 +9586,7 @@
       <c r="Q358" s="8"/>
       <c r="R358" s="9"/>
       <c r="S358" s="6"/>
-      <c r="T358" s="34"/>
+      <c r="T358" s="32"/>
     </row>
     <row r="359" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F359" s="7"/>
@@ -9427,7 +9603,7 @@
       <c r="Q359" s="8"/>
       <c r="R359" s="9"/>
       <c r="S359" s="6"/>
-      <c r="T359" s="34"/>
+      <c r="T359" s="32"/>
     </row>
     <row r="360" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F360" s="7"/>
@@ -9444,7 +9620,7 @@
       <c r="Q360" s="8"/>
       <c r="R360" s="9"/>
       <c r="S360" s="6"/>
-      <c r="T360" s="34"/>
+      <c r="T360" s="32"/>
     </row>
     <row r="361" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F361" s="7"/>
@@ -9461,7 +9637,7 @@
       <c r="Q361" s="8"/>
       <c r="R361" s="9"/>
       <c r="S361" s="6"/>
-      <c r="T361" s="34"/>
+      <c r="T361" s="32"/>
     </row>
     <row r="362" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F362" s="7"/>
@@ -9478,7 +9654,7 @@
       <c r="Q362" s="8"/>
       <c r="R362" s="9"/>
       <c r="S362" s="6"/>
-      <c r="T362" s="34"/>
+      <c r="T362" s="32"/>
     </row>
     <row r="363" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F363" s="7"/>
@@ -9495,7 +9671,7 @@
       <c r="Q363" s="8"/>
       <c r="R363" s="9"/>
       <c r="S363" s="6"/>
-      <c r="T363" s="34"/>
+      <c r="T363" s="32"/>
     </row>
     <row r="364" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F364" s="7"/>
@@ -9512,7 +9688,7 @@
       <c r="Q364" s="8"/>
       <c r="R364" s="9"/>
       <c r="S364" s="6"/>
-      <c r="T364" s="34"/>
+      <c r="T364" s="32"/>
     </row>
     <row r="365" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F365" s="7"/>
@@ -9529,7 +9705,7 @@
       <c r="Q365" s="8"/>
       <c r="R365" s="9"/>
       <c r="S365" s="6"/>
-      <c r="T365" s="34"/>
+      <c r="T365" s="32"/>
     </row>
     <row r="366" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F366" s="7"/>
@@ -9546,7 +9722,7 @@
       <c r="Q366" s="8"/>
       <c r="R366" s="9"/>
       <c r="S366" s="6"/>
-      <c r="T366" s="34"/>
+      <c r="T366" s="32"/>
     </row>
     <row r="367" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F367" s="7"/>
@@ -9563,7 +9739,7 @@
       <c r="Q367" s="8"/>
       <c r="R367" s="9"/>
       <c r="S367" s="6"/>
-      <c r="T367" s="34"/>
+      <c r="T367" s="32"/>
     </row>
     <row r="368" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F368" s="7"/>
@@ -9580,7 +9756,7 @@
       <c r="Q368" s="8"/>
       <c r="R368" s="9"/>
       <c r="S368" s="6"/>
-      <c r="T368" s="34"/>
+      <c r="T368" s="32"/>
     </row>
     <row r="369" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F369" s="7"/>
@@ -9597,7 +9773,7 @@
       <c r="Q369" s="8"/>
       <c r="R369" s="9"/>
       <c r="S369" s="6"/>
-      <c r="T369" s="34"/>
+      <c r="T369" s="32"/>
     </row>
     <row r="370" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F370" s="7"/>
@@ -9614,7 +9790,7 @@
       <c r="Q370" s="8"/>
       <c r="R370" s="9"/>
       <c r="S370" s="6"/>
-      <c r="T370" s="34"/>
+      <c r="T370" s="32"/>
     </row>
     <row r="371" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F371" s="7"/>
@@ -9631,7 +9807,7 @@
       <c r="Q371" s="8"/>
       <c r="R371" s="9"/>
       <c r="S371" s="6"/>
-      <c r="T371" s="34"/>
+      <c r="T371" s="32"/>
     </row>
     <row r="372" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F372" s="7"/>
@@ -9648,7 +9824,7 @@
       <c r="Q372" s="8"/>
       <c r="R372" s="9"/>
       <c r="S372" s="6"/>
-      <c r="T372" s="34"/>
+      <c r="T372" s="32"/>
     </row>
     <row r="373" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F373" s="7"/>
@@ -9665,7 +9841,7 @@
       <c r="Q373" s="8"/>
       <c r="R373" s="9"/>
       <c r="S373" s="6"/>
-      <c r="T373" s="34"/>
+      <c r="T373" s="32"/>
     </row>
     <row r="374" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F374" s="7"/>
@@ -9682,7 +9858,7 @@
       <c r="Q374" s="8"/>
       <c r="R374" s="9"/>
       <c r="S374" s="6"/>
-      <c r="T374" s="34"/>
+      <c r="T374" s="32"/>
     </row>
     <row r="375" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F375" s="7"/>
@@ -9699,7 +9875,7 @@
       <c r="Q375" s="8"/>
       <c r="R375" s="9"/>
       <c r="S375" s="6"/>
-      <c r="T375" s="34"/>
+      <c r="T375" s="32"/>
     </row>
     <row r="376" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F376" s="7"/>
@@ -9716,7 +9892,7 @@
       <c r="Q376" s="8"/>
       <c r="R376" s="9"/>
       <c r="S376" s="6"/>
-      <c r="T376" s="34"/>
+      <c r="T376" s="32"/>
     </row>
     <row r="377" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F377" s="7"/>
@@ -9733,7 +9909,7 @@
       <c r="Q377" s="8"/>
       <c r="R377" s="9"/>
       <c r="S377" s="6"/>
-      <c r="T377" s="34"/>
+      <c r="T377" s="32"/>
     </row>
     <row r="378" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F378" s="7"/>
@@ -9750,7 +9926,7 @@
       <c r="Q378" s="8"/>
       <c r="R378" s="9"/>
       <c r="S378" s="6"/>
-      <c r="T378" s="34"/>
+      <c r="T378" s="32"/>
     </row>
     <row r="379" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F379" s="7"/>
@@ -9767,7 +9943,7 @@
       <c r="Q379" s="8"/>
       <c r="R379" s="9"/>
       <c r="S379" s="6"/>
-      <c r="T379" s="34"/>
+      <c r="T379" s="32"/>
     </row>
     <row r="380" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F380" s="7"/>
@@ -9784,7 +9960,7 @@
       <c r="Q380" s="8"/>
       <c r="R380" s="9"/>
       <c r="S380" s="6"/>
-      <c r="T380" s="34"/>
+      <c r="T380" s="32"/>
     </row>
     <row r="381" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F381" s="7"/>
@@ -9801,7 +9977,7 @@
       <c r="Q381" s="8"/>
       <c r="R381" s="9"/>
       <c r="S381" s="6"/>
-      <c r="T381" s="34"/>
+      <c r="T381" s="32"/>
     </row>
     <row r="382" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F382" s="7"/>
@@ -9818,7 +9994,7 @@
       <c r="Q382" s="8"/>
       <c r="R382" s="9"/>
       <c r="S382" s="6"/>
-      <c r="T382" s="34"/>
+      <c r="T382" s="32"/>
     </row>
     <row r="383" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F383" s="7"/>
@@ -9835,7 +10011,7 @@
       <c r="Q383" s="8"/>
       <c r="R383" s="9"/>
       <c r="S383" s="6"/>
-      <c r="T383" s="34"/>
+      <c r="T383" s="32"/>
     </row>
     <row r="384" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F384" s="7"/>
@@ -9852,7 +10028,7 @@
       <c r="Q384" s="8"/>
       <c r="R384" s="9"/>
       <c r="S384" s="6"/>
-      <c r="T384" s="34"/>
+      <c r="T384" s="32"/>
     </row>
     <row r="385" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F385" s="7"/>
@@ -9869,7 +10045,7 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="9"/>
       <c r="S385" s="6"/>
-      <c r="T385" s="34"/>
+      <c r="T385" s="32"/>
     </row>
     <row r="386" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F386" s="7"/>
@@ -9886,7 +10062,7 @@
       <c r="Q386" s="8"/>
       <c r="R386" s="9"/>
       <c r="S386" s="6"/>
-      <c r="T386" s="34"/>
+      <c r="T386" s="32"/>
     </row>
     <row r="387" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F387" s="7"/>
@@ -9903,7 +10079,7 @@
       <c r="Q387" s="8"/>
       <c r="R387" s="9"/>
       <c r="S387" s="6"/>
-      <c r="T387" s="34"/>
+      <c r="T387" s="32"/>
     </row>
     <row r="388" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F388" s="7"/>
@@ -9920,7 +10096,7 @@
       <c r="Q388" s="8"/>
       <c r="R388" s="9"/>
       <c r="S388" s="6"/>
-      <c r="T388" s="34"/>
+      <c r="T388" s="32"/>
     </row>
     <row r="389" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F389" s="7"/>
@@ -9937,7 +10113,7 @@
       <c r="Q389" s="8"/>
       <c r="R389" s="9"/>
       <c r="S389" s="6"/>
-      <c r="T389" s="34"/>
+      <c r="T389" s="32"/>
     </row>
     <row r="390" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F390" s="7"/>
@@ -9954,7 +10130,7 @@
       <c r="Q390" s="8"/>
       <c r="R390" s="9"/>
       <c r="S390" s="6"/>
-      <c r="T390" s="34"/>
+      <c r="T390" s="32"/>
     </row>
     <row r="391" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F391" s="7"/>
@@ -9971,7 +10147,7 @@
       <c r="Q391" s="8"/>
       <c r="R391" s="9"/>
       <c r="S391" s="6"/>
-      <c r="T391" s="34"/>
+      <c r="T391" s="32"/>
     </row>
     <row r="392" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F392" s="7"/>
@@ -9988,7 +10164,7 @@
       <c r="Q392" s="8"/>
       <c r="R392" s="9"/>
       <c r="S392" s="6"/>
-      <c r="T392" s="34"/>
+      <c r="T392" s="32"/>
     </row>
     <row r="393" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F393" s="7"/>
@@ -10005,7 +10181,7 @@
       <c r="Q393" s="8"/>
       <c r="R393" s="9"/>
       <c r="S393" s="6"/>
-      <c r="T393" s="34"/>
+      <c r="T393" s="32"/>
     </row>
     <row r="394" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F394" s="7"/>
@@ -10022,7 +10198,7 @@
       <c r="Q394" s="8"/>
       <c r="R394" s="9"/>
       <c r="S394" s="6"/>
-      <c r="T394" s="34"/>
+      <c r="T394" s="32"/>
     </row>
     <row r="395" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F395" s="7"/>
@@ -10039,7 +10215,7 @@
       <c r="Q395" s="8"/>
       <c r="R395" s="9"/>
       <c r="S395" s="6"/>
-      <c r="T395" s="34"/>
+      <c r="T395" s="32"/>
     </row>
     <row r="396" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F396" s="7"/>
@@ -10056,7 +10232,7 @@
       <c r="Q396" s="8"/>
       <c r="R396" s="9"/>
       <c r="S396" s="6"/>
-      <c r="T396" s="34"/>
+      <c r="T396" s="32"/>
     </row>
     <row r="397" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F397" s="7"/>
@@ -10073,7 +10249,7 @@
       <c r="Q397" s="8"/>
       <c r="R397" s="9"/>
       <c r="S397" s="6"/>
-      <c r="T397" s="34"/>
+      <c r="T397" s="32"/>
     </row>
     <row r="398" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F398" s="7"/>
@@ -10090,7 +10266,7 @@
       <c r="Q398" s="8"/>
       <c r="R398" s="9"/>
       <c r="S398" s="6"/>
-      <c r="T398" s="34"/>
+      <c r="T398" s="32"/>
     </row>
     <row r="399" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F399" s="7"/>
@@ -10107,7 +10283,7 @@
       <c r="Q399" s="8"/>
       <c r="R399" s="9"/>
       <c r="S399" s="6"/>
-      <c r="T399" s="34"/>
+      <c r="T399" s="32"/>
     </row>
     <row r="400" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F400" s="7"/>
@@ -10124,7 +10300,7 @@
       <c r="Q400" s="8"/>
       <c r="R400" s="9"/>
       <c r="S400" s="6"/>
-      <c r="T400" s="34"/>
+      <c r="T400" s="32"/>
     </row>
     <row r="401" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F401" s="7"/>
@@ -10141,7 +10317,7 @@
       <c r="Q401" s="8"/>
       <c r="R401" s="9"/>
       <c r="S401" s="6"/>
-      <c r="T401" s="34"/>
+      <c r="T401" s="32"/>
     </row>
     <row r="402" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F402" s="7"/>
@@ -10158,7 +10334,7 @@
       <c r="Q402" s="8"/>
       <c r="R402" s="9"/>
       <c r="S402" s="6"/>
-      <c r="T402" s="34"/>
+      <c r="T402" s="32"/>
     </row>
     <row r="403" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F403" s="7"/>
@@ -10175,7 +10351,7 @@
       <c r="Q403" s="8"/>
       <c r="R403" s="9"/>
       <c r="S403" s="6"/>
-      <c r="T403" s="34"/>
+      <c r="T403" s="32"/>
     </row>
     <row r="404" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F404" s="7"/>
@@ -10192,7 +10368,7 @@
       <c r="Q404" s="8"/>
       <c r="R404" s="9"/>
       <c r="S404" s="6"/>
-      <c r="T404" s="34"/>
+      <c r="T404" s="32"/>
     </row>
     <row r="405" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F405" s="7"/>
@@ -10209,7 +10385,7 @@
       <c r="Q405" s="8"/>
       <c r="R405" s="9"/>
       <c r="S405" s="6"/>
-      <c r="T405" s="34"/>
+      <c r="T405" s="32"/>
     </row>
     <row r="406" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F406" s="7"/>
@@ -10226,7 +10402,7 @@
       <c r="Q406" s="8"/>
       <c r="R406" s="9"/>
       <c r="S406" s="6"/>
-      <c r="T406" s="34"/>
+      <c r="T406" s="32"/>
     </row>
     <row r="407" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F407" s="7"/>
@@ -10243,7 +10419,7 @@
       <c r="Q407" s="8"/>
       <c r="R407" s="9"/>
       <c r="S407" s="6"/>
-      <c r="T407" s="34"/>
+      <c r="T407" s="32"/>
     </row>
     <row r="408" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F408" s="7"/>
@@ -10260,7 +10436,7 @@
       <c r="Q408" s="8"/>
       <c r="R408" s="9"/>
       <c r="S408" s="6"/>
-      <c r="T408" s="34"/>
+      <c r="T408" s="32"/>
     </row>
     <row r="409" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F409" s="7"/>
@@ -10277,7 +10453,7 @@
       <c r="Q409" s="8"/>
       <c r="R409" s="9"/>
       <c r="S409" s="6"/>
-      <c r="T409" s="34"/>
+      <c r="T409" s="32"/>
     </row>
     <row r="410" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F410" s="7"/>
@@ -10294,7 +10470,7 @@
       <c r="Q410" s="8"/>
       <c r="R410" s="9"/>
       <c r="S410" s="6"/>
-      <c r="T410" s="34"/>
+      <c r="T410" s="32"/>
     </row>
     <row r="411" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F411" s="7"/>
@@ -10311,7 +10487,7 @@
       <c r="Q411" s="8"/>
       <c r="R411" s="9"/>
       <c r="S411" s="6"/>
-      <c r="T411" s="34"/>
+      <c r="T411" s="32"/>
     </row>
     <row r="412" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F412" s="7"/>
@@ -10328,7 +10504,7 @@
       <c r="Q412" s="8"/>
       <c r="R412" s="9"/>
       <c r="S412" s="6"/>
-      <c r="T412" s="34"/>
+      <c r="T412" s="32"/>
     </row>
     <row r="413" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F413" s="7"/>
@@ -10345,7 +10521,7 @@
       <c r="Q413" s="8"/>
       <c r="R413" s="9"/>
       <c r="S413" s="6"/>
-      <c r="T413" s="34"/>
+      <c r="T413" s="32"/>
     </row>
     <row r="414" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F414" s="7"/>
@@ -10362,7 +10538,7 @@
       <c r="Q414" s="8"/>
       <c r="R414" s="9"/>
       <c r="S414" s="6"/>
-      <c r="T414" s="34"/>
+      <c r="T414" s="32"/>
     </row>
     <row r="415" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F415" s="7"/>
@@ -10379,7 +10555,7 @@
       <c r="Q415" s="8"/>
       <c r="R415" s="9"/>
       <c r="S415" s="6"/>
-      <c r="T415" s="34"/>
+      <c r="T415" s="32"/>
     </row>
     <row r="416" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F416" s="7"/>
@@ -10396,7 +10572,7 @@
       <c r="Q416" s="8"/>
       <c r="R416" s="9"/>
       <c r="S416" s="6"/>
-      <c r="T416" s="34"/>
+      <c r="T416" s="32"/>
     </row>
     <row r="417" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F417" s="7"/>
@@ -10413,7 +10589,7 @@
       <c r="Q417" s="8"/>
       <c r="R417" s="9"/>
       <c r="S417" s="6"/>
-      <c r="T417" s="34"/>
+      <c r="T417" s="32"/>
     </row>
     <row r="418" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F418" s="7"/>
@@ -10430,7 +10606,7 @@
       <c r="Q418" s="8"/>
       <c r="R418" s="9"/>
       <c r="S418" s="6"/>
-      <c r="T418" s="34"/>
+      <c r="T418" s="32"/>
     </row>
     <row r="419" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F419" s="7"/>
@@ -10447,7 +10623,7 @@
       <c r="Q419" s="8"/>
       <c r="R419" s="9"/>
       <c r="S419" s="6"/>
-      <c r="T419" s="34"/>
+      <c r="T419" s="32"/>
     </row>
     <row r="420" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F420" s="7"/>
@@ -10464,7 +10640,7 @@
       <c r="Q420" s="8"/>
       <c r="R420" s="9"/>
       <c r="S420" s="6"/>
-      <c r="T420" s="34"/>
+      <c r="T420" s="32"/>
     </row>
     <row r="421" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F421" s="7"/>
@@ -10481,7 +10657,7 @@
       <c r="Q421" s="8"/>
       <c r="R421" s="9"/>
       <c r="S421" s="6"/>
-      <c r="T421" s="34"/>
+      <c r="T421" s="32"/>
     </row>
     <row r="422" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F422" s="7"/>
@@ -10498,7 +10674,7 @@
       <c r="Q422" s="8"/>
       <c r="R422" s="9"/>
       <c r="S422" s="6"/>
-      <c r="T422" s="34"/>
+      <c r="T422" s="32"/>
     </row>
     <row r="423" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F423" s="7"/>
@@ -10515,7 +10691,7 @@
       <c r="Q423" s="8"/>
       <c r="R423" s="9"/>
       <c r="S423" s="6"/>
-      <c r="T423" s="34"/>
+      <c r="T423" s="32"/>
     </row>
     <row r="424" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F424" s="7"/>
@@ -10532,7 +10708,7 @@
       <c r="Q424" s="8"/>
       <c r="R424" s="9"/>
       <c r="S424" s="6"/>
-      <c r="T424" s="34"/>
+      <c r="T424" s="32"/>
     </row>
     <row r="425" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F425" s="7"/>
@@ -10549,7 +10725,7 @@
       <c r="Q425" s="8"/>
       <c r="R425" s="9"/>
       <c r="S425" s="6"/>
-      <c r="T425" s="34"/>
+      <c r="T425" s="32"/>
     </row>
     <row r="426" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F426" s="7"/>
@@ -10566,7 +10742,7 @@
       <c r="Q426" s="8"/>
       <c r="R426" s="9"/>
       <c r="S426" s="6"/>
-      <c r="T426" s="34"/>
+      <c r="T426" s="32"/>
     </row>
     <row r="427" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F427" s="7"/>
@@ -10583,7 +10759,7 @@
       <c r="Q427" s="8"/>
       <c r="R427" s="9"/>
       <c r="S427" s="6"/>
-      <c r="T427" s="34"/>
+      <c r="T427" s="32"/>
     </row>
     <row r="428" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F428" s="7"/>
@@ -10600,7 +10776,7 @@
       <c r="Q428" s="8"/>
       <c r="R428" s="9"/>
       <c r="S428" s="6"/>
-      <c r="T428" s="34"/>
+      <c r="T428" s="32"/>
     </row>
     <row r="429" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F429" s="7"/>
@@ -10617,7 +10793,7 @@
       <c r="Q429" s="8"/>
       <c r="R429" s="9"/>
       <c r="S429" s="6"/>
-      <c r="T429" s="34"/>
+      <c r="T429" s="32"/>
     </row>
     <row r="430" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F430" s="7"/>
@@ -10634,7 +10810,7 @@
       <c r="Q430" s="8"/>
       <c r="R430" s="9"/>
       <c r="S430" s="6"/>
-      <c r="T430" s="34"/>
+      <c r="T430" s="32"/>
     </row>
     <row r="431" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F431" s="7"/>
@@ -10651,7 +10827,7 @@
       <c r="Q431" s="8"/>
       <c r="R431" s="9"/>
       <c r="S431" s="6"/>
-      <c r="T431" s="34"/>
+      <c r="T431" s="32"/>
     </row>
     <row r="432" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F432" s="7"/>
@@ -10668,7 +10844,7 @@
       <c r="Q432" s="8"/>
       <c r="R432" s="9"/>
       <c r="S432" s="6"/>
-      <c r="T432" s="34"/>
+      <c r="T432" s="32"/>
     </row>
     <row r="433" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F433" s="7"/>
@@ -10685,7 +10861,7 @@
       <c r="Q433" s="8"/>
       <c r="R433" s="9"/>
       <c r="S433" s="6"/>
-      <c r="T433" s="34"/>
+      <c r="T433" s="32"/>
     </row>
     <row r="434" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F434" s="7"/>
@@ -10702,7 +10878,7 @@
       <c r="Q434" s="8"/>
       <c r="R434" s="9"/>
       <c r="S434" s="6"/>
-      <c r="T434" s="34"/>
+      <c r="T434" s="32"/>
     </row>
     <row r="435" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F435" s="7"/>
@@ -10719,7 +10895,7 @@
       <c r="Q435" s="8"/>
       <c r="R435" s="9"/>
       <c r="S435" s="6"/>
-      <c r="T435" s="34"/>
+      <c r="T435" s="32"/>
     </row>
     <row r="436" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F436" s="7"/>
@@ -10736,7 +10912,7 @@
       <c r="Q436" s="8"/>
       <c r="R436" s="9"/>
       <c r="S436" s="6"/>
-      <c r="T436" s="34"/>
+      <c r="T436" s="32"/>
     </row>
     <row r="437" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F437" s="7"/>
@@ -10753,7 +10929,7 @@
       <c r="Q437" s="8"/>
       <c r="R437" s="9"/>
       <c r="S437" s="6"/>
-      <c r="T437" s="34"/>
+      <c r="T437" s="32"/>
     </row>
     <row r="438" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F438" s="7"/>
@@ -10770,7 +10946,7 @@
       <c r="Q438" s="8"/>
       <c r="R438" s="9"/>
       <c r="S438" s="6"/>
-      <c r="T438" s="34"/>
+      <c r="T438" s="32"/>
     </row>
     <row r="439" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F439" s="7"/>
@@ -10787,7 +10963,7 @@
       <c r="Q439" s="8"/>
       <c r="R439" s="9"/>
       <c r="S439" s="6"/>
-      <c r="T439" s="34"/>
+      <c r="T439" s="32"/>
     </row>
     <row r="440" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F440" s="7"/>
@@ -10804,7 +10980,7 @@
       <c r="Q440" s="8"/>
       <c r="R440" s="9"/>
       <c r="S440" s="6"/>
-      <c r="T440" s="34"/>
+      <c r="T440" s="32"/>
     </row>
     <row r="441" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F441" s="7"/>
@@ -10821,7 +10997,7 @@
       <c r="Q441" s="8"/>
       <c r="R441" s="9"/>
       <c r="S441" s="6"/>
-      <c r="T441" s="34"/>
+      <c r="T441" s="32"/>
     </row>
     <row r="442" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F442" s="7"/>
@@ -10838,7 +11014,7 @@
       <c r="Q442" s="8"/>
       <c r="R442" s="9"/>
       <c r="S442" s="6"/>
-      <c r="T442" s="34"/>
+      <c r="T442" s="32"/>
     </row>
     <row r="443" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F443" s="7"/>
@@ -10855,7 +11031,7 @@
       <c r="Q443" s="8"/>
       <c r="R443" s="9"/>
       <c r="S443" s="6"/>
-      <c r="T443" s="34"/>
+      <c r="T443" s="32"/>
     </row>
     <row r="444" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F444" s="7"/>
@@ -10872,7 +11048,7 @@
       <c r="Q444" s="8"/>
       <c r="R444" s="9"/>
       <c r="S444" s="6"/>
-      <c r="T444" s="34"/>
+      <c r="T444" s="32"/>
     </row>
     <row r="445" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F445" s="7"/>
@@ -10889,7 +11065,7 @@
       <c r="Q445" s="8"/>
       <c r="R445" s="9"/>
       <c r="S445" s="6"/>
-      <c r="T445" s="34"/>
+      <c r="T445" s="32"/>
     </row>
     <row r="446" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F446" s="7"/>
@@ -10906,7 +11082,7 @@
       <c r="Q446" s="8"/>
       <c r="R446" s="9"/>
       <c r="S446" s="6"/>
-      <c r="T446" s="34"/>
+      <c r="T446" s="32"/>
     </row>
     <row r="447" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F447" s="7"/>
@@ -10923,7 +11099,7 @@
       <c r="Q447" s="8"/>
       <c r="R447" s="9"/>
       <c r="S447" s="6"/>
-      <c r="T447" s="34"/>
+      <c r="T447" s="32"/>
     </row>
     <row r="448" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F448" s="7"/>
@@ -10940,7 +11116,7 @@
       <c r="Q448" s="8"/>
       <c r="R448" s="9"/>
       <c r="S448" s="6"/>
-      <c r="T448" s="34"/>
+      <c r="T448" s="32"/>
     </row>
     <row r="449" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F449" s="7"/>
@@ -10957,7 +11133,7 @@
       <c r="Q449" s="8"/>
       <c r="R449" s="9"/>
       <c r="S449" s="6"/>
-      <c r="T449" s="34"/>
+      <c r="T449" s="32"/>
     </row>
     <row r="450" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F450" s="7"/>
@@ -10974,7 +11150,7 @@
       <c r="Q450" s="8"/>
       <c r="R450" s="9"/>
       <c r="S450" s="6"/>
-      <c r="T450" s="34"/>
+      <c r="T450" s="32"/>
     </row>
     <row r="451" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F451" s="7"/>
@@ -10991,7 +11167,7 @@
       <c r="Q451" s="8"/>
       <c r="R451" s="9"/>
       <c r="S451" s="6"/>
-      <c r="T451" s="34"/>
+      <c r="T451" s="32"/>
     </row>
     <row r="452" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F452" s="7"/>
@@ -11008,7 +11184,7 @@
       <c r="Q452" s="8"/>
       <c r="R452" s="9"/>
       <c r="S452" s="6"/>
-      <c r="T452" s="34"/>
+      <c r="T452" s="32"/>
     </row>
     <row r="453" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F453" s="7"/>
@@ -11025,7 +11201,7 @@
       <c r="Q453" s="8"/>
       <c r="R453" s="9"/>
       <c r="S453" s="6"/>
-      <c r="T453" s="34"/>
+      <c r="T453" s="32"/>
     </row>
     <row r="454" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F454" s="7"/>
@@ -11042,7 +11218,7 @@
       <c r="Q454" s="8"/>
       <c r="R454" s="9"/>
       <c r="S454" s="6"/>
-      <c r="T454" s="34"/>
+      <c r="T454" s="32"/>
     </row>
     <row r="455" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F455" s="7"/>
@@ -11059,7 +11235,7 @@
       <c r="Q455" s="8"/>
       <c r="R455" s="9"/>
       <c r="S455" s="6"/>
-      <c r="T455" s="34"/>
+      <c r="T455" s="32"/>
     </row>
     <row r="456" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F456" s="7"/>
@@ -11076,7 +11252,7 @@
       <c r="Q456" s="8"/>
       <c r="R456" s="9"/>
       <c r="S456" s="6"/>
-      <c r="T456" s="34"/>
+      <c r="T456" s="32"/>
     </row>
     <row r="457" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F457" s="7"/>
@@ -11093,7 +11269,7 @@
       <c r="Q457" s="8"/>
       <c r="R457" s="9"/>
       <c r="S457" s="6"/>
-      <c r="T457" s="34"/>
+      <c r="T457" s="32"/>
     </row>
     <row r="458" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F458" s="7"/>
@@ -11110,7 +11286,7 @@
       <c r="Q458" s="8"/>
       <c r="R458" s="9"/>
       <c r="S458" s="6"/>
-      <c r="T458" s="34"/>
+      <c r="T458" s="32"/>
     </row>
     <row r="459" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F459" s="7"/>
@@ -11127,7 +11303,7 @@
       <c r="Q459" s="8"/>
       <c r="R459" s="9"/>
       <c r="S459" s="6"/>
-      <c r="T459" s="34"/>
+      <c r="T459" s="32"/>
     </row>
     <row r="460" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F460" s="7"/>
@@ -11144,7 +11320,7 @@
       <c r="Q460" s="8"/>
       <c r="R460" s="9"/>
       <c r="S460" s="6"/>
-      <c r="T460" s="34"/>
+      <c r="T460" s="32"/>
     </row>
     <row r="461" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F461" s="7"/>
@@ -11161,7 +11337,7 @@
       <c r="Q461" s="8"/>
       <c r="R461" s="9"/>
       <c r="S461" s="6"/>
-      <c r="T461" s="34"/>
+      <c r="T461" s="32"/>
     </row>
     <row r="462" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F462" s="7"/>
@@ -11178,7 +11354,7 @@
       <c r="Q462" s="8"/>
       <c r="R462" s="9"/>
       <c r="S462" s="6"/>
-      <c r="T462" s="34"/>
+      <c r="T462" s="32"/>
     </row>
     <row r="463" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F463" s="7"/>
@@ -11195,7 +11371,7 @@
       <c r="Q463" s="8"/>
       <c r="R463" s="9"/>
       <c r="S463" s="6"/>
-      <c r="T463" s="34"/>
+      <c r="T463" s="32"/>
     </row>
     <row r="464" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F464" s="7"/>
@@ -11212,7 +11388,7 @@
       <c r="Q464" s="8"/>
       <c r="R464" s="9"/>
       <c r="S464" s="6"/>
-      <c r="T464" s="34"/>
+      <c r="T464" s="32"/>
     </row>
     <row r="465" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F465" s="7"/>
@@ -11229,7 +11405,7 @@
       <c r="Q465" s="8"/>
       <c r="R465" s="9"/>
       <c r="S465" s="6"/>
-      <c r="T465" s="34"/>
+      <c r="T465" s="32"/>
     </row>
     <row r="466" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F466" s="7"/>
@@ -11246,7 +11422,7 @@
       <c r="Q466" s="8"/>
       <c r="R466" s="9"/>
       <c r="S466" s="6"/>
-      <c r="T466" s="34"/>
+      <c r="T466" s="32"/>
     </row>
     <row r="467" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F467" s="7"/>
@@ -11263,7 +11439,7 @@
       <c r="Q467" s="8"/>
       <c r="R467" s="9"/>
       <c r="S467" s="6"/>
-      <c r="T467" s="34"/>
+      <c r="T467" s="32"/>
     </row>
     <row r="468" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F468" s="7"/>
@@ -11280,7 +11456,7 @@
       <c r="Q468" s="8"/>
       <c r="R468" s="9"/>
       <c r="S468" s="6"/>
-      <c r="T468" s="34"/>
+      <c r="T468" s="32"/>
     </row>
     <row r="469" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F469" s="7"/>
@@ -11297,7 +11473,7 @@
       <c r="Q469" s="8"/>
       <c r="R469" s="9"/>
       <c r="S469" s="6"/>
-      <c r="T469" s="34"/>
+      <c r="T469" s="32"/>
     </row>
     <row r="470" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F470" s="7"/>
@@ -11314,7 +11490,7 @@
       <c r="Q470" s="8"/>
       <c r="R470" s="9"/>
       <c r="S470" s="6"/>
-      <c r="T470" s="34"/>
+      <c r="T470" s="32"/>
     </row>
     <row r="471" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F471" s="7"/>
@@ -11331,7 +11507,7 @@
       <c r="Q471" s="8"/>
       <c r="R471" s="9"/>
       <c r="S471" s="6"/>
-      <c r="T471" s="34"/>
+      <c r="T471" s="32"/>
     </row>
     <row r="472" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F472" s="7"/>
@@ -11348,7 +11524,7 @@
       <c r="Q472" s="8"/>
       <c r="R472" s="9"/>
       <c r="S472" s="6"/>
-      <c r="T472" s="34"/>
+      <c r="T472" s="32"/>
     </row>
     <row r="473" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F473" s="7"/>
@@ -11365,7 +11541,7 @@
       <c r="Q473" s="8"/>
       <c r="R473" s="9"/>
       <c r="S473" s="6"/>
-      <c r="T473" s="34"/>
+      <c r="T473" s="32"/>
     </row>
     <row r="474" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F474" s="7"/>
@@ -11382,7 +11558,7 @@
       <c r="Q474" s="8"/>
       <c r="R474" s="9"/>
       <c r="S474" s="6"/>
-      <c r="T474" s="34"/>
+      <c r="T474" s="32"/>
     </row>
     <row r="475" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F475" s="7"/>
@@ -11399,7 +11575,7 @@
       <c r="Q475" s="8"/>
       <c r="R475" s="9"/>
       <c r="S475" s="6"/>
-      <c r="T475" s="34"/>
+      <c r="T475" s="32"/>
     </row>
     <row r="476" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F476" s="7"/>
@@ -11416,7 +11592,7 @@
       <c r="Q476" s="8"/>
       <c r="R476" s="9"/>
       <c r="S476" s="6"/>
-      <c r="T476" s="34"/>
+      <c r="T476" s="32"/>
     </row>
     <row r="477" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F477" s="7"/>
@@ -11433,7 +11609,7 @@
       <c r="Q477" s="8"/>
       <c r="R477" s="9"/>
       <c r="S477" s="6"/>
-      <c r="T477" s="34"/>
+      <c r="T477" s="32"/>
     </row>
     <row r="478" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F478" s="7"/>
@@ -11450,7 +11626,7 @@
       <c r="Q478" s="8"/>
       <c r="R478" s="9"/>
       <c r="S478" s="6"/>
-      <c r="T478" s="34"/>
+      <c r="T478" s="32"/>
     </row>
     <row r="479" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F479" s="7"/>
@@ -11467,7 +11643,7 @@
       <c r="Q479" s="8"/>
       <c r="R479" s="9"/>
       <c r="S479" s="6"/>
-      <c r="T479" s="34"/>
+      <c r="T479" s="32"/>
     </row>
     <row r="480" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F480" s="7"/>
@@ -11484,7 +11660,7 @@
       <c r="Q480" s="8"/>
       <c r="R480" s="9"/>
       <c r="S480" s="6"/>
-      <c r="T480" s="34"/>
+      <c r="T480" s="32"/>
     </row>
     <row r="481" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F481" s="7"/>
@@ -11501,7 +11677,7 @@
       <c r="Q481" s="8"/>
       <c r="R481" s="9"/>
       <c r="S481" s="6"/>
-      <c r="T481" s="34"/>
+      <c r="T481" s="32"/>
     </row>
     <row r="482" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F482" s="7"/>
@@ -11518,7 +11694,7 @@
       <c r="Q482" s="8"/>
       <c r="R482" s="9"/>
       <c r="S482" s="6"/>
-      <c r="T482" s="34"/>
+      <c r="T482" s="32"/>
     </row>
     <row r="483" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F483" s="7"/>
@@ -11535,7 +11711,7 @@
       <c r="Q483" s="8"/>
       <c r="R483" s="9"/>
       <c r="S483" s="6"/>
-      <c r="T483" s="34"/>
+      <c r="T483" s="32"/>
     </row>
     <row r="484" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F484" s="7"/>
@@ -11552,7 +11728,7 @@
       <c r="Q484" s="8"/>
       <c r="R484" s="9"/>
       <c r="S484" s="6"/>
-      <c r="T484" s="34"/>
+      <c r="T484" s="32"/>
     </row>
     <row r="485" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F485" s="7"/>
@@ -11569,7 +11745,7 @@
       <c r="Q485" s="8"/>
       <c r="R485" s="9"/>
       <c r="S485" s="6"/>
-      <c r="T485" s="34"/>
+      <c r="T485" s="32"/>
     </row>
     <row r="486" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F486" s="7"/>
@@ -11586,7 +11762,7 @@
       <c r="Q486" s="8"/>
       <c r="R486" s="9"/>
       <c r="S486" s="6"/>
-      <c r="T486" s="34"/>
+      <c r="T486" s="32"/>
     </row>
     <row r="487" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F487" s="7"/>
@@ -11603,7 +11779,7 @@
       <c r="Q487" s="8"/>
       <c r="R487" s="9"/>
       <c r="S487" s="6"/>
-      <c r="T487" s="34"/>
+      <c r="T487" s="32"/>
     </row>
     <row r="488" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F488" s="7"/>
@@ -11620,7 +11796,7 @@
       <c r="Q488" s="8"/>
       <c r="R488" s="9"/>
       <c r="S488" s="6"/>
-      <c r="T488" s="34"/>
+      <c r="T488" s="32"/>
     </row>
     <row r="489" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F489" s="7"/>
@@ -11637,7 +11813,7 @@
       <c r="Q489" s="8"/>
       <c r="R489" s="9"/>
       <c r="S489" s="6"/>
-      <c r="T489" s="34"/>
+      <c r="T489" s="32"/>
     </row>
     <row r="490" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F490" s="7"/>
@@ -11654,7 +11830,7 @@
       <c r="Q490" s="8"/>
       <c r="R490" s="9"/>
       <c r="S490" s="6"/>
-      <c r="T490" s="34"/>
+      <c r="T490" s="32"/>
     </row>
     <row r="491" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F491" s="7"/>
@@ -11671,7 +11847,7 @@
       <c r="Q491" s="8"/>
       <c r="R491" s="9"/>
       <c r="S491" s="6"/>
-      <c r="T491" s="34"/>
+      <c r="T491" s="32"/>
     </row>
     <row r="492" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F492" s="7"/>
@@ -11688,7 +11864,7 @@
       <c r="Q492" s="8"/>
       <c r="R492" s="9"/>
       <c r="S492" s="6"/>
-      <c r="T492" s="34"/>
+      <c r="T492" s="32"/>
     </row>
     <row r="493" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F493" s="7"/>
@@ -11705,7 +11881,7 @@
       <c r="Q493" s="8"/>
       <c r="R493" s="9"/>
       <c r="S493" s="6"/>
-      <c r="T493" s="34"/>
+      <c r="T493" s="32"/>
     </row>
     <row r="494" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F494" s="7"/>
@@ -11722,7 +11898,7 @@
       <c r="Q494" s="8"/>
       <c r="R494" s="9"/>
       <c r="S494" s="6"/>
-      <c r="T494" s="34"/>
+      <c r="T494" s="32"/>
     </row>
     <row r="495" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F495" s="7"/>
@@ -11739,7 +11915,7 @@
       <c r="Q495" s="8"/>
       <c r="R495" s="9"/>
       <c r="S495" s="6"/>
-      <c r="T495" s="34"/>
+      <c r="T495" s="32"/>
     </row>
     <row r="496" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F496" s="7"/>
@@ -11756,7 +11932,7 @@
       <c r="Q496" s="8"/>
       <c r="R496" s="9"/>
       <c r="S496" s="6"/>
-      <c r="T496" s="34"/>
+      <c r="T496" s="32"/>
     </row>
     <row r="497" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F497" s="7"/>
@@ -11773,7 +11949,7 @@
       <c r="Q497" s="8"/>
       <c r="R497" s="9"/>
       <c r="S497" s="6"/>
-      <c r="T497" s="34"/>
+      <c r="T497" s="32"/>
     </row>
     <row r="498" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F498" s="7"/>
@@ -11790,7 +11966,7 @@
       <c r="Q498" s="8"/>
       <c r="R498" s="9"/>
       <c r="S498" s="6"/>
-      <c r="T498" s="34"/>
+      <c r="T498" s="32"/>
     </row>
     <row r="499" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F499" s="7"/>
@@ -11807,7 +11983,7 @@
       <c r="Q499" s="8"/>
       <c r="R499" s="9"/>
       <c r="S499" s="6"/>
-      <c r="T499" s="34"/>
+      <c r="T499" s="32"/>
     </row>
     <row r="500" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F500" s="7"/>
@@ -11824,7 +12000,7 @@
       <c r="Q500" s="8"/>
       <c r="R500" s="9"/>
       <c r="S500" s="6"/>
-      <c r="T500" s="34"/>
+      <c r="T500" s="32"/>
     </row>
     <row r="501" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F501" s="7"/>
@@ -11841,7 +12017,7 @@
       <c r="Q501" s="8"/>
       <c r="R501" s="9"/>
       <c r="S501" s="6"/>
-      <c r="T501" s="34"/>
+      <c r="T501" s="32"/>
     </row>
     <row r="502" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F502" s="7"/>
@@ -11858,7 +12034,7 @@
       <c r="Q502" s="8"/>
       <c r="R502" s="9"/>
       <c r="S502" s="6"/>
-      <c r="T502" s="34"/>
+      <c r="T502" s="32"/>
     </row>
     <row r="503" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F503" s="7"/>
@@ -11875,7 +12051,7 @@
       <c r="Q503" s="8"/>
       <c r="R503" s="9"/>
       <c r="S503" s="6"/>
-      <c r="T503" s="34"/>
+      <c r="T503" s="32"/>
     </row>
     <row r="504" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F504" s="7"/>
@@ -11892,7 +12068,7 @@
       <c r="Q504" s="8"/>
       <c r="R504" s="9"/>
       <c r="S504" s="6"/>
-      <c r="T504" s="34"/>
+      <c r="T504" s="32"/>
     </row>
     <row r="505" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F505" s="7"/>
@@ -11909,7 +12085,7 @@
       <c r="Q505" s="8"/>
       <c r="R505" s="9"/>
       <c r="S505" s="6"/>
-      <c r="T505" s="34"/>
+      <c r="T505" s="32"/>
     </row>
     <row r="506" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F506" s="7"/>
@@ -11926,7 +12102,7 @@
       <c r="Q506" s="8"/>
       <c r="R506" s="9"/>
       <c r="S506" s="6"/>
-      <c r="T506" s="34"/>
+      <c r="T506" s="32"/>
     </row>
     <row r="507" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F507" s="7"/>
@@ -11943,7 +12119,7 @@
       <c r="Q507" s="8"/>
       <c r="R507" s="9"/>
       <c r="S507" s="6"/>
-      <c r="T507" s="34"/>
+      <c r="T507" s="32"/>
     </row>
     <row r="508" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F508" s="7"/>
@@ -11960,7 +12136,7 @@
       <c r="Q508" s="8"/>
       <c r="R508" s="9"/>
       <c r="S508" s="6"/>
-      <c r="T508" s="34"/>
+      <c r="T508" s="32"/>
     </row>
     <row r="509" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F509" s="7"/>
@@ -11977,7 +12153,7 @@
       <c r="Q509" s="8"/>
       <c r="R509" s="9"/>
       <c r="S509" s="6"/>
-      <c r="T509" s="34"/>
+      <c r="T509" s="32"/>
     </row>
     <row r="510" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F510" s="7"/>
@@ -11994,7 +12170,7 @@
       <c r="Q510" s="8"/>
       <c r="R510" s="9"/>
       <c r="S510" s="6"/>
-      <c r="T510" s="34"/>
+      <c r="T510" s="32"/>
     </row>
     <row r="511" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F511" s="7"/>
@@ -12011,7 +12187,7 @@
       <c r="Q511" s="8"/>
       <c r="R511" s="9"/>
       <c r="S511" s="6"/>
-      <c r="T511" s="34"/>
+      <c r="T511" s="32"/>
     </row>
     <row r="512" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F512" s="7"/>
@@ -12028,7 +12204,7 @@
       <c r="Q512" s="8"/>
       <c r="R512" s="9"/>
       <c r="S512" s="6"/>
-      <c r="T512" s="34"/>
+      <c r="T512" s="32"/>
     </row>
     <row r="513" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F513" s="7"/>
@@ -12045,7 +12221,7 @@
       <c r="Q513" s="8"/>
       <c r="R513" s="9"/>
       <c r="S513" s="6"/>
-      <c r="T513" s="34"/>
+      <c r="T513" s="32"/>
     </row>
     <row r="514" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F514" s="7"/>
@@ -12062,7 +12238,7 @@
       <c r="Q514" s="8"/>
       <c r="R514" s="9"/>
       <c r="S514" s="6"/>
-      <c r="T514" s="34"/>
+      <c r="T514" s="32"/>
     </row>
     <row r="515" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F515" s="7"/>
@@ -12079,7 +12255,7 @@
       <c r="Q515" s="8"/>
       <c r="R515" s="9"/>
       <c r="S515" s="6"/>
-      <c r="T515" s="34"/>
+      <c r="T515" s="32"/>
     </row>
     <row r="516" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F516" s="7"/>
@@ -12096,7 +12272,7 @@
       <c r="Q516" s="8"/>
       <c r="R516" s="9"/>
       <c r="S516" s="6"/>
-      <c r="T516" s="34"/>
+      <c r="T516" s="32"/>
     </row>
     <row r="517" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F517" s="7"/>
@@ -12113,7 +12289,7 @@
       <c r="Q517" s="8"/>
       <c r="R517" s="9"/>
       <c r="S517" s="6"/>
-      <c r="T517" s="34"/>
+      <c r="T517" s="32"/>
     </row>
     <row r="518" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F518" s="7"/>
@@ -12130,7 +12306,7 @@
       <c r="Q518" s="8"/>
       <c r="R518" s="9"/>
       <c r="S518" s="6"/>
-      <c r="T518" s="34"/>
+      <c r="T518" s="32"/>
     </row>
     <row r="519" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F519" s="7"/>
@@ -12147,7 +12323,7 @@
       <c r="Q519" s="8"/>
       <c r="R519" s="9"/>
       <c r="S519" s="6"/>
-      <c r="T519" s="34"/>
+      <c r="T519" s="32"/>
     </row>
     <row r="520" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F520" s="7"/>
@@ -12164,7 +12340,7 @@
       <c r="Q520" s="8"/>
       <c r="R520" s="9"/>
       <c r="S520" s="6"/>
-      <c r="T520" s="34"/>
+      <c r="T520" s="32"/>
     </row>
     <row r="521" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F521" s="7"/>
@@ -12181,7 +12357,7 @@
       <c r="Q521" s="8"/>
       <c r="R521" s="9"/>
       <c r="S521" s="6"/>
-      <c r="T521" s="34"/>
+      <c r="T521" s="32"/>
     </row>
     <row r="522" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F522" s="7"/>
@@ -12198,7 +12374,7 @@
       <c r="Q522" s="8"/>
       <c r="R522" s="9"/>
       <c r="S522" s="6"/>
-      <c r="T522" s="34"/>
+      <c r="T522" s="32"/>
     </row>
     <row r="523" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F523" s="7"/>
@@ -12215,7 +12391,7 @@
       <c r="Q523" s="8"/>
       <c r="R523" s="9"/>
       <c r="S523" s="6"/>
-      <c r="T523" s="34"/>
+      <c r="T523" s="32"/>
     </row>
     <row r="524" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F524" s="7"/>
@@ -12232,7 +12408,7 @@
       <c r="Q524" s="8"/>
       <c r="R524" s="9"/>
       <c r="S524" s="6"/>
-      <c r="T524" s="34"/>
+      <c r="T524" s="32"/>
     </row>
     <row r="525" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F525" s="7"/>
@@ -12249,7 +12425,7 @@
       <c r="Q525" s="8"/>
       <c r="R525" s="9"/>
       <c r="S525" s="6"/>
-      <c r="T525" s="34"/>
+      <c r="T525" s="32"/>
     </row>
     <row r="526" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F526" s="7"/>
@@ -12266,7 +12442,7 @@
       <c r="Q526" s="8"/>
       <c r="R526" s="9"/>
       <c r="S526" s="6"/>
-      <c r="T526" s="34"/>
+      <c r="T526" s="32"/>
     </row>
     <row r="527" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F527" s="7"/>
@@ -12283,7 +12459,7 @@
       <c r="Q527" s="8"/>
       <c r="R527" s="9"/>
       <c r="S527" s="6"/>
-      <c r="T527" s="34"/>
+      <c r="T527" s="32"/>
     </row>
     <row r="528" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F528" s="7"/>
@@ -12300,7 +12476,7 @@
       <c r="Q528" s="8"/>
       <c r="R528" s="9"/>
       <c r="S528" s="6"/>
-      <c r="T528" s="34"/>
+      <c r="T528" s="32"/>
     </row>
     <row r="529" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F529" s="7"/>
@@ -12317,7 +12493,7 @@
       <c r="Q529" s="8"/>
       <c r="R529" s="9"/>
       <c r="S529" s="6"/>
-      <c r="T529" s="34"/>
+      <c r="T529" s="32"/>
     </row>
     <row r="530" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F530" s="7"/>
@@ -12334,7 +12510,7 @@
       <c r="Q530" s="8"/>
       <c r="R530" s="9"/>
       <c r="S530" s="6"/>
-      <c r="T530" s="34"/>
+      <c r="T530" s="32"/>
     </row>
     <row r="531" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F531" s="7"/>
@@ -12351,7 +12527,7 @@
       <c r="Q531" s="8"/>
       <c r="R531" s="9"/>
       <c r="S531" s="6"/>
-      <c r="T531" s="34"/>
+      <c r="T531" s="32"/>
     </row>
     <row r="532" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F532" s="7"/>
@@ -12368,7 +12544,7 @@
       <c r="Q532" s="8"/>
       <c r="R532" s="9"/>
       <c r="S532" s="6"/>
-      <c r="T532" s="34"/>
+      <c r="T532" s="32"/>
     </row>
     <row r="533" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F533" s="7"/>
@@ -12385,7 +12561,7 @@
       <c r="Q533" s="8"/>
       <c r="R533" s="9"/>
       <c r="S533" s="6"/>
-      <c r="T533" s="34"/>
+      <c r="T533" s="32"/>
     </row>
     <row r="534" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F534" s="7"/>
@@ -12402,7 +12578,7 @@
       <c r="Q534" s="8"/>
       <c r="R534" s="9"/>
       <c r="S534" s="6"/>
-      <c r="T534" s="34"/>
+      <c r="T534" s="32"/>
     </row>
     <row r="535" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F535" s="7"/>
@@ -12419,7 +12595,7 @@
       <c r="Q535" s="8"/>
       <c r="R535" s="9"/>
       <c r="S535" s="6"/>
-      <c r="T535" s="34"/>
+      <c r="T535" s="32"/>
     </row>
     <row r="536" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F536" s="7"/>
@@ -12436,7 +12612,7 @@
       <c r="Q536" s="8"/>
       <c r="R536" s="9"/>
       <c r="S536" s="6"/>
-      <c r="T536" s="34"/>
+      <c r="T536" s="32"/>
     </row>
     <row r="537" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F537" s="7"/>
@@ -12453,7 +12629,7 @@
       <c r="Q537" s="8"/>
       <c r="R537" s="9"/>
       <c r="S537" s="6"/>
-      <c r="T537" s="34"/>
+      <c r="T537" s="32"/>
     </row>
     <row r="538" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F538" s="7"/>
@@ -12470,7 +12646,7 @@
       <c r="Q538" s="8"/>
       <c r="R538" s="9"/>
       <c r="S538" s="6"/>
-      <c r="T538" s="34"/>
+      <c r="T538" s="32"/>
     </row>
     <row r="539" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F539" s="7"/>
@@ -12487,7 +12663,7 @@
       <c r="Q539" s="8"/>
       <c r="R539" s="9"/>
       <c r="S539" s="6"/>
-      <c r="T539" s="34"/>
+      <c r="T539" s="32"/>
     </row>
     <row r="540" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F540" s="7"/>
@@ -12504,7 +12680,7 @@
       <c r="Q540" s="8"/>
       <c r="R540" s="9"/>
       <c r="S540" s="6"/>
-      <c r="T540" s="34"/>
+      <c r="T540" s="32"/>
     </row>
     <row r="541" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F541" s="7"/>
@@ -12521,7 +12697,7 @@
       <c r="Q541" s="8"/>
       <c r="R541" s="9"/>
       <c r="S541" s="6"/>
-      <c r="T541" s="34"/>
+      <c r="T541" s="32"/>
     </row>
     <row r="542" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F542" s="7"/>
@@ -12538,7 +12714,7 @@
       <c r="Q542" s="8"/>
       <c r="R542" s="9"/>
       <c r="S542" s="6"/>
-      <c r="T542" s="34"/>
+      <c r="T542" s="32"/>
     </row>
     <row r="543" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F543" s="7"/>
@@ -12555,7 +12731,7 @@
       <c r="Q543" s="8"/>
       <c r="R543" s="9"/>
       <c r="S543" s="6"/>
-      <c r="T543" s="34"/>
+      <c r="T543" s="32"/>
     </row>
     <row r="544" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F544" s="7"/>
@@ -12572,7 +12748,7 @@
       <c r="Q544" s="8"/>
       <c r="R544" s="9"/>
       <c r="S544" s="6"/>
-      <c r="T544" s="34"/>
+      <c r="T544" s="32"/>
     </row>
     <row r="545" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F545" s="7"/>
@@ -12589,7 +12765,7 @@
       <c r="Q545" s="8"/>
       <c r="R545" s="9"/>
       <c r="S545" s="6"/>
-      <c r="T545" s="34"/>
+      <c r="T545" s="32"/>
     </row>
     <row r="546" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F546" s="7"/>
@@ -12606,7 +12782,7 @@
       <c r="Q546" s="8"/>
       <c r="R546" s="9"/>
       <c r="S546" s="6"/>
-      <c r="T546" s="34"/>
+      <c r="T546" s="32"/>
     </row>
     <row r="547" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F547" s="7"/>
@@ -12623,7 +12799,7 @@
       <c r="Q547" s="8"/>
       <c r="R547" s="9"/>
       <c r="S547" s="6"/>
-      <c r="T547" s="34"/>
+      <c r="T547" s="32"/>
     </row>
     <row r="548" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F548" s="7"/>
@@ -12640,7 +12816,7 @@
       <c r="Q548" s="8"/>
       <c r="R548" s="9"/>
       <c r="S548" s="6"/>
-      <c r="T548" s="34"/>
+      <c r="T548" s="32"/>
     </row>
     <row r="549" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F549" s="7"/>
@@ -12657,7 +12833,7 @@
       <c r="Q549" s="8"/>
       <c r="R549" s="9"/>
       <c r="S549" s="6"/>
-      <c r="T549" s="34"/>
+      <c r="T549" s="32"/>
     </row>
     <row r="550" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F550" s="7"/>
@@ -12674,7 +12850,7 @@
       <c r="Q550" s="8"/>
       <c r="R550" s="9"/>
       <c r="S550" s="6"/>
-      <c r="T550" s="34"/>
+      <c r="T550" s="32"/>
     </row>
     <row r="551" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F551" s="7"/>
@@ -12691,7 +12867,7 @@
       <c r="Q551" s="8"/>
       <c r="R551" s="9"/>
       <c r="S551" s="6"/>
-      <c r="T551" s="34"/>
+      <c r="T551" s="32"/>
     </row>
     <row r="552" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F552" s="7"/>
@@ -12708,7 +12884,7 @@
       <c r="Q552" s="8"/>
       <c r="R552" s="9"/>
       <c r="S552" s="6"/>
-      <c r="T552" s="34"/>
+      <c r="T552" s="32"/>
     </row>
     <row r="553" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F553" s="7"/>
@@ -12725,7 +12901,7 @@
       <c r="Q553" s="8"/>
       <c r="R553" s="9"/>
       <c r="S553" s="6"/>
-      <c r="T553" s="34"/>
+      <c r="T553" s="32"/>
     </row>
     <row r="554" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F554" s="7"/>
@@ -12742,7 +12918,7 @@
       <c r="Q554" s="8"/>
       <c r="R554" s="9"/>
       <c r="S554" s="6"/>
-      <c r="T554" s="34"/>
+      <c r="T554" s="32"/>
     </row>
     <row r="555" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F555" s="7"/>
@@ -12759,7 +12935,7 @@
       <c r="Q555" s="8"/>
       <c r="R555" s="9"/>
       <c r="S555" s="6"/>
-      <c r="T555" s="34"/>
+      <c r="T555" s="32"/>
     </row>
     <row r="556" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F556" s="7"/>
@@ -12776,7 +12952,7 @@
       <c r="Q556" s="8"/>
       <c r="R556" s="9"/>
       <c r="S556" s="6"/>
-      <c r="T556" s="34"/>
+      <c r="T556" s="32"/>
     </row>
     <row r="557" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F557" s="7"/>
@@ -12793,7 +12969,7 @@
       <c r="Q557" s="8"/>
       <c r="R557" s="9"/>
       <c r="S557" s="6"/>
-      <c r="T557" s="34"/>
+      <c r="T557" s="32"/>
     </row>
     <row r="558" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F558" s="7"/>
@@ -12810,7 +12986,7 @@
       <c r="Q558" s="8"/>
       <c r="R558" s="9"/>
       <c r="S558" s="6"/>
-      <c r="T558" s="34"/>
+      <c r="T558" s="32"/>
     </row>
     <row r="559" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F559" s="7"/>
@@ -12827,7 +13003,7 @@
       <c r="Q559" s="8"/>
       <c r="R559" s="9"/>
       <c r="S559" s="6"/>
-      <c r="T559" s="34"/>
+      <c r="T559" s="32"/>
     </row>
     <row r="560" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F560" s="7"/>
@@ -12844,7 +13020,7 @@
       <c r="Q560" s="8"/>
       <c r="R560" s="9"/>
       <c r="S560" s="6"/>
-      <c r="T560" s="34"/>
+      <c r="T560" s="32"/>
     </row>
     <row r="561" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F561" s="7"/>
@@ -12861,7 +13037,7 @@
       <c r="Q561" s="8"/>
       <c r="R561" s="9"/>
       <c r="S561" s="6"/>
-      <c r="T561" s="34"/>
+      <c r="T561" s="32"/>
     </row>
     <row r="562" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F562" s="7"/>
@@ -12878,7 +13054,7 @@
       <c r="Q562" s="8"/>
       <c r="R562" s="9"/>
       <c r="S562" s="6"/>
-      <c r="T562" s="34"/>
+      <c r="T562" s="32"/>
     </row>
     <row r="563" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F563" s="7"/>
@@ -12895,7 +13071,7 @@
       <c r="Q563" s="8"/>
       <c r="R563" s="9"/>
       <c r="S563" s="6"/>
-      <c r="T563" s="34"/>
+      <c r="T563" s="32"/>
     </row>
     <row r="564" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F564" s="7"/>
@@ -12912,7 +13088,7 @@
       <c r="Q564" s="8"/>
       <c r="R564" s="9"/>
       <c r="S564" s="6"/>
-      <c r="T564" s="34"/>
+      <c r="T564" s="32"/>
     </row>
     <row r="565" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F565" s="7"/>
@@ -12929,7 +13105,7 @@
       <c r="Q565" s="8"/>
       <c r="R565" s="9"/>
       <c r="S565" s="6"/>
-      <c r="T565" s="34"/>
+      <c r="T565" s="32"/>
     </row>
     <row r="566" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F566" s="7"/>
@@ -12946,7 +13122,7 @@
       <c r="Q566" s="8"/>
       <c r="R566" s="9"/>
       <c r="S566" s="6"/>
-      <c r="T566" s="34"/>
+      <c r="T566" s="32"/>
     </row>
     <row r="567" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F567" s="7"/>
@@ -12963,7 +13139,7 @@
       <c r="Q567" s="8"/>
       <c r="R567" s="9"/>
       <c r="S567" s="6"/>
-      <c r="T567" s="34"/>
+      <c r="T567" s="32"/>
     </row>
     <row r="568" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F568" s="7"/>
@@ -12980,7 +13156,7 @@
       <c r="Q568" s="8"/>
       <c r="R568" s="9"/>
       <c r="S568" s="6"/>
-      <c r="T568" s="34"/>
+      <c r="T568" s="32"/>
     </row>
     <row r="569" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F569" s="7"/>
@@ -12997,7 +13173,7 @@
       <c r="Q569" s="8"/>
       <c r="R569" s="9"/>
       <c r="S569" s="6"/>
-      <c r="T569" s="34"/>
+      <c r="T569" s="32"/>
     </row>
     <row r="570" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F570" s="7"/>
@@ -13014,7 +13190,7 @@
       <c r="Q570" s="8"/>
       <c r="R570" s="9"/>
       <c r="S570" s="6"/>
-      <c r="T570" s="34"/>
+      <c r="T570" s="32"/>
     </row>
     <row r="571" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F571" s="7"/>
@@ -13031,7 +13207,7 @@
       <c r="Q571" s="8"/>
       <c r="R571" s="9"/>
       <c r="S571" s="6"/>
-      <c r="T571" s="34"/>
+      <c r="T571" s="32"/>
     </row>
     <row r="572" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F572" s="7"/>
@@ -13048,7 +13224,7 @@
       <c r="Q572" s="8"/>
       <c r="R572" s="9"/>
       <c r="S572" s="6"/>
-      <c r="T572" s="34"/>
+      <c r="T572" s="32"/>
     </row>
     <row r="573" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F573" s="7"/>
@@ -13065,7 +13241,7 @@
       <c r="Q573" s="8"/>
       <c r="R573" s="9"/>
       <c r="S573" s="6"/>
-      <c r="T573" s="34"/>
+      <c r="T573" s="32"/>
     </row>
     <row r="574" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F574" s="7"/>
@@ -13082,7 +13258,7 @@
       <c r="Q574" s="8"/>
       <c r="R574" s="9"/>
       <c r="S574" s="6"/>
-      <c r="T574" s="34"/>
+      <c r="T574" s="32"/>
     </row>
     <row r="575" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F575" s="7"/>
@@ -13099,7 +13275,7 @@
       <c r="Q575" s="8"/>
       <c r="R575" s="9"/>
       <c r="S575" s="6"/>
-      <c r="T575" s="34"/>
+      <c r="T575" s="32"/>
     </row>
     <row r="576" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F576" s="7"/>
@@ -13116,7 +13292,7 @@
       <c r="Q576" s="8"/>
       <c r="R576" s="9"/>
       <c r="S576" s="6"/>
-      <c r="T576" s="34"/>
+      <c r="T576" s="32"/>
     </row>
     <row r="577" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F577" s="7"/>
@@ -13133,7 +13309,7 @@
       <c r="Q577" s="8"/>
       <c r="R577" s="9"/>
       <c r="S577" s="6"/>
-      <c r="T577" s="34"/>
+      <c r="T577" s="32"/>
     </row>
     <row r="578" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F578" s="7"/>
@@ -13150,7 +13326,7 @@
       <c r="Q578" s="8"/>
       <c r="R578" s="9"/>
       <c r="S578" s="6"/>
-      <c r="T578" s="34"/>
+      <c r="T578" s="32"/>
     </row>
     <row r="579" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F579" s="7"/>
@@ -13167,7 +13343,7 @@
       <c r="Q579" s="8"/>
       <c r="R579" s="9"/>
       <c r="S579" s="6"/>
-      <c r="T579" s="34"/>
+      <c r="T579" s="32"/>
     </row>
     <row r="580" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F580" s="7"/>
@@ -13184,7 +13360,7 @@
       <c r="Q580" s="8"/>
       <c r="R580" s="9"/>
       <c r="S580" s="6"/>
-      <c r="T580" s="34"/>
+      <c r="T580" s="32"/>
     </row>
     <row r="581" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F581" s="7"/>
@@ -13201,7 +13377,7 @@
       <c r="Q581" s="8"/>
       <c r="R581" s="9"/>
       <c r="S581" s="6"/>
-      <c r="T581" s="34"/>
+      <c r="T581" s="32"/>
     </row>
     <row r="582" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F582" s="7"/>
@@ -13218,7 +13394,7 @@
       <c r="Q582" s="8"/>
       <c r="R582" s="9"/>
       <c r="S582" s="6"/>
-      <c r="T582" s="34"/>
+      <c r="T582" s="32"/>
     </row>
     <row r="583" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F583" s="7"/>
@@ -13235,7 +13411,7 @@
       <c r="Q583" s="8"/>
       <c r="R583" s="9"/>
       <c r="S583" s="6"/>
-      <c r="T583" s="34"/>
+      <c r="T583" s="32"/>
     </row>
     <row r="584" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F584" s="7"/>
@@ -13252,7 +13428,7 @@
       <c r="Q584" s="8"/>
       <c r="R584" s="9"/>
       <c r="S584" s="6"/>
-      <c r="T584" s="34"/>
+      <c r="T584" s="32"/>
     </row>
     <row r="585" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F585" s="7"/>
@@ -13269,7 +13445,7 @@
       <c r="Q585" s="8"/>
       <c r="R585" s="9"/>
       <c r="S585" s="6"/>
-      <c r="T585" s="34"/>
+      <c r="T585" s="32"/>
     </row>
     <row r="586" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F586" s="7"/>
@@ -13286,7 +13462,7 @@
       <c r="Q586" s="8"/>
       <c r="R586" s="9"/>
       <c r="S586" s="6"/>
-      <c r="T586" s="34"/>
+      <c r="T586" s="32"/>
     </row>
     <row r="587" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F587" s="7"/>
@@ -13303,7 +13479,7 @@
       <c r="Q587" s="8"/>
       <c r="R587" s="9"/>
       <c r="S587" s="6"/>
-      <c r="T587" s="34"/>
+      <c r="T587" s="32"/>
     </row>
     <row r="588" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F588" s="7"/>
@@ -13320,7 +13496,7 @@
       <c r="Q588" s="8"/>
       <c r="R588" s="9"/>
       <c r="S588" s="6"/>
-      <c r="T588" s="34"/>
+      <c r="T588" s="32"/>
     </row>
     <row r="589" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F589" s="7"/>
@@ -13337,7 +13513,7 @@
       <c r="Q589" s="8"/>
       <c r="R589" s="9"/>
       <c r="S589" s="6"/>
-      <c r="T589" s="34"/>
+      <c r="T589" s="32"/>
     </row>
     <row r="590" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F590" s="7"/>
@@ -13354,7 +13530,7 @@
       <c r="Q590" s="8"/>
       <c r="R590" s="9"/>
       <c r="S590" s="6"/>
-      <c r="T590" s="34"/>
+      <c r="T590" s="32"/>
     </row>
     <row r="591" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F591" s="7"/>
@@ -13371,7 +13547,7 @@
       <c r="Q591" s="8"/>
       <c r="R591" s="9"/>
       <c r="S591" s="6"/>
-      <c r="T591" s="34"/>
+      <c r="T591" s="32"/>
     </row>
     <row r="592" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F592" s="7"/>
@@ -13388,7 +13564,7 @@
       <c r="Q592" s="8"/>
       <c r="R592" s="9"/>
       <c r="S592" s="6"/>
-      <c r="T592" s="34"/>
+      <c r="T592" s="32"/>
     </row>
     <row r="593" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F593" s="7"/>
@@ -13405,7 +13581,7 @@
       <c r="Q593" s="8"/>
       <c r="R593" s="9"/>
       <c r="S593" s="6"/>
-      <c r="T593" s="34"/>
+      <c r="T593" s="32"/>
     </row>
     <row r="594" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F594" s="7"/>
@@ -13422,7 +13598,7 @@
       <c r="Q594" s="8"/>
       <c r="R594" s="9"/>
       <c r="S594" s="6"/>
-      <c r="T594" s="34"/>
+      <c r="T594" s="32"/>
     </row>
     <row r="595" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F595" s="7"/>
@@ -13439,7 +13615,7 @@
       <c r="Q595" s="8"/>
       <c r="R595" s="9"/>
       <c r="S595" s="6"/>
-      <c r="T595" s="34"/>
+      <c r="T595" s="32"/>
     </row>
     <row r="596" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F596" s="7"/>
@@ -13456,7 +13632,7 @@
       <c r="Q596" s="8"/>
       <c r="R596" s="9"/>
       <c r="S596" s="6"/>
-      <c r="T596" s="34"/>
+      <c r="T596" s="32"/>
     </row>
     <row r="597" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F597" s="7"/>
@@ -13473,7 +13649,7 @@
       <c r="Q597" s="8"/>
       <c r="R597" s="9"/>
       <c r="S597" s="6"/>
-      <c r="T597" s="34"/>
+      <c r="T597" s="32"/>
     </row>
     <row r="598" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F598" s="7"/>
@@ -13490,7 +13666,7 @@
       <c r="Q598" s="8"/>
       <c r="R598" s="9"/>
       <c r="S598" s="6"/>
-      <c r="T598" s="34"/>
+      <c r="T598" s="32"/>
     </row>
     <row r="599" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F599" s="7"/>
@@ -13507,7 +13683,7 @@
       <c r="Q599" s="8"/>
       <c r="R599" s="9"/>
       <c r="S599" s="6"/>
-      <c r="T599" s="34"/>
+      <c r="T599" s="32"/>
     </row>
     <row r="600" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F600" s="7"/>
@@ -13524,7 +13700,7 @@
       <c r="Q600" s="8"/>
       <c r="R600" s="9"/>
       <c r="S600" s="6"/>
-      <c r="T600" s="34"/>
+      <c r="T600" s="32"/>
     </row>
     <row r="601" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F601" s="7"/>
@@ -13541,7 +13717,7 @@
       <c r="Q601" s="8"/>
       <c r="R601" s="9"/>
       <c r="S601" s="6"/>
-      <c r="T601" s="34"/>
+      <c r="T601" s="32"/>
     </row>
     <row r="602" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F602" s="7"/>
@@ -13558,7 +13734,7 @@
       <c r="Q602" s="8"/>
       <c r="R602" s="9"/>
       <c r="S602" s="6"/>
-      <c r="T602" s="34"/>
+      <c r="T602" s="32"/>
     </row>
     <row r="603" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F603" s="7"/>
@@ -13575,7 +13751,7 @@
       <c r="Q603" s="8"/>
       <c r="R603" s="9"/>
       <c r="S603" s="6"/>
-      <c r="T603" s="34"/>
+      <c r="T603" s="32"/>
     </row>
     <row r="604" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F604" s="7"/>
@@ -13592,7 +13768,7 @@
       <c r="Q604" s="8"/>
       <c r="R604" s="9"/>
       <c r="S604" s="6"/>
-      <c r="T604" s="34"/>
+      <c r="T604" s="32"/>
     </row>
     <row r="605" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F605" s="7"/>
@@ -13609,7 +13785,7 @@
       <c r="Q605" s="8"/>
       <c r="R605" s="9"/>
       <c r="S605" s="6"/>
-      <c r="T605" s="34"/>
+      <c r="T605" s="32"/>
     </row>
     <row r="606" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F606" s="7"/>
@@ -13626,7 +13802,7 @@
       <c r="Q606" s="8"/>
       <c r="R606" s="9"/>
       <c r="S606" s="6"/>
-      <c r="T606" s="34"/>
+      <c r="T606" s="32"/>
     </row>
     <row r="607" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F607" s="7"/>
@@ -13643,7 +13819,7 @@
       <c r="Q607" s="8"/>
       <c r="R607" s="9"/>
       <c r="S607" s="6"/>
-      <c r="T607" s="34"/>
+      <c r="T607" s="32"/>
     </row>
     <row r="608" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F608" s="7"/>
@@ -13660,7 +13836,7 @@
       <c r="Q608" s="8"/>
       <c r="R608" s="9"/>
       <c r="S608" s="6"/>
-      <c r="T608" s="34"/>
+      <c r="T608" s="32"/>
     </row>
     <row r="609" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F609" s="7"/>
@@ -13677,7 +13853,7 @@
       <c r="Q609" s="8"/>
       <c r="R609" s="9"/>
       <c r="S609" s="6"/>
-      <c r="T609" s="34"/>
+      <c r="T609" s="32"/>
     </row>
     <row r="610" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F610" s="7"/>
@@ -13694,7 +13870,7 @@
       <c r="Q610" s="8"/>
       <c r="R610" s="9"/>
       <c r="S610" s="6"/>
-      <c r="T610" s="34"/>
+      <c r="T610" s="32"/>
     </row>
     <row r="611" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F611" s="7"/>
@@ -13711,7 +13887,7 @@
       <c r="Q611" s="8"/>
       <c r="R611" s="9"/>
       <c r="S611" s="6"/>
-      <c r="T611" s="34"/>
+      <c r="T611" s="32"/>
     </row>
     <row r="612" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F612" s="7"/>
@@ -13728,7 +13904,7 @@
       <c r="Q612" s="8"/>
       <c r="R612" s="9"/>
       <c r="S612" s="6"/>
-      <c r="T612" s="34"/>
+      <c r="T612" s="32"/>
     </row>
     <row r="613" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F613" s="7"/>
@@ -13745,7 +13921,7 @@
       <c r="Q613" s="8"/>
       <c r="R613" s="9"/>
       <c r="S613" s="6"/>
-      <c r="T613" s="34"/>
+      <c r="T613" s="32"/>
     </row>
     <row r="614" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F614" s="7"/>
@@ -13762,7 +13938,7 @@
       <c r="Q614" s="8"/>
       <c r="R614" s="9"/>
       <c r="S614" s="6"/>
-      <c r="T614" s="34"/>
+      <c r="T614" s="32"/>
     </row>
     <row r="615" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F615" s="7"/>
@@ -13779,7 +13955,7 @@
       <c r="Q615" s="8"/>
       <c r="R615" s="9"/>
       <c r="S615" s="6"/>
-      <c r="T615" s="34"/>
+      <c r="T615" s="32"/>
     </row>
     <row r="616" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F616" s="7"/>
@@ -13796,7 +13972,7 @@
       <c r="Q616" s="8"/>
       <c r="R616" s="9"/>
       <c r="S616" s="6"/>
-      <c r="T616" s="34"/>
+      <c r="T616" s="32"/>
     </row>
     <row r="617" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F617" s="7"/>
@@ -13813,7 +13989,7 @@
       <c r="Q617" s="8"/>
       <c r="R617" s="9"/>
       <c r="S617" s="6"/>
-      <c r="T617" s="34"/>
+      <c r="T617" s="32"/>
     </row>
     <row r="618" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F618" s="7"/>
@@ -13830,7 +14006,7 @@
       <c r="Q618" s="8"/>
       <c r="R618" s="9"/>
       <c r="S618" s="6"/>
-      <c r="T618" s="34"/>
+      <c r="T618" s="32"/>
     </row>
     <row r="619" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F619" s="7"/>
@@ -13847,7 +14023,7 @@
       <c r="Q619" s="8"/>
       <c r="R619" s="9"/>
       <c r="S619" s="6"/>
-      <c r="T619" s="34"/>
+      <c r="T619" s="32"/>
     </row>
     <row r="620" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F620" s="7"/>
@@ -13864,7 +14040,7 @@
       <c r="Q620" s="8"/>
       <c r="R620" s="9"/>
       <c r="S620" s="6"/>
-      <c r="T620" s="34"/>
+      <c r="T620" s="32"/>
     </row>
     <row r="621" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F621" s="7"/>
@@ -13881,7 +14057,7 @@
       <c r="Q621" s="8"/>
       <c r="R621" s="9"/>
       <c r="S621" s="6"/>
-      <c r="T621" s="34"/>
+      <c r="T621" s="32"/>
     </row>
     <row r="622" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F622" s="7"/>
@@ -13898,7 +14074,7 @@
       <c r="Q622" s="8"/>
       <c r="R622" s="9"/>
       <c r="S622" s="6"/>
-      <c r="T622" s="34"/>
+      <c r="T622" s="32"/>
     </row>
     <row r="623" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F623" s="7"/>
@@ -13915,7 +14091,7 @@
       <c r="Q623" s="8"/>
       <c r="R623" s="9"/>
       <c r="S623" s="6"/>
-      <c r="T623" s="34"/>
+      <c r="T623" s="32"/>
     </row>
     <row r="624" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F624" s="7"/>
@@ -13932,7 +14108,7 @@
       <c r="Q624" s="8"/>
       <c r="R624" s="9"/>
       <c r="S624" s="6"/>
-      <c r="T624" s="34"/>
+      <c r="T624" s="32"/>
     </row>
     <row r="625" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F625" s="7"/>
@@ -13949,7 +14125,7 @@
       <c r="Q625" s="8"/>
       <c r="R625" s="9"/>
       <c r="S625" s="6"/>
-      <c r="T625" s="34"/>
+      <c r="T625" s="32"/>
     </row>
     <row r="626" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F626" s="7"/>
@@ -13966,7 +14142,7 @@
       <c r="Q626" s="8"/>
       <c r="R626" s="9"/>
       <c r="S626" s="6"/>
-      <c r="T626" s="34"/>
+      <c r="T626" s="32"/>
     </row>
     <row r="627" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F627" s="7"/>
@@ -13983,7 +14159,7 @@
       <c r="Q627" s="8"/>
       <c r="R627" s="9"/>
       <c r="S627" s="6"/>
-      <c r="T627" s="34"/>
+      <c r="T627" s="32"/>
     </row>
     <row r="628" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F628" s="7"/>
@@ -14000,7 +14176,7 @@
       <c r="Q628" s="8"/>
       <c r="R628" s="9"/>
       <c r="S628" s="6"/>
-      <c r="T628" s="34"/>
+      <c r="T628" s="32"/>
     </row>
     <row r="629" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F629" s="7"/>
@@ -14017,7 +14193,7 @@
       <c r="Q629" s="8"/>
       <c r="R629" s="9"/>
       <c r="S629" s="6"/>
-      <c r="T629" s="34"/>
+      <c r="T629" s="32"/>
     </row>
     <row r="630" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F630" s="7"/>
@@ -14034,7 +14210,7 @@
       <c r="Q630" s="8"/>
       <c r="R630" s="9"/>
       <c r="S630" s="6"/>
-      <c r="T630" s="34"/>
+      <c r="T630" s="32"/>
     </row>
     <row r="631" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F631" s="7"/>
@@ -14051,7 +14227,7 @@
       <c r="Q631" s="8"/>
       <c r="R631" s="9"/>
       <c r="S631" s="6"/>
-      <c r="T631" s="34"/>
+      <c r="T631" s="32"/>
     </row>
     <row r="632" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F632" s="7"/>
@@ -14068,7 +14244,7 @@
       <c r="Q632" s="8"/>
       <c r="R632" s="9"/>
       <c r="S632" s="6"/>
-      <c r="T632" s="34"/>
+      <c r="T632" s="32"/>
     </row>
     <row r="633" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F633" s="7"/>
@@ -14085,7 +14261,7 @@
       <c r="Q633" s="8"/>
       <c r="R633" s="9"/>
       <c r="S633" s="6"/>
-      <c r="T633" s="34"/>
+      <c r="T633" s="32"/>
     </row>
     <row r="634" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F634" s="7"/>
@@ -14102,7 +14278,7 @@
       <c r="Q634" s="8"/>
       <c r="R634" s="9"/>
       <c r="S634" s="6"/>
-      <c r="T634" s="34"/>
+      <c r="T634" s="32"/>
     </row>
     <row r="635" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F635" s="7"/>
@@ -14119,7 +14295,7 @@
       <c r="Q635" s="8"/>
       <c r="R635" s="9"/>
       <c r="S635" s="6"/>
-      <c r="T635" s="34"/>
+      <c r="T635" s="32"/>
     </row>
     <row r="636" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F636" s="7"/>
@@ -14136,7 +14312,7 @@
       <c r="Q636" s="8"/>
       <c r="R636" s="9"/>
       <c r="S636" s="6"/>
-      <c r="T636" s="34"/>
+      <c r="T636" s="32"/>
     </row>
     <row r="637" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F637" s="7"/>
@@ -14153,7 +14329,7 @@
       <c r="Q637" s="8"/>
       <c r="R637" s="9"/>
       <c r="S637" s="6"/>
-      <c r="T637" s="34"/>
+      <c r="T637" s="32"/>
     </row>
     <row r="638" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F638" s="7"/>
@@ -14170,7 +14346,7 @@
       <c r="Q638" s="8"/>
       <c r="R638" s="9"/>
       <c r="S638" s="6"/>
-      <c r="T638" s="34"/>
+      <c r="T638" s="32"/>
     </row>
     <row r="639" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F639" s="7"/>
@@ -14187,7 +14363,7 @@
       <c r="Q639" s="8"/>
       <c r="R639" s="9"/>
       <c r="S639" s="6"/>
-      <c r="T639" s="34"/>
+      <c r="T639" s="32"/>
     </row>
     <row r="640" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F640" s="7"/>
@@ -14204,7 +14380,7 @@
       <c r="Q640" s="8"/>
       <c r="R640" s="9"/>
       <c r="S640" s="6"/>
-      <c r="T640" s="34"/>
+      <c r="T640" s="32"/>
     </row>
     <row r="641" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F641" s="7"/>
@@ -14221,7 +14397,7 @@
       <c r="Q641" s="8"/>
       <c r="R641" s="9"/>
       <c r="S641" s="6"/>
-      <c r="T641" s="34"/>
+      <c r="T641" s="32"/>
     </row>
     <row r="642" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F642" s="7"/>
@@ -14238,7 +14414,7 @@
       <c r="Q642" s="8"/>
       <c r="R642" s="9"/>
       <c r="S642" s="6"/>
-      <c r="T642" s="34"/>
+      <c r="T642" s="32"/>
     </row>
     <row r="643" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F643" s="7"/>
@@ -14255,7 +14431,7 @@
       <c r="Q643" s="8"/>
       <c r="R643" s="9"/>
       <c r="S643" s="6"/>
-      <c r="T643" s="34"/>
+      <c r="T643" s="32"/>
     </row>
     <row r="644" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F644" s="7"/>
@@ -14272,7 +14448,7 @@
       <c r="Q644" s="8"/>
       <c r="R644" s="9"/>
       <c r="S644" s="6"/>
-      <c r="T644" s="34"/>
+      <c r="T644" s="32"/>
     </row>
     <row r="645" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F645" s="7"/>
@@ -14289,7 +14465,7 @@
       <c r="Q645" s="8"/>
       <c r="R645" s="9"/>
       <c r="S645" s="6"/>
-      <c r="T645" s="34"/>
+      <c r="T645" s="32"/>
     </row>
     <row r="646" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F646" s="7"/>
@@ -14306,7 +14482,7 @@
       <c r="Q646" s="8"/>
       <c r="R646" s="9"/>
       <c r="S646" s="6"/>
-      <c r="T646" s="34"/>
+      <c r="T646" s="32"/>
     </row>
     <row r="647" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F647" s="7"/>
@@ -14323,7 +14499,7 @@
       <c r="Q647" s="8"/>
       <c r="R647" s="9"/>
       <c r="S647" s="6"/>
-      <c r="T647" s="34"/>
+      <c r="T647" s="32"/>
     </row>
     <row r="648" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F648" s="7"/>
@@ -14340,7 +14516,7 @@
       <c r="Q648" s="8"/>
       <c r="R648" s="9"/>
       <c r="S648" s="6"/>
-      <c r="T648" s="34"/>
+      <c r="T648" s="32"/>
     </row>
     <row r="649" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F649" s="7"/>
@@ -14357,7 +14533,7 @@
       <c r="Q649" s="8"/>
       <c r="R649" s="9"/>
       <c r="S649" s="6"/>
-      <c r="T649" s="34"/>
+      <c r="T649" s="32"/>
     </row>
     <row r="650" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F650" s="7"/>
@@ -14374,7 +14550,7 @@
       <c r="Q650" s="8"/>
       <c r="R650" s="9"/>
       <c r="S650" s="6"/>
-      <c r="T650" s="34"/>
+      <c r="T650" s="32"/>
     </row>
     <row r="651" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F651" s="7"/>
@@ -14391,7 +14567,7 @@
       <c r="Q651" s="8"/>
       <c r="R651" s="9"/>
       <c r="S651" s="6"/>
-      <c r="T651" s="34"/>
+      <c r="T651" s="32"/>
     </row>
     <row r="652" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F652" s="7"/>
@@ -14408,7 +14584,7 @@
       <c r="Q652" s="8"/>
       <c r="R652" s="9"/>
       <c r="S652" s="6"/>
-      <c r="T652" s="34"/>
+      <c r="T652" s="32"/>
     </row>
     <row r="653" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F653" s="7"/>
@@ -14425,7 +14601,7 @@
       <c r="Q653" s="8"/>
       <c r="R653" s="9"/>
       <c r="S653" s="6"/>
-      <c r="T653" s="34"/>
+      <c r="T653" s="32"/>
     </row>
     <row r="654" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F654" s="7"/>
@@ -14442,7 +14618,7 @@
       <c r="Q654" s="8"/>
       <c r="R654" s="9"/>
       <c r="S654" s="6"/>
-      <c r="T654" s="34"/>
+      <c r="T654" s="32"/>
     </row>
     <row r="655" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F655" s="7"/>
@@ -14459,7 +14635,7 @@
       <c r="Q655" s="8"/>
       <c r="R655" s="9"/>
       <c r="S655" s="6"/>
-      <c r="T655" s="34"/>
+      <c r="T655" s="32"/>
     </row>
     <row r="656" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F656" s="7"/>
@@ -14476,7 +14652,7 @@
       <c r="Q656" s="8"/>
       <c r="R656" s="9"/>
       <c r="S656" s="6"/>
-      <c r="T656" s="34"/>
+      <c r="T656" s="32"/>
     </row>
     <row r="657" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F657" s="7"/>
@@ -14493,7 +14669,7 @@
       <c r="Q657" s="8"/>
       <c r="R657" s="9"/>
       <c r="S657" s="6"/>
-      <c r="T657" s="34"/>
+      <c r="T657" s="32"/>
     </row>
     <row r="658" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F658" s="7"/>
@@ -14510,7 +14686,7 @@
       <c r="Q658" s="8"/>
       <c r="R658" s="9"/>
       <c r="S658" s="6"/>
-      <c r="T658" s="34"/>
+      <c r="T658" s="32"/>
     </row>
     <row r="659" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F659" s="7"/>
@@ -14527,7 +14703,7 @@
       <c r="Q659" s="8"/>
       <c r="R659" s="9"/>
       <c r="S659" s="6"/>
-      <c r="T659" s="34"/>
+      <c r="T659" s="32"/>
     </row>
     <row r="660" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F660" s="7"/>
@@ -14544,7 +14720,7 @@
       <c r="Q660" s="8"/>
       <c r="R660" s="9"/>
       <c r="S660" s="6"/>
-      <c r="T660" s="34"/>
+      <c r="T660" s="32"/>
     </row>
     <row r="661" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F661" s="7"/>
@@ -14561,7 +14737,7 @@
       <c r="Q661" s="8"/>
       <c r="R661" s="9"/>
       <c r="S661" s="6"/>
-      <c r="T661" s="34"/>
+      <c r="T661" s="32"/>
     </row>
     <row r="662" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F662" s="7"/>
@@ -14578,7 +14754,7 @@
       <c r="Q662" s="8"/>
       <c r="R662" s="9"/>
       <c r="S662" s="6"/>
-      <c r="T662" s="34"/>
+      <c r="T662" s="32"/>
     </row>
     <row r="663" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F663" s="7"/>
@@ -14595,7 +14771,7 @@
       <c r="Q663" s="8"/>
       <c r="R663" s="9"/>
       <c r="S663" s="6"/>
-      <c r="T663" s="34"/>
+      <c r="T663" s="32"/>
     </row>
     <row r="664" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F664" s="7"/>
@@ -14612,7 +14788,7 @@
       <c r="Q664" s="8"/>
       <c r="R664" s="9"/>
       <c r="S664" s="6"/>
-      <c r="T664" s="34"/>
+      <c r="T664" s="32"/>
     </row>
     <row r="665" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F665" s="7"/>
@@ -14629,7 +14805,7 @@
       <c r="Q665" s="8"/>
       <c r="R665" s="9"/>
       <c r="S665" s="6"/>
-      <c r="T665" s="34"/>
+      <c r="T665" s="32"/>
     </row>
     <row r="666" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F666" s="7"/>
@@ -14646,7 +14822,7 @@
       <c r="Q666" s="8"/>
       <c r="R666" s="9"/>
       <c r="S666" s="6"/>
-      <c r="T666" s="34"/>
+      <c r="T666" s="32"/>
     </row>
     <row r="667" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F667" s="7"/>
@@ -14663,7 +14839,7 @@
       <c r="Q667" s="8"/>
       <c r="R667" s="9"/>
       <c r="S667" s="6"/>
-      <c r="T667" s="34"/>
+      <c r="T667" s="32"/>
     </row>
     <row r="668" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F668" s="7"/>
@@ -14680,7 +14856,7 @@
       <c r="Q668" s="8"/>
       <c r="R668" s="9"/>
       <c r="S668" s="6"/>
-      <c r="T668" s="34"/>
+      <c r="T668" s="32"/>
     </row>
     <row r="669" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F669" s="7"/>
@@ -14697,7 +14873,7 @@
       <c r="Q669" s="8"/>
       <c r="R669" s="9"/>
       <c r="S669" s="6"/>
-      <c r="T669" s="34"/>
+      <c r="T669" s="32"/>
     </row>
     <row r="670" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F670" s="7"/>
@@ -14714,7 +14890,7 @@
       <c r="Q670" s="8"/>
       <c r="R670" s="9"/>
       <c r="S670" s="6"/>
-      <c r="T670" s="34"/>
+      <c r="T670" s="32"/>
     </row>
     <row r="671" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F671" s="7"/>
@@ -14731,7 +14907,7 @@
       <c r="Q671" s="8"/>
       <c r="R671" s="9"/>
       <c r="S671" s="6"/>
-      <c r="T671" s="34"/>
+      <c r="T671" s="32"/>
     </row>
     <row r="672" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F672" s="7"/>
@@ -14748,7 +14924,7 @@
       <c r="Q672" s="8"/>
       <c r="R672" s="9"/>
       <c r="S672" s="6"/>
-      <c r="T672" s="34"/>
+      <c r="T672" s="32"/>
     </row>
     <row r="673" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F673" s="7"/>
@@ -14765,7 +14941,7 @@
       <c r="Q673" s="8"/>
       <c r="R673" s="9"/>
       <c r="S673" s="6"/>
-      <c r="T673" s="34"/>
+      <c r="T673" s="32"/>
     </row>
     <row r="674" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F674" s="7"/>
@@ -14782,7 +14958,7 @@
       <c r="Q674" s="8"/>
       <c r="R674" s="9"/>
       <c r="S674" s="6"/>
-      <c r="T674" s="34"/>
+      <c r="T674" s="32"/>
     </row>
     <row r="675" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F675" s="7"/>
@@ -14799,7 +14975,7 @@
       <c r="Q675" s="8"/>
       <c r="R675" s="9"/>
       <c r="S675" s="6"/>
-      <c r="T675" s="34"/>
+      <c r="T675" s="32"/>
     </row>
     <row r="676" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F676" s="7"/>
@@ -14816,7 +14992,7 @@
       <c r="Q676" s="8"/>
       <c r="R676" s="9"/>
       <c r="S676" s="6"/>
-      <c r="T676" s="34"/>
+      <c r="T676" s="32"/>
     </row>
     <row r="677" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F677" s="7"/>
@@ -14833,7 +15009,7 @@
       <c r="Q677" s="8"/>
       <c r="R677" s="9"/>
       <c r="S677" s="6"/>
-      <c r="T677" s="34"/>
+      <c r="T677" s="32"/>
     </row>
     <row r="678" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F678" s="7"/>
@@ -14850,7 +15026,7 @@
       <c r="Q678" s="8"/>
       <c r="R678" s="9"/>
       <c r="S678" s="6"/>
-      <c r="T678" s="34"/>
+      <c r="T678" s="32"/>
     </row>
     <row r="679" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F679" s="7"/>
@@ -14867,7 +15043,7 @@
       <c r="Q679" s="8"/>
       <c r="R679" s="9"/>
       <c r="S679" s="6"/>
-      <c r="T679" s="34"/>
+      <c r="T679" s="32"/>
     </row>
     <row r="680" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F680" s="7"/>
@@ -14884,7 +15060,7 @@
       <c r="Q680" s="8"/>
       <c r="R680" s="9"/>
       <c r="S680" s="6"/>
-      <c r="T680" s="34"/>
+      <c r="T680" s="32"/>
     </row>
     <row r="681" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F681" s="7"/>
@@ -14901,7 +15077,7 @@
       <c r="Q681" s="8"/>
       <c r="R681" s="9"/>
       <c r="S681" s="6"/>
-      <c r="T681" s="34"/>
+      <c r="T681" s="32"/>
     </row>
     <row r="682" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F682" s="7"/>
@@ -14918,7 +15094,7 @@
       <c r="Q682" s="8"/>
       <c r="R682" s="9"/>
       <c r="S682" s="6"/>
-      <c r="T682" s="34"/>
+      <c r="T682" s="32"/>
     </row>
     <row r="683" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F683" s="7"/>
@@ -14935,7 +15111,7 @@
       <c r="Q683" s="8"/>
       <c r="R683" s="9"/>
       <c r="S683" s="6"/>
-      <c r="T683" s="34"/>
+      <c r="T683" s="32"/>
     </row>
     <row r="684" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F684" s="7"/>
@@ -14952,7 +15128,7 @@
       <c r="Q684" s="8"/>
       <c r="R684" s="9"/>
       <c r="S684" s="6"/>
-      <c r="T684" s="34"/>
+      <c r="T684" s="32"/>
     </row>
     <row r="685" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F685" s="7"/>
@@ -14969,7 +15145,7 @@
       <c r="Q685" s="8"/>
       <c r="R685" s="9"/>
       <c r="S685" s="6"/>
-      <c r="T685" s="34"/>
+      <c r="T685" s="32"/>
     </row>
     <row r="686" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F686" s="7"/>
@@ -14986,7 +15162,7 @@
       <c r="Q686" s="8"/>
       <c r="R686" s="9"/>
       <c r="S686" s="6"/>
-      <c r="T686" s="34"/>
+      <c r="T686" s="32"/>
     </row>
     <row r="687" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F687" s="7"/>
@@ -15003,7 +15179,7 @@
       <c r="Q687" s="8"/>
       <c r="R687" s="9"/>
       <c r="S687" s="6"/>
-      <c r="T687" s="34"/>
+      <c r="T687" s="32"/>
     </row>
     <row r="688" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F688" s="7"/>
@@ -15020,7 +15196,7 @@
       <c r="Q688" s="8"/>
       <c r="R688" s="9"/>
       <c r="S688" s="6"/>
-      <c r="T688" s="34"/>
+      <c r="T688" s="32"/>
     </row>
     <row r="689" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F689" s="7"/>
@@ -15037,7 +15213,7 @@
       <c r="Q689" s="8"/>
       <c r="R689" s="9"/>
       <c r="S689" s="6"/>
-      <c r="T689" s="34"/>
+      <c r="T689" s="32"/>
     </row>
     <row r="690" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F690" s="7"/>
@@ -15054,7 +15230,7 @@
       <c r="Q690" s="8"/>
       <c r="R690" s="9"/>
       <c r="S690" s="6"/>
-      <c r="T690" s="34"/>
+      <c r="T690" s="32"/>
     </row>
     <row r="691" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F691" s="7"/>
@@ -15071,7 +15247,7 @@
       <c r="Q691" s="8"/>
       <c r="R691" s="9"/>
       <c r="S691" s="6"/>
-      <c r="T691" s="34"/>
+      <c r="T691" s="32"/>
     </row>
     <row r="692" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F692" s="7"/>
@@ -15088,7 +15264,7 @@
       <c r="Q692" s="8"/>
       <c r="R692" s="9"/>
       <c r="S692" s="6"/>
-      <c r="T692" s="34"/>
+      <c r="T692" s="32"/>
     </row>
     <row r="693" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F693" s="7"/>
@@ -15105,7 +15281,7 @@
       <c r="Q693" s="8"/>
       <c r="R693" s="9"/>
       <c r="S693" s="6"/>
-      <c r="T693" s="34"/>
+      <c r="T693" s="32"/>
     </row>
     <row r="694" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F694" s="7"/>
@@ -15122,7 +15298,7 @@
       <c r="Q694" s="8"/>
       <c r="R694" s="9"/>
       <c r="S694" s="6"/>
-      <c r="T694" s="34"/>
+      <c r="T694" s="32"/>
     </row>
     <row r="695" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F695" s="7"/>
@@ -15139,7 +15315,7 @@
       <c r="Q695" s="8"/>
       <c r="R695" s="9"/>
       <c r="S695" s="6"/>
-      <c r="T695" s="34"/>
+      <c r="T695" s="32"/>
     </row>
     <row r="696" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F696" s="7"/>
@@ -15156,7 +15332,7 @@
       <c r="Q696" s="8"/>
       <c r="R696" s="9"/>
       <c r="S696" s="6"/>
-      <c r="T696" s="34"/>
+      <c r="T696" s="32"/>
     </row>
     <row r="697" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F697" s="7"/>
@@ -15173,7 +15349,7 @@
       <c r="Q697" s="8"/>
       <c r="R697" s="9"/>
       <c r="S697" s="6"/>
-      <c r="T697" s="34"/>
+      <c r="T697" s="32"/>
     </row>
     <row r="698" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F698" s="7"/>
@@ -15190,7 +15366,7 @@
       <c r="Q698" s="8"/>
       <c r="R698" s="9"/>
       <c r="S698" s="6"/>
-      <c r="T698" s="34"/>
+      <c r="T698" s="32"/>
     </row>
     <row r="699" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F699" s="7"/>
@@ -15207,7 +15383,7 @@
       <c r="Q699" s="8"/>
       <c r="R699" s="9"/>
       <c r="S699" s="6"/>
-      <c r="T699" s="34"/>
+      <c r="T699" s="32"/>
     </row>
     <row r="700" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F700" s="7"/>
@@ -15224,7 +15400,7 @@
       <c r="Q700" s="8"/>
       <c r="R700" s="9"/>
       <c r="S700" s="6"/>
-      <c r="T700" s="34"/>
+      <c r="T700" s="32"/>
     </row>
     <row r="701" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F701" s="7"/>
@@ -15241,7 +15417,7 @@
       <c r="Q701" s="8"/>
       <c r="R701" s="9"/>
       <c r="S701" s="6"/>
-      <c r="T701" s="34"/>
+      <c r="T701" s="32"/>
     </row>
     <row r="702" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F702" s="7"/>
@@ -15258,7 +15434,7 @@
       <c r="Q702" s="8"/>
       <c r="R702" s="9"/>
       <c r="S702" s="6"/>
-      <c r="T702" s="34"/>
+      <c r="T702" s="32"/>
     </row>
     <row r="703" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F703" s="7"/>
@@ -15275,7 +15451,7 @@
       <c r="Q703" s="8"/>
       <c r="R703" s="9"/>
       <c r="S703" s="6"/>
-      <c r="T703" s="34"/>
+      <c r="T703" s="32"/>
     </row>
     <row r="704" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F704" s="7"/>
@@ -15292,7 +15468,7 @@
       <c r="Q704" s="8"/>
       <c r="R704" s="9"/>
       <c r="S704" s="6"/>
-      <c r="T704" s="34"/>
+      <c r="T704" s="32"/>
     </row>
     <row r="705" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F705" s="7"/>
@@ -15309,7 +15485,7 @@
       <c r="Q705" s="8"/>
       <c r="R705" s="9"/>
       <c r="S705" s="6"/>
-      <c r="T705" s="34"/>
+      <c r="T705" s="32"/>
     </row>
     <row r="706" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F706" s="7"/>
@@ -15326,7 +15502,7 @@
       <c r="Q706" s="8"/>
       <c r="R706" s="9"/>
       <c r="S706" s="6"/>
-      <c r="T706" s="34"/>
+      <c r="T706" s="32"/>
     </row>
     <row r="707" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F707" s="7"/>
@@ -15343,7 +15519,7 @@
       <c r="Q707" s="8"/>
       <c r="R707" s="9"/>
       <c r="S707" s="6"/>
-      <c r="T707" s="34"/>
+      <c r="T707" s="32"/>
     </row>
     <row r="708" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F708" s="7"/>
@@ -15360,7 +15536,7 @@
       <c r="Q708" s="8"/>
       <c r="R708" s="9"/>
       <c r="S708" s="6"/>
-      <c r="T708" s="34"/>
+      <c r="T708" s="32"/>
     </row>
     <row r="709" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F709" s="7"/>
@@ -15377,7 +15553,7 @@
       <c r="Q709" s="8"/>
       <c r="R709" s="9"/>
       <c r="S709" s="6"/>
-      <c r="T709" s="34"/>
+      <c r="T709" s="32"/>
     </row>
     <row r="710" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F710" s="7"/>
@@ -15394,7 +15570,7 @@
       <c r="Q710" s="8"/>
       <c r="R710" s="9"/>
       <c r="S710" s="6"/>
-      <c r="T710" s="34"/>
+      <c r="T710" s="32"/>
     </row>
     <row r="711" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F711" s="7"/>
@@ -15411,7 +15587,7 @@
       <c r="Q711" s="8"/>
       <c r="R711" s="9"/>
       <c r="S711" s="6"/>
-      <c r="T711" s="34"/>
+      <c r="T711" s="32"/>
     </row>
     <row r="712" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F712" s="7"/>
@@ -15428,7 +15604,7 @@
       <c r="Q712" s="8"/>
       <c r="R712" s="9"/>
       <c r="S712" s="6"/>
-      <c r="T712" s="34"/>
+      <c r="T712" s="32"/>
     </row>
     <row r="713" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F713" s="7"/>
@@ -15445,7 +15621,7 @@
       <c r="Q713" s="8"/>
       <c r="R713" s="9"/>
       <c r="S713" s="6"/>
-      <c r="T713" s="34"/>
+      <c r="T713" s="32"/>
     </row>
     <row r="714" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F714" s="7"/>
@@ -15462,7 +15638,7 @@
       <c r="Q714" s="8"/>
       <c r="R714" s="9"/>
       <c r="S714" s="6"/>
-      <c r="T714" s="34"/>
+      <c r="T714" s="32"/>
     </row>
     <row r="715" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F715" s="7"/>
@@ -15479,7 +15655,7 @@
       <c r="Q715" s="8"/>
       <c r="R715" s="9"/>
       <c r="S715" s="6"/>
-      <c r="T715" s="34"/>
+      <c r="T715" s="32"/>
     </row>
     <row r="716" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F716" s="7"/>
@@ -15496,7 +15672,7 @@
       <c r="Q716" s="8"/>
       <c r="R716" s="9"/>
       <c r="S716" s="6"/>
-      <c r="T716" s="34"/>
+      <c r="T716" s="32"/>
     </row>
     <row r="717" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F717" s="7"/>
@@ -15513,7 +15689,7 @@
       <c r="Q717" s="8"/>
       <c r="R717" s="9"/>
       <c r="S717" s="6"/>
-      <c r="T717" s="34"/>
+      <c r="T717" s="32"/>
     </row>
     <row r="718" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F718" s="7"/>
@@ -15530,7 +15706,7 @@
       <c r="Q718" s="8"/>
       <c r="R718" s="9"/>
       <c r="S718" s="6"/>
-      <c r="T718" s="34"/>
+      <c r="T718" s="32"/>
     </row>
     <row r="719" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F719" s="7"/>
@@ -15547,7 +15723,7 @@
       <c r="Q719" s="8"/>
       <c r="R719" s="9"/>
       <c r="S719" s="6"/>
-      <c r="T719" s="34"/>
+      <c r="T719" s="32"/>
     </row>
     <row r="720" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F720" s="7"/>
@@ -15564,7 +15740,7 @@
       <c r="Q720" s="8"/>
       <c r="R720" s="9"/>
       <c r="S720" s="6"/>
-      <c r="T720" s="34"/>
+      <c r="T720" s="32"/>
     </row>
     <row r="721" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F721" s="7"/>
@@ -15581,7 +15757,7 @@
       <c r="Q721" s="8"/>
       <c r="R721" s="9"/>
       <c r="S721" s="6"/>
-      <c r="T721" s="34"/>
+      <c r="T721" s="32"/>
     </row>
     <row r="722" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F722" s="7"/>
@@ -15598,7 +15774,7 @@
       <c r="Q722" s="8"/>
       <c r="R722" s="9"/>
       <c r="S722" s="6"/>
-      <c r="T722" s="34"/>
+      <c r="T722" s="32"/>
     </row>
     <row r="723" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F723" s="7"/>
@@ -15615,7 +15791,7 @@
       <c r="Q723" s="8"/>
       <c r="R723" s="9"/>
       <c r="S723" s="6"/>
-      <c r="T723" s="34"/>
+      <c r="T723" s="32"/>
     </row>
     <row r="724" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F724" s="7"/>
@@ -15632,7 +15808,7 @@
       <c r="Q724" s="8"/>
       <c r="R724" s="9"/>
       <c r="S724" s="6"/>
-      <c r="T724" s="34"/>
+      <c r="T724" s="32"/>
     </row>
     <row r="725" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F725" s="7"/>
@@ -15649,7 +15825,7 @@
       <c r="Q725" s="8"/>
       <c r="R725" s="9"/>
       <c r="S725" s="6"/>
-      <c r="T725" s="34"/>
+      <c r="T725" s="32"/>
     </row>
     <row r="726" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F726" s="7"/>
@@ -15666,7 +15842,7 @@
       <c r="Q726" s="8"/>
       <c r="R726" s="9"/>
       <c r="S726" s="6"/>
-      <c r="T726" s="34"/>
+      <c r="T726" s="32"/>
     </row>
     <row r="727" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F727" s="7"/>
@@ -15683,7 +15859,7 @@
       <c r="Q727" s="8"/>
       <c r="R727" s="9"/>
       <c r="S727" s="6"/>
-      <c r="T727" s="34"/>
+      <c r="T727" s="32"/>
     </row>
     <row r="728" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F728" s="7"/>
@@ -15700,7 +15876,7 @@
       <c r="Q728" s="8"/>
       <c r="R728" s="9"/>
       <c r="S728" s="6"/>
-      <c r="T728" s="34"/>
+      <c r="T728" s="32"/>
     </row>
     <row r="729" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F729" s="7"/>
@@ -15717,7 +15893,7 @@
       <c r="Q729" s="8"/>
       <c r="R729" s="9"/>
       <c r="S729" s="6"/>
-      <c r="T729" s="34"/>
+      <c r="T729" s="32"/>
     </row>
     <row r="730" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F730" s="7"/>
@@ -15734,7 +15910,7 @@
       <c r="Q730" s="8"/>
       <c r="R730" s="9"/>
       <c r="S730" s="6"/>
-      <c r="T730" s="34"/>
+      <c r="T730" s="32"/>
     </row>
     <row r="731" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F731" s="7"/>
@@ -15751,7 +15927,7 @@
       <c r="Q731" s="8"/>
       <c r="R731" s="9"/>
       <c r="S731" s="6"/>
-      <c r="T731" s="34"/>
+      <c r="T731" s="32"/>
     </row>
     <row r="732" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F732" s="7"/>
@@ -15768,7 +15944,7 @@
       <c r="Q732" s="8"/>
       <c r="R732" s="9"/>
       <c r="S732" s="6"/>
-      <c r="T732" s="34"/>
+      <c r="T732" s="32"/>
     </row>
     <row r="733" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F733" s="7"/>
@@ -15785,7 +15961,7 @@
       <c r="Q733" s="8"/>
       <c r="R733" s="9"/>
       <c r="S733" s="6"/>
-      <c r="T733" s="34"/>
+      <c r="T733" s="32"/>
     </row>
     <row r="734" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F734" s="7"/>
@@ -15802,7 +15978,7 @@
       <c r="Q734" s="8"/>
       <c r="R734" s="9"/>
       <c r="S734" s="6"/>
-      <c r="T734" s="34"/>
+      <c r="T734" s="32"/>
     </row>
     <row r="735" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F735" s="7"/>
@@ -15819,7 +15995,7 @@
       <c r="Q735" s="8"/>
       <c r="R735" s="9"/>
       <c r="S735" s="6"/>
-      <c r="T735" s="34"/>
+      <c r="T735" s="32"/>
     </row>
     <row r="736" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F736" s="7"/>
@@ -15836,7 +16012,7 @@
       <c r="Q736" s="8"/>
       <c r="R736" s="9"/>
       <c r="S736" s="6"/>
-      <c r="T736" s="34"/>
+      <c r="T736" s="32"/>
     </row>
     <row r="737" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F737" s="7"/>
@@ -15853,7 +16029,7 @@
       <c r="Q737" s="8"/>
       <c r="R737" s="9"/>
       <c r="S737" s="6"/>
-      <c r="T737" s="34"/>
+      <c r="T737" s="32"/>
     </row>
     <row r="738" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F738" s="7"/>
@@ -15870,7 +16046,7 @@
       <c r="Q738" s="8"/>
       <c r="R738" s="9"/>
       <c r="S738" s="6"/>
-      <c r="T738" s="34"/>
+      <c r="T738" s="32"/>
     </row>
     <row r="739" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F739" s="7"/>
@@ -15887,7 +16063,7 @@
       <c r="Q739" s="8"/>
       <c r="R739" s="9"/>
       <c r="S739" s="6"/>
-      <c r="T739" s="34"/>
+      <c r="T739" s="32"/>
     </row>
     <row r="740" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F740" s="7"/>
@@ -15904,7 +16080,7 @@
       <c r="Q740" s="8"/>
       <c r="R740" s="9"/>
       <c r="S740" s="6"/>
-      <c r="T740" s="34"/>
+      <c r="T740" s="32"/>
     </row>
     <row r="741" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F741" s="7"/>
@@ -15921,7 +16097,7 @@
       <c r="Q741" s="8"/>
       <c r="R741" s="9"/>
       <c r="S741" s="6"/>
-      <c r="T741" s="34"/>
+      <c r="T741" s="32"/>
     </row>
     <row r="742" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F742" s="7"/>
@@ -15938,7 +16114,7 @@
       <c r="Q742" s="8"/>
       <c r="R742" s="9"/>
       <c r="S742" s="6"/>
-      <c r="T742" s="34"/>
+      <c r="T742" s="32"/>
     </row>
     <row r="743" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F743" s="7"/>
@@ -15955,7 +16131,7 @@
       <c r="Q743" s="8"/>
       <c r="R743" s="9"/>
       <c r="S743" s="6"/>
-      <c r="T743" s="34"/>
+      <c r="T743" s="32"/>
     </row>
     <row r="744" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F744" s="7"/>
@@ -15972,7 +16148,7 @@
       <c r="Q744" s="8"/>
       <c r="R744" s="9"/>
       <c r="S744" s="6"/>
-      <c r="T744" s="34"/>
+      <c r="T744" s="32"/>
     </row>
     <row r="745" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F745" s="7"/>
@@ -15989,7 +16165,7 @@
       <c r="Q745" s="8"/>
       <c r="R745" s="9"/>
       <c r="S745" s="6"/>
-      <c r="T745" s="34"/>
+      <c r="T745" s="32"/>
     </row>
     <row r="746" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F746" s="7"/>
@@ -16006,7 +16182,7 @@
       <c r="Q746" s="8"/>
       <c r="R746" s="9"/>
       <c r="S746" s="6"/>
-      <c r="T746" s="34"/>
+      <c r="T746" s="32"/>
     </row>
     <row r="747" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F747" s="7"/>
@@ -16023,7 +16199,7 @@
       <c r="Q747" s="8"/>
       <c r="R747" s="9"/>
       <c r="S747" s="6"/>
-      <c r="T747" s="34"/>
+      <c r="T747" s="32"/>
     </row>
     <row r="748" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F748" s="7"/>
@@ -16040,7 +16216,7 @@
       <c r="Q748" s="8"/>
       <c r="R748" s="9"/>
       <c r="S748" s="6"/>
-      <c r="T748" s="34"/>
+      <c r="T748" s="32"/>
     </row>
     <row r="749" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F749" s="7"/>
@@ -16057,7 +16233,7 @@
       <c r="Q749" s="8"/>
       <c r="R749" s="9"/>
       <c r="S749" s="6"/>
-      <c r="T749" s="34"/>
+      <c r="T749" s="32"/>
     </row>
     <row r="750" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F750" s="7"/>
@@ -16074,7 +16250,7 @@
       <c r="Q750" s="8"/>
       <c r="R750" s="9"/>
       <c r="S750" s="6"/>
-      <c r="T750" s="34"/>
+      <c r="T750" s="32"/>
     </row>
     <row r="751" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F751" s="7"/>
@@ -16091,7 +16267,7 @@
       <c r="Q751" s="8"/>
       <c r="R751" s="9"/>
       <c r="S751" s="6"/>
-      <c r="T751" s="34"/>
+      <c r="T751" s="32"/>
     </row>
     <row r="752" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F752" s="7"/>
@@ -16108,7 +16284,7 @@
       <c r="Q752" s="8"/>
       <c r="R752" s="9"/>
       <c r="S752" s="6"/>
-      <c r="T752" s="34"/>
+      <c r="T752" s="32"/>
     </row>
     <row r="753" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F753" s="7"/>
@@ -16125,7 +16301,7 @@
       <c r="Q753" s="8"/>
       <c r="R753" s="9"/>
       <c r="S753" s="6"/>
-      <c r="T753" s="34"/>
+      <c r="T753" s="32"/>
     </row>
     <row r="754" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F754" s="7"/>
@@ -16142,7 +16318,7 @@
       <c r="Q754" s="8"/>
       <c r="R754" s="9"/>
       <c r="S754" s="6"/>
-      <c r="T754" s="34"/>
+      <c r="T754" s="32"/>
     </row>
     <row r="755" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F755" s="7"/>
@@ -16159,7 +16335,7 @@
       <c r="Q755" s="8"/>
       <c r="R755" s="9"/>
       <c r="S755" s="6"/>
-      <c r="T755" s="34"/>
+      <c r="T755" s="32"/>
     </row>
     <row r="756" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F756" s="7"/>
@@ -16176,7 +16352,7 @@
       <c r="Q756" s="8"/>
       <c r="R756" s="9"/>
       <c r="S756" s="6"/>
-      <c r="T756" s="34"/>
+      <c r="T756" s="32"/>
     </row>
     <row r="757" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F757" s="7"/>
@@ -16193,7 +16369,7 @@
       <c r="Q757" s="8"/>
       <c r="R757" s="9"/>
       <c r="S757" s="6"/>
-      <c r="T757" s="34"/>
+      <c r="T757" s="32"/>
     </row>
     <row r="758" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F758" s="7"/>
@@ -16210,7 +16386,7 @@
       <c r="Q758" s="8"/>
       <c r="R758" s="9"/>
       <c r="S758" s="6"/>
-      <c r="T758" s="34"/>
+      <c r="T758" s="32"/>
     </row>
     <row r="759" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F759" s="7"/>
@@ -16227,7 +16403,7 @@
       <c r="Q759" s="8"/>
       <c r="R759" s="9"/>
       <c r="S759" s="6"/>
-      <c r="T759" s="34"/>
+      <c r="T759" s="32"/>
     </row>
     <row r="760" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F760" s="7"/>
@@ -16244,7 +16420,7 @@
       <c r="Q760" s="8"/>
       <c r="R760" s="9"/>
       <c r="S760" s="6"/>
-      <c r="T760" s="34"/>
+      <c r="T760" s="32"/>
     </row>
     <row r="761" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F761" s="7"/>
@@ -16261,7 +16437,7 @@
       <c r="Q761" s="8"/>
       <c r="R761" s="9"/>
       <c r="S761" s="6"/>
-      <c r="T761" s="34"/>
+      <c r="T761" s="32"/>
     </row>
     <row r="762" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F762" s="7"/>
@@ -16278,7 +16454,7 @@
       <c r="Q762" s="8"/>
       <c r="R762" s="9"/>
       <c r="S762" s="6"/>
-      <c r="T762" s="34"/>
+      <c r="T762" s="32"/>
     </row>
     <row r="763" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F763" s="7"/>
@@ -16295,7 +16471,7 @@
       <c r="Q763" s="8"/>
       <c r="R763" s="9"/>
       <c r="S763" s="6"/>
-      <c r="T763" s="34"/>
+      <c r="T763" s="32"/>
     </row>
     <row r="764" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F764" s="7"/>
@@ -16312,7 +16488,7 @@
       <c r="Q764" s="8"/>
       <c r="R764" s="9"/>
       <c r="S764" s="6"/>
-      <c r="T764" s="34"/>
+      <c r="T764" s="32"/>
     </row>
     <row r="765" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F765" s="7"/>
@@ -16329,7 +16505,7 @@
       <c r="Q765" s="8"/>
       <c r="R765" s="9"/>
       <c r="S765" s="6"/>
-      <c r="T765" s="34"/>
+      <c r="T765" s="32"/>
     </row>
     <row r="766" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F766" s="7"/>
@@ -16346,7 +16522,7 @@
       <c r="Q766" s="8"/>
       <c r="R766" s="9"/>
       <c r="S766" s="6"/>
-      <c r="T766" s="34"/>
+      <c r="T766" s="32"/>
     </row>
     <row r="767" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F767" s="7"/>
@@ -16363,7 +16539,7 @@
       <c r="Q767" s="8"/>
       <c r="R767" s="9"/>
       <c r="S767" s="6"/>
-      <c r="T767" s="34"/>
+      <c r="T767" s="32"/>
     </row>
     <row r="768" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F768" s="7"/>
@@ -16380,7 +16556,7 @@
       <c r="Q768" s="8"/>
       <c r="R768" s="9"/>
       <c r="S768" s="6"/>
-      <c r="T768" s="34"/>
+      <c r="T768" s="32"/>
     </row>
     <row r="769" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F769" s="7"/>
@@ -16397,7 +16573,7 @@
       <c r="Q769" s="8"/>
       <c r="R769" s="9"/>
       <c r="S769" s="6"/>
-      <c r="T769" s="34"/>
+      <c r="T769" s="32"/>
     </row>
     <row r="770" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F770" s="7"/>
@@ -16414,7 +16590,7 @@
       <c r="Q770" s="8"/>
       <c r="R770" s="9"/>
       <c r="S770" s="6"/>
-      <c r="T770" s="34"/>
+      <c r="T770" s="32"/>
     </row>
     <row r="771" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F771" s="7"/>
@@ -16431,7 +16607,7 @@
       <c r="Q771" s="8"/>
       <c r="R771" s="9"/>
       <c r="S771" s="6"/>
-      <c r="T771" s="34"/>
+      <c r="T771" s="32"/>
     </row>
     <row r="772" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F772" s="7"/>
@@ -16448,7 +16624,7 @@
       <c r="Q772" s="8"/>
       <c r="R772" s="9"/>
       <c r="S772" s="6"/>
-      <c r="T772" s="34"/>
+      <c r="T772" s="32"/>
     </row>
     <row r="773" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F773" s="7"/>
@@ -16465,7 +16641,7 @@
       <c r="Q773" s="8"/>
       <c r="R773" s="9"/>
       <c r="S773" s="6"/>
-      <c r="T773" s="34"/>
+      <c r="T773" s="32"/>
     </row>
     <row r="774" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F774" s="7"/>
@@ -16482,7 +16658,7 @@
       <c r="Q774" s="8"/>
       <c r="R774" s="9"/>
       <c r="S774" s="6"/>
-      <c r="T774" s="34"/>
+      <c r="T774" s="32"/>
     </row>
     <row r="775" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F775" s="7"/>
@@ -16499,7 +16675,7 @@
       <c r="Q775" s="8"/>
       <c r="R775" s="9"/>
       <c r="S775" s="6"/>
-      <c r="T775" s="34"/>
+      <c r="T775" s="32"/>
     </row>
     <row r="776" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F776" s="7"/>
@@ -16516,7 +16692,7 @@
       <c r="Q776" s="8"/>
       <c r="R776" s="9"/>
       <c r="S776" s="6"/>
-      <c r="T776" s="34"/>
+      <c r="T776" s="32"/>
     </row>
     <row r="777" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F777" s="7"/>
@@ -16533,7 +16709,7 @@
       <c r="Q777" s="8"/>
       <c r="R777" s="9"/>
       <c r="S777" s="6"/>
-      <c r="T777" s="34"/>
+      <c r="T777" s="32"/>
     </row>
     <row r="778" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F778" s="7"/>
@@ -16550,7 +16726,7 @@
       <c r="Q778" s="8"/>
       <c r="R778" s="9"/>
       <c r="S778" s="6"/>
-      <c r="T778" s="34"/>
+      <c r="T778" s="32"/>
     </row>
     <row r="779" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F779" s="7"/>
@@ -16567,7 +16743,7 @@
       <c r="Q779" s="8"/>
       <c r="R779" s="9"/>
       <c r="S779" s="6"/>
-      <c r="T779" s="34"/>
+      <c r="T779" s="32"/>
     </row>
     <row r="780" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F780" s="7"/>
@@ -16584,7 +16760,7 @@
       <c r="Q780" s="8"/>
       <c r="R780" s="9"/>
       <c r="S780" s="6"/>
-      <c r="T780" s="34"/>
+      <c r="T780" s="32"/>
     </row>
     <row r="781" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F781" s="7"/>
@@ -16601,7 +16777,7 @@
       <c r="Q781" s="8"/>
       <c r="R781" s="9"/>
       <c r="S781" s="6"/>
-      <c r="T781" s="34"/>
+      <c r="T781" s="32"/>
     </row>
     <row r="782" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F782" s="7"/>
@@ -16618,7 +16794,7 @@
       <c r="Q782" s="8"/>
       <c r="R782" s="9"/>
       <c r="S782" s="6"/>
-      <c r="T782" s="34"/>
+      <c r="T782" s="32"/>
     </row>
     <row r="783" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F783" s="7"/>
@@ -16635,7 +16811,7 @@
       <c r="Q783" s="8"/>
       <c r="R783" s="9"/>
       <c r="S783" s="6"/>
-      <c r="T783" s="34"/>
+      <c r="T783" s="32"/>
     </row>
     <row r="784" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F784" s="7"/>
@@ -16652,7 +16828,7 @@
       <c r="Q784" s="8"/>
       <c r="R784" s="9"/>
       <c r="S784" s="6"/>
-      <c r="T784" s="34"/>
+      <c r="T784" s="32"/>
     </row>
     <row r="785" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F785" s="7"/>
@@ -16669,7 +16845,7 @@
       <c r="Q785" s="8"/>
       <c r="R785" s="9"/>
       <c r="S785" s="6"/>
-      <c r="T785" s="34"/>
+      <c r="T785" s="32"/>
     </row>
     <row r="786" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F786" s="7"/>
@@ -16686,7 +16862,7 @@
       <c r="Q786" s="8"/>
       <c r="R786" s="9"/>
       <c r="S786" s="6"/>
-      <c r="T786" s="34"/>
+      <c r="T786" s="32"/>
     </row>
     <row r="787" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F787" s="7"/>
@@ -16703,7 +16879,7 @@
       <c r="Q787" s="8"/>
       <c r="R787" s="9"/>
       <c r="S787" s="6"/>
-      <c r="T787" s="34"/>
+      <c r="T787" s="32"/>
     </row>
     <row r="788" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F788" s="7"/>
@@ -16720,7 +16896,7 @@
       <c r="Q788" s="8"/>
       <c r="R788" s="9"/>
       <c r="S788" s="6"/>
-      <c r="T788" s="34"/>
+      <c r="T788" s="32"/>
     </row>
     <row r="789" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F789" s="7"/>
@@ -16737,7 +16913,7 @@
       <c r="Q789" s="8"/>
       <c r="R789" s="9"/>
       <c r="S789" s="6"/>
-      <c r="T789" s="34"/>
+      <c r="T789" s="32"/>
     </row>
     <row r="790" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F790" s="7"/>
@@ -16754,7 +16930,7 @@
       <c r="Q790" s="8"/>
       <c r="R790" s="9"/>
       <c r="S790" s="6"/>
-      <c r="T790" s="34"/>
+      <c r="T790" s="32"/>
     </row>
     <row r="791" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F791" s="7"/>
@@ -16771,7 +16947,7 @@
       <c r="Q791" s="8"/>
       <c r="R791" s="9"/>
       <c r="S791" s="6"/>
-      <c r="T791" s="34"/>
+      <c r="T791" s="32"/>
     </row>
     <row r="792" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F792" s="7"/>
@@ -16788,7 +16964,7 @@
       <c r="Q792" s="8"/>
       <c r="R792" s="9"/>
       <c r="S792" s="6"/>
-      <c r="T792" s="34"/>
+      <c r="T792" s="32"/>
     </row>
     <row r="793" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F793" s="7"/>
@@ -16805,7 +16981,7 @@
       <c r="Q793" s="8"/>
       <c r="R793" s="9"/>
       <c r="S793" s="6"/>
-      <c r="T793" s="34"/>
+      <c r="T793" s="32"/>
     </row>
     <row r="794" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F794" s="7"/>
@@ -16822,7 +16998,7 @@
       <c r="Q794" s="8"/>
       <c r="R794" s="9"/>
       <c r="S794" s="6"/>
-      <c r="T794" s="34"/>
+      <c r="T794" s="32"/>
     </row>
     <row r="795" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F795" s="7"/>
@@ -16839,7 +17015,7 @@
       <c r="Q795" s="8"/>
       <c r="R795" s="9"/>
       <c r="S795" s="6"/>
-      <c r="T795" s="34"/>
+      <c r="T795" s="32"/>
     </row>
     <row r="796" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F796" s="7"/>
@@ -16856,7 +17032,7 @@
       <c r="Q796" s="8"/>
       <c r="R796" s="9"/>
       <c r="S796" s="6"/>
-      <c r="T796" s="34"/>
+      <c r="T796" s="32"/>
     </row>
     <row r="797" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F797" s="7"/>
@@ -16873,7 +17049,7 @@
       <c r="Q797" s="8"/>
       <c r="R797" s="9"/>
       <c r="S797" s="6"/>
-      <c r="T797" s="34"/>
+      <c r="T797" s="32"/>
     </row>
     <row r="798" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F798" s="7"/>
@@ -16890,7 +17066,7 @@
       <c r="Q798" s="8"/>
       <c r="R798" s="9"/>
       <c r="S798" s="6"/>
-      <c r="T798" s="34"/>
+      <c r="T798" s="32"/>
     </row>
     <row r="799" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F799" s="7"/>
@@ -16907,7 +17083,7 @@
       <c r="Q799" s="8"/>
       <c r="R799" s="9"/>
       <c r="S799" s="6"/>
-      <c r="T799" s="34"/>
+      <c r="T799" s="32"/>
     </row>
     <row r="800" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F800" s="7"/>
@@ -16924,7 +17100,7 @@
       <c r="Q800" s="8"/>
       <c r="R800" s="9"/>
       <c r="S800" s="6"/>
-      <c r="T800" s="34"/>
+      <c r="T800" s="32"/>
     </row>
     <row r="801" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F801" s="7"/>
@@ -16941,7 +17117,7 @@
       <c r="Q801" s="8"/>
       <c r="R801" s="9"/>
       <c r="S801" s="6"/>
-      <c r="T801" s="34"/>
+      <c r="T801" s="32"/>
     </row>
     <row r="802" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F802" s="7"/>
@@ -16958,7 +17134,7 @@
       <c r="Q802" s="8"/>
       <c r="R802" s="9"/>
       <c r="S802" s="6"/>
-      <c r="T802" s="34"/>
+      <c r="T802" s="32"/>
     </row>
     <row r="803" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F803" s="7"/>
@@ -16975,7 +17151,7 @@
       <c r="Q803" s="8"/>
       <c r="R803" s="9"/>
       <c r="S803" s="6"/>
-      <c r="T803" s="34"/>
+      <c r="T803" s="32"/>
     </row>
     <row r="804" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F804" s="7"/>
@@ -16992,7 +17168,7 @@
       <c r="Q804" s="8"/>
       <c r="R804" s="9"/>
       <c r="S804" s="6"/>
-      <c r="T804" s="34"/>
+      <c r="T804" s="32"/>
     </row>
     <row r="805" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F805" s="7"/>
@@ -17009,7 +17185,7 @@
       <c r="Q805" s="8"/>
       <c r="R805" s="9"/>
       <c r="S805" s="6"/>
-      <c r="T805" s="34"/>
+      <c r="T805" s="32"/>
     </row>
     <row r="806" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F806" s="7"/>
@@ -17026,7 +17202,7 @@
       <c r="Q806" s="8"/>
       <c r="R806" s="9"/>
       <c r="S806" s="6"/>
-      <c r="T806" s="34"/>
+      <c r="T806" s="32"/>
     </row>
     <row r="807" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F807" s="7"/>
@@ -17043,7 +17219,7 @@
       <c r="Q807" s="8"/>
       <c r="R807" s="9"/>
       <c r="S807" s="6"/>
-      <c r="T807" s="34"/>
+      <c r="T807" s="32"/>
     </row>
     <row r="808" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F808" s="7"/>
@@ -17060,7 +17236,7 @@
       <c r="Q808" s="8"/>
       <c r="R808" s="9"/>
       <c r="S808" s="6"/>
-      <c r="T808" s="34"/>
+      <c r="T808" s="32"/>
     </row>
     <row r="809" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F809" s="7"/>
@@ -17077,7 +17253,7 @@
       <c r="Q809" s="8"/>
       <c r="R809" s="9"/>
       <c r="S809" s="6"/>
-      <c r="T809" s="34"/>
+      <c r="T809" s="32"/>
     </row>
     <row r="810" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F810" s="7"/>
@@ -17094,7 +17270,7 @@
       <c r="Q810" s="8"/>
       <c r="R810" s="9"/>
       <c r="S810" s="6"/>
-      <c r="T810" s="34"/>
+      <c r="T810" s="32"/>
     </row>
     <row r="811" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F811" s="7"/>
@@ -17111,7 +17287,7 @@
       <c r="Q811" s="8"/>
       <c r="R811" s="9"/>
       <c r="S811" s="6"/>
-      <c r="T811" s="34"/>
+      <c r="T811" s="32"/>
     </row>
     <row r="812" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F812" s="7"/>
@@ -17128,7 +17304,7 @@
       <c r="Q812" s="8"/>
       <c r="R812" s="9"/>
       <c r="S812" s="6"/>
-      <c r="T812" s="34"/>
+      <c r="T812" s="32"/>
     </row>
     <row r="813" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F813" s="7"/>
@@ -17145,7 +17321,7 @@
       <c r="Q813" s="8"/>
       <c r="R813" s="9"/>
       <c r="S813" s="6"/>
-      <c r="T813" s="34"/>
+      <c r="T813" s="32"/>
     </row>
     <row r="814" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F814" s="7"/>
@@ -17162,7 +17338,7 @@
       <c r="Q814" s="8"/>
       <c r="R814" s="9"/>
       <c r="S814" s="6"/>
-      <c r="T814" s="34"/>
+      <c r="T814" s="32"/>
     </row>
     <row r="815" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F815" s="7"/>
@@ -17179,7 +17355,7 @@
       <c r="Q815" s="8"/>
       <c r="R815" s="9"/>
       <c r="S815" s="6"/>
-      <c r="T815" s="34"/>
+      <c r="T815" s="32"/>
     </row>
     <row r="816" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F816" s="7"/>
@@ -17196,7 +17372,7 @@
       <c r="Q816" s="8"/>
       <c r="R816" s="9"/>
       <c r="S816" s="6"/>
-      <c r="T816" s="34"/>
+      <c r="T816" s="32"/>
     </row>
     <row r="817" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F817" s="7"/>
@@ -17213,7 +17389,7 @@
       <c r="Q817" s="8"/>
       <c r="R817" s="9"/>
       <c r="S817" s="6"/>
-      <c r="T817" s="34"/>
+      <c r="T817" s="32"/>
     </row>
     <row r="818" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F818" s="7"/>
@@ -17230,10 +17406,95 @@
       <c r="Q818" s="8"/>
       <c r="R818" s="9"/>
       <c r="S818" s="6"/>
-      <c r="T818" s="34"/>
+      <c r="T818" s="32"/>
+    </row>
+    <row r="819" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F819" s="7"/>
+      <c r="G819" s="7"/>
+      <c r="H819" s="7"/>
+      <c r="I819" s="7"/>
+      <c r="J819" s="8"/>
+      <c r="K819" s="8"/>
+      <c r="L819" s="8"/>
+      <c r="M819" s="8"/>
+      <c r="N819" s="8"/>
+      <c r="O819" s="8"/>
+      <c r="P819" s="8"/>
+      <c r="Q819" s="8"/>
+      <c r="R819" s="9"/>
+      <c r="S819" s="6"/>
+      <c r="T819" s="32"/>
+    </row>
+    <row r="820" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F820" s="7"/>
+      <c r="G820" s="7"/>
+      <c r="H820" s="7"/>
+      <c r="I820" s="7"/>
+      <c r="J820" s="8"/>
+      <c r="K820" s="8"/>
+      <c r="L820" s="8"/>
+      <c r="M820" s="8"/>
+      <c r="N820" s="8"/>
+      <c r="O820" s="8"/>
+      <c r="P820" s="8"/>
+      <c r="Q820" s="8"/>
+      <c r="R820" s="9"/>
+      <c r="S820" s="6"/>
+      <c r="T820" s="32"/>
+    </row>
+    <row r="821" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F821" s="7"/>
+      <c r="G821" s="7"/>
+      <c r="H821" s="7"/>
+      <c r="I821" s="7"/>
+      <c r="J821" s="8"/>
+      <c r="K821" s="8"/>
+      <c r="L821" s="8"/>
+      <c r="M821" s="8"/>
+      <c r="N821" s="8"/>
+      <c r="O821" s="8"/>
+      <c r="P821" s="8"/>
+      <c r="Q821" s="8"/>
+      <c r="R821" s="9"/>
+      <c r="S821" s="6"/>
+      <c r="T821" s="32"/>
+    </row>
+    <row r="822" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F822" s="7"/>
+      <c r="G822" s="7"/>
+      <c r="H822" s="7"/>
+      <c r="I822" s="7"/>
+      <c r="J822" s="8"/>
+      <c r="K822" s="8"/>
+      <c r="L822" s="8"/>
+      <c r="M822" s="8"/>
+      <c r="N822" s="8"/>
+      <c r="O822" s="8"/>
+      <c r="P822" s="8"/>
+      <c r="Q822" s="8"/>
+      <c r="R822" s="9"/>
+      <c r="S822" s="6"/>
+      <c r="T822" s="32"/>
+    </row>
+    <row r="823" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F823" s="7"/>
+      <c r="G823" s="7"/>
+      <c r="H823" s="7"/>
+      <c r="I823" s="7"/>
+      <c r="J823" s="8"/>
+      <c r="K823" s="8"/>
+      <c r="L823" s="8"/>
+      <c r="M823" s="8"/>
+      <c r="N823" s="8"/>
+      <c r="O823" s="8"/>
+      <c r="P823" s="8"/>
+      <c r="Q823" s="8"/>
+      <c r="R823" s="9"/>
+      <c r="S823" s="6"/>
+      <c r="T823" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T24" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A9:T29" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -17253,19 +17514,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:M8 O1:O8 O10:O1048576 L10:M1048576</xm:sqref>
+          <xm:sqref>L1:M8 O1:O8 O15:O1048576 L15:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J24</xm:sqref>
+          <xm:sqref>J15:J29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q24</xm:sqref>
+          <xm:sqref>Q15:Q29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17417,7 +17678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>85</v>
       </c>
@@ -19704,6 +19965,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19712,15 +19982,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19743,6 +20004,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -19759,14 +20028,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Eliot_3.0/20.15.04/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Eliot_3.0/20.15.04/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DOCUMENTI\CDA_FSE2.0\AccreditamentoFSE20\pubblicati\Eliot_3.0\20.15.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DCE82-875B-44F1-B8B8-BE92B94C6B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADB1AF-44A7-4971-AE85-D5E985EA8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,12 +600,6 @@
     <t>subject_application_version:20.15.04</t>
   </si>
   <si>
-    <t>05bf2feb0003c4da</t>
-  </si>
-  <si>
-    <t>"2.16.840.1.113883.2.9.2.150.4.4.ea153a088f048ed3d94cbaba83d766ce99b4440e7e56122de8f8aa35e8f51266.aeace24a17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
-  </si>
-  <si>
     <t>4092306d21627ba6</t>
   </si>
   <si>
@@ -694,9 +688,6 @@
   </si>
   <si>
     <t>2023-03-13T14:39:36Z</t>
-  </si>
-  <si>
-    <t>2023-03-13T09:54:28Z</t>
   </si>
   <si>
     <t>2023-03-14T10:00:13Z</t>
@@ -829,6 +820,15 @@
   </si>
   <si>
     <t>Applicativo Trasfusionale, il test OK è il 191.</t>
+  </si>
+  <si>
+    <t>2023-04-06T16:27:30Z</t>
+  </si>
+  <si>
+    <t>638dba87f774d117</t>
+  </si>
+  <si>
+    <t>"2.16.840.1.113883.2.9.2.150.4.4.5e98dd32b2085f500d10e6cffefbaf2768b4c48208dc004af8b895bda82eba43.a238558202^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
   </si>
 </sst>
 </file>
@@ -1286,28 +1286,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,11 +1310,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2784,10 +2784,10 @@
   <dimension ref="A1:T823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,14 +2828,14 @@
       <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="48"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2853,14 +2853,14 @@
       <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2878,12 +2878,12 @@
       <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2902,12 +2902,12 @@
       <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2925,8 +2925,8 @@
       <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3044,35 +3044,35 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+      <c r="A10" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52" t="s">
+      <c r="D10" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
+      <c r="K10" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -3080,35 +3080,35 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="A11" s="35">
         <v>2</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52" t="s">
+      <c r="D11" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="K11" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
@@ -3116,35 +3116,35 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+      <c r="A12" s="35">
         <v>3</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52" t="s">
+      <c r="D12" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="K12" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
@@ -3152,35 +3152,35 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="21"/>
@@ -3188,35 +3188,35 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="35">
         <v>5</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52" t="s">
+      <c r="D14" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="K14" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="21"/>
@@ -3243,13 +3243,13 @@
         <v>44998</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>33</v>
@@ -3262,13 +3262,13 @@
         <v>33</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
@@ -3297,13 +3297,13 @@
         <v>44998</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>33</v>
@@ -3316,13 +3316,13 @@
         <v>33</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
@@ -3351,7 +3351,7 @@
         <v>44998</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -3362,7 +3362,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
@@ -3393,13 +3393,13 @@
         <v>44998</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>33</v>
@@ -3412,13 +3412,13 @@
         <v>33</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
@@ -3427,7 +3427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>53</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -3485,13 +3485,13 @@
         <v>44998</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>33</v>
@@ -3504,13 +3504,13 @@
         <v>33</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
@@ -3539,13 +3539,13 @@
         <v>44998</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>33</v>
@@ -3558,13 +3558,13 @@
         <v>33</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>76</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
@@ -3593,13 +3593,13 @@
         <v>44998</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>33</v>
@@ -3612,13 +3612,13 @@
         <v>33</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>76</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
@@ -3647,13 +3647,13 @@
         <v>44999</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>33</v>
@@ -3666,13 +3666,13 @@
         <v>33</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
@@ -3701,13 +3701,13 @@
         <v>44999</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>33</v>
@@ -3720,13 +3720,13 @@
         <v>33</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
@@ -3755,13 +3755,13 @@
         <v>44999</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>33</v>
@@ -3774,13 +3774,13 @@
         <v>33</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
@@ -3809,13 +3809,13 @@
         <v>44999</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>33</v>
@@ -3828,13 +3828,13 @@
         <v>33</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
@@ -3863,13 +3863,13 @@
         <v>44999</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>33</v>
@@ -3882,13 +3882,13 @@
         <v>33</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
@@ -3917,13 +3917,13 @@
         <v>44999</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>33</v>
@@ -3936,13 +3936,13 @@
         <v>33</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
@@ -3968,16 +3968,16 @@
         <v>84</v>
       </c>
       <c r="F29" s="17">
-        <v>44998</v>
+        <v>45022</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>33</v>
@@ -19965,15 +19965,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19982,6 +19973,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20004,14 +20004,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -20028,6 +20020,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Eliot_3.0/20.15.04/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Eliot_3.0/20.15.04/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DOCUMENTI\CDA_FSE2.0\AccreditamentoFSE20\pubblicati\Eliot_3.0\20.15.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADB1AF-44A7-4971-AE85-D5E985EA8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A10857-039B-43F5-9751-A54A69ACFA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,22 +600,10 @@
     <t>subject_application_version:20.15.04</t>
   </si>
   <si>
-    <t>4092306d21627ba6</t>
-  </si>
-  <si>
     <t>"UNKNOWN_WORKFLOW_ID"</t>
   </si>
   <si>
     <t>Errore di collegamento al gateway</t>
-  </si>
-  <si>
-    <t>Il mancato collegamento comporta la mancata validazione, verrà registrato l'errore ":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403"  sul registro degli eventi dell'applicativo, l'utente è avvisato con un apposito messaggio di cortesia. La Validazione verrà ritentata in automatico appena ripristinato l'errore.</t>
-  </si>
-  <si>
-    <t>2013-03-13T10:35:08Z</t>
-  </si>
-  <si>
-    <t>5635b1831bbc534f</t>
   </si>
   <si>
     <t>Il mancato collegamento comporta la mancata validazione, verrà registrato l'errore ""Il campo action_id non è corretto","status":403, " sul registro degli eventi dell'applicativo, l'utente è avvisato con un apposito messaggio di cortesia. La velidazione verrà riprovata in automatico appena ripristinato l'errore.</t>
@@ -670,9 +658,6 @@
   </si>
   <si>
     <t>Dovranno essere corretti i dati anagrafici direttamente dal Personale e poi rieseguita la validazione. L'errore completo è memorizzato e visibile nel registro degli eventi: "Errore semantico.","detail":"[ERRORE-15| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']","status":422,"instance":"/validation/error"</t>
-  </si>
-  <si>
-    <t>2023-03-13T10:13:37Z</t>
   </si>
   <si>
     <t>2023-03-13T10:48:08Z</t>
@@ -829,6 +814,21 @@
   </si>
   <si>
     <t>"2.16.840.1.113883.2.9.2.150.4.4.5e98dd32b2085f500d10e6cffefbaf2768b4c48208dc004af8b895bda82eba43.a238558202^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
+  </si>
+  <si>
+    <t>dfede93fbf7738bc</t>
+  </si>
+  <si>
+    <t>Il mancato collegamento comporta la mancata validazione, verrà registrato l'errore ":"title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing"  sul registro degli eventi dell'applicativo, l'utente è avvisato con un apposito messaggio di cortesia. La Validazione verrà ritentata in automatico appena ripristinato l'errore.</t>
+  </si>
+  <si>
+    <t>2023-04-26T11:53:19Z</t>
+  </si>
+  <si>
+    <t>f206f9776730ff96</t>
+  </si>
+  <si>
+    <t>2023-04-26T12:04:27Z</t>
   </si>
 </sst>
 </file>
@@ -2784,10 +2784,10 @@
   <dimension ref="A1:T823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,10 +3054,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
@@ -3067,7 +3067,7 @@
         <v>76</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
@@ -3090,10 +3090,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
@@ -3103,7 +3103,7 @@
         <v>76</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
@@ -3126,10 +3126,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
@@ -3139,7 +3139,7 @@
         <v>76</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
@@ -3162,10 +3162,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
@@ -3175,7 +3175,7 @@
         <v>76</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -3198,10 +3198,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
@@ -3211,7 +3211,7 @@
         <v>76</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
@@ -3223,7 +3223,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>28</v>
       </c>
@@ -3240,16 +3240,16 @@
         <v>104</v>
       </c>
       <c r="F15" s="17">
-        <v>44998</v>
+        <v>45042</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="H15" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>33</v>
@@ -3262,13 +3262,13 @@
         <v>33</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
@@ -3294,16 +3294,16 @@
         <v>105</v>
       </c>
       <c r="F16" s="17">
-        <v>44998</v>
+        <v>45042</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>33</v>
@@ -3316,13 +3316,13 @@
         <v>33</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
@@ -3351,7 +3351,7 @@
         <v>44998</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -3362,7 +3362,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
@@ -3393,13 +3393,13 @@
         <v>44998</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>33</v>
@@ -3412,13 +3412,13 @@
         <v>33</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
@@ -3451,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -3485,13 +3485,13 @@
         <v>44998</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>33</v>
@@ -3504,13 +3504,13 @@
         <v>33</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
@@ -3539,13 +3539,13 @@
         <v>44998</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>33</v>
@@ -3558,13 +3558,13 @@
         <v>33</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>76</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
@@ -3593,13 +3593,13 @@
         <v>44998</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>33</v>
@@ -3612,13 +3612,13 @@
         <v>33</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>76</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
@@ -3647,13 +3647,13 @@
         <v>44999</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>33</v>
@@ -3666,13 +3666,13 @@
         <v>33</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
@@ -3701,13 +3701,13 @@
         <v>44999</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>33</v>
@@ -3720,13 +3720,13 @@
         <v>33</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
@@ -3755,13 +3755,13 @@
         <v>44999</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>33</v>
@@ -3774,13 +3774,13 @@
         <v>33</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
@@ -3809,13 +3809,13 @@
         <v>44999</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>33</v>
@@ -3828,13 +3828,13 @@
         <v>33</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
@@ -3863,13 +3863,13 @@
         <v>44999</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>33</v>
@@ -3882,13 +3882,13 @@
         <v>33</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
@@ -3917,13 +3917,13 @@
         <v>44999</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>33</v>
@@ -3936,13 +3936,13 @@
         <v>33</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
@@ -3971,13 +3971,13 @@
         <v>45022</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>33</v>
@@ -19965,6 +19965,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19973,15 +19982,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20004,6 +20004,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -20020,14 +20028,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
